--- a/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>CEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16540100</v>
+        <v>16933200</v>
       </c>
       <c r="E8" s="3">
-        <v>14703100</v>
+        <v>16134300</v>
       </c>
       <c r="F8" s="3">
-        <v>14190700</v>
+        <v>14342400</v>
       </c>
       <c r="G8" s="3">
-        <v>13482700</v>
+        <v>13842600</v>
       </c>
       <c r="H8" s="3">
-        <v>12939700</v>
+        <v>13151900</v>
       </c>
       <c r="I8" s="3">
-        <v>12661400</v>
+        <v>12622300</v>
       </c>
       <c r="J8" s="3">
+        <v>12350800</v>
+      </c>
+      <c r="K8" s="3">
         <v>12232100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12229400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11578000</v>
+        <v>11801800</v>
       </c>
       <c r="E9" s="3">
-        <v>10099400</v>
+        <v>11293900</v>
       </c>
       <c r="F9" s="3">
-        <v>9029200</v>
+        <v>9851600</v>
       </c>
       <c r="G9" s="3">
-        <v>8590700</v>
+        <v>8807700</v>
       </c>
       <c r="H9" s="3">
-        <v>9005200</v>
+        <v>8380000</v>
       </c>
       <c r="I9" s="3">
-        <v>9381900</v>
+        <v>8784300</v>
       </c>
       <c r="J9" s="3">
+        <v>9151700</v>
+      </c>
+      <c r="K9" s="3">
         <v>8042700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7901300</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4962100</v>
+        <v>5131400</v>
       </c>
       <c r="E10" s="3">
-        <v>4603700</v>
+        <v>4840400</v>
       </c>
       <c r="F10" s="3">
-        <v>5161500</v>
+        <v>4490800</v>
       </c>
       <c r="G10" s="3">
-        <v>4892000</v>
+        <v>5034900</v>
       </c>
       <c r="H10" s="3">
-        <v>3934500</v>
+        <v>4771900</v>
       </c>
       <c r="I10" s="3">
-        <v>3279500</v>
+        <v>3838000</v>
       </c>
       <c r="J10" s="3">
+        <v>3199000</v>
+      </c>
+      <c r="K10" s="3">
         <v>4189500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4328100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5600</v>
+        <v>-6200</v>
       </c>
       <c r="E14" s="3">
-        <v>-198600</v>
+        <v>5500</v>
       </c>
       <c r="F14" s="3">
+        <v>-193700</v>
+      </c>
+      <c r="G14" s="3">
         <v>2400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>25300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J14" s="3">
         <v>26000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>94700</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2197100</v>
+        <v>3090300</v>
       </c>
       <c r="E15" s="3">
-        <v>2004300</v>
+        <v>2143200</v>
       </c>
       <c r="F15" s="3">
-        <v>1743900</v>
+        <v>1955100</v>
       </c>
       <c r="G15" s="3">
-        <v>1502400</v>
+        <v>1701100</v>
       </c>
       <c r="H15" s="3">
-        <v>1317600</v>
+        <v>1465500</v>
       </c>
       <c r="I15" s="3">
-        <v>1180300</v>
+        <v>1285300</v>
       </c>
       <c r="J15" s="3">
+        <v>1151300</v>
+      </c>
+      <c r="K15" s="3">
         <v>1084300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1033800</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15204400</v>
+        <v>15522300</v>
       </c>
       <c r="E17" s="3">
-        <v>13350000</v>
+        <v>14831400</v>
       </c>
       <c r="F17" s="3">
-        <v>12399300</v>
+        <v>13022400</v>
       </c>
       <c r="G17" s="3">
-        <v>11671200</v>
+        <v>12095100</v>
       </c>
       <c r="H17" s="3">
-        <v>12070500</v>
+        <v>11384900</v>
       </c>
       <c r="I17" s="3">
-        <v>12435200</v>
+        <v>11774400</v>
       </c>
       <c r="J17" s="3">
+        <v>12130100</v>
+      </c>
+      <c r="K17" s="3">
         <v>11625500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11610200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1335700</v>
+        <v>1410900</v>
       </c>
       <c r="E18" s="3">
-        <v>1353200</v>
+        <v>1302900</v>
       </c>
       <c r="F18" s="3">
-        <v>1791500</v>
+        <v>1320000</v>
       </c>
       <c r="G18" s="3">
-        <v>1811400</v>
+        <v>1747500</v>
       </c>
       <c r="H18" s="3">
-        <v>869200</v>
+        <v>1767000</v>
       </c>
       <c r="I18" s="3">
-        <v>226200</v>
+        <v>847900</v>
       </c>
       <c r="J18" s="3">
+        <v>220600</v>
+      </c>
+      <c r="K18" s="3">
         <v>606600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>619200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-269300</v>
+        <v>-85700</v>
       </c>
       <c r="E20" s="3">
-        <v>339000</v>
+        <v>-262700</v>
       </c>
       <c r="F20" s="3">
-        <v>-472000</v>
+        <v>330700</v>
       </c>
       <c r="G20" s="3">
-        <v>-684300</v>
+        <v>-460500</v>
       </c>
       <c r="H20" s="3">
+        <v>-667500</v>
+      </c>
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
-        <v>314100</v>
-      </c>
       <c r="J20" s="3">
+        <v>306400</v>
+      </c>
+      <c r="K20" s="3">
         <v>69100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>316200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3256500</v>
+        <v>4330900</v>
       </c>
       <c r="E21" s="3">
-        <v>3689300</v>
+        <v>3170500</v>
       </c>
       <c r="F21" s="3">
-        <v>3110200</v>
+        <v>3593200</v>
       </c>
       <c r="G21" s="3">
-        <v>2676100</v>
+        <v>3028900</v>
       </c>
       <c r="H21" s="3">
-        <v>2179700</v>
+        <v>2606100</v>
       </c>
       <c r="I21" s="3">
-        <v>1712700</v>
+        <v>2122600</v>
       </c>
       <c r="J21" s="3">
+        <v>1667400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1752800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1963100</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>513100</v>
+        <v>723600</v>
       </c>
       <c r="E22" s="3">
-        <v>456800</v>
+        <v>500500</v>
       </c>
       <c r="F22" s="3">
-        <v>387300</v>
+        <v>445600</v>
       </c>
       <c r="G22" s="3">
-        <v>314100</v>
+        <v>377800</v>
       </c>
       <c r="H22" s="3">
-        <v>280800</v>
+        <v>306400</v>
       </c>
       <c r="I22" s="3">
-        <v>222200</v>
+        <v>273900</v>
       </c>
       <c r="J22" s="3">
+        <v>216700</v>
+      </c>
+      <c r="K22" s="3">
         <v>243600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>217100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>553300</v>
+        <v>601700</v>
       </c>
       <c r="E23" s="3">
-        <v>1235400</v>
+        <v>539700</v>
       </c>
       <c r="F23" s="3">
-        <v>932200</v>
+        <v>1205100</v>
       </c>
       <c r="G23" s="3">
-        <v>813100</v>
+        <v>909300</v>
       </c>
       <c r="H23" s="3">
-        <v>590100</v>
+        <v>793200</v>
       </c>
       <c r="I23" s="3">
-        <v>318100</v>
+        <v>575700</v>
       </c>
       <c r="J23" s="3">
+        <v>310300</v>
+      </c>
+      <c r="K23" s="3">
         <v>432200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>718400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>132900</v>
+        <v>114600</v>
       </c>
       <c r="E24" s="3">
-        <v>258300</v>
+        <v>129600</v>
       </c>
       <c r="F24" s="3">
-        <v>221200</v>
+        <v>251900</v>
       </c>
       <c r="G24" s="3">
-        <v>89500</v>
+        <v>215800</v>
       </c>
       <c r="H24" s="3">
-        <v>82200</v>
+        <v>87300</v>
       </c>
       <c r="I24" s="3">
-        <v>17800</v>
+        <v>80200</v>
       </c>
       <c r="J24" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K24" s="3">
         <v>29400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39200</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>420400</v>
+        <v>487100</v>
       </c>
       <c r="E26" s="3">
-        <v>977100</v>
+        <v>410100</v>
       </c>
       <c r="F26" s="3">
-        <v>710900</v>
+        <v>953100</v>
       </c>
       <c r="G26" s="3">
-        <v>723600</v>
+        <v>693500</v>
       </c>
       <c r="H26" s="3">
-        <v>507900</v>
+        <v>705800</v>
       </c>
       <c r="I26" s="3">
-        <v>300300</v>
+        <v>495500</v>
       </c>
       <c r="J26" s="3">
+        <v>292900</v>
+      </c>
+      <c r="K26" s="3">
         <v>402800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>679200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>387100</v>
+        <v>446800</v>
       </c>
       <c r="E27" s="3">
-        <v>910000</v>
+        <v>377600</v>
       </c>
       <c r="F27" s="3">
-        <v>645400</v>
+        <v>887600</v>
       </c>
       <c r="G27" s="3">
-        <v>651000</v>
+        <v>629500</v>
       </c>
       <c r="H27" s="3">
-        <v>489300</v>
+        <v>635000</v>
       </c>
       <c r="I27" s="3">
-        <v>340400</v>
+        <v>477300</v>
       </c>
       <c r="J27" s="3">
+        <v>332100</v>
+      </c>
+      <c r="K27" s="3">
         <v>423800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>679100</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>269300</v>
+        <v>85700</v>
       </c>
       <c r="E32" s="3">
-        <v>-339000</v>
+        <v>262700</v>
       </c>
       <c r="F32" s="3">
-        <v>472000</v>
+        <v>-330700</v>
       </c>
       <c r="G32" s="3">
-        <v>684300</v>
+        <v>460500</v>
       </c>
       <c r="H32" s="3">
+        <v>667500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
-        <v>-314100</v>
-      </c>
       <c r="J32" s="3">
+        <v>-306400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-69100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-316200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>387100</v>
+        <v>446800</v>
       </c>
       <c r="E33" s="3">
-        <v>910000</v>
+        <v>377600</v>
       </c>
       <c r="F33" s="3">
-        <v>645400</v>
+        <v>887600</v>
       </c>
       <c r="G33" s="3">
-        <v>651000</v>
+        <v>629500</v>
       </c>
       <c r="H33" s="3">
-        <v>489300</v>
+        <v>635000</v>
       </c>
       <c r="I33" s="3">
-        <v>340400</v>
+        <v>477300</v>
       </c>
       <c r="J33" s="3">
+        <v>332100</v>
+      </c>
+      <c r="K33" s="3">
         <v>423800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>679100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>387100</v>
+        <v>446800</v>
       </c>
       <c r="E35" s="3">
-        <v>910000</v>
+        <v>377600</v>
       </c>
       <c r="F35" s="3">
-        <v>645400</v>
+        <v>887600</v>
       </c>
       <c r="G35" s="3">
-        <v>651000</v>
+        <v>629500</v>
       </c>
       <c r="H35" s="3">
-        <v>489300</v>
+        <v>635000</v>
       </c>
       <c r="I35" s="3">
-        <v>340400</v>
+        <v>477300</v>
       </c>
       <c r="J35" s="3">
+        <v>332100</v>
+      </c>
+      <c r="K35" s="3">
         <v>423800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>679100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,46 +1645,50 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>92700</v>
+        <v>189200</v>
       </c>
       <c r="E41" s="3">
-        <v>660700</v>
+        <v>90500</v>
       </c>
       <c r="F41" s="3">
-        <v>243200</v>
+        <v>645400</v>
       </c>
       <c r="G41" s="3">
-        <v>1302800</v>
+        <v>237600</v>
       </c>
       <c r="H41" s="3">
-        <v>194400</v>
+        <v>1272700</v>
       </c>
       <c r="I41" s="3">
-        <v>286200</v>
+        <v>189900</v>
       </c>
       <c r="J41" s="3">
+        <v>279600</v>
+      </c>
+      <c r="K41" s="3">
         <v>360400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>573000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13800</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
+        <v>17000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>13500</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1616,222 +1705,246 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1765500</v>
+        <v>2094800</v>
       </c>
       <c r="E43" s="3">
-        <v>1498200</v>
+        <v>1724700</v>
       </c>
       <c r="F43" s="3">
-        <v>1263900</v>
+        <v>1463600</v>
       </c>
       <c r="G43" s="3">
-        <v>1455300</v>
+        <v>1234700</v>
       </c>
       <c r="H43" s="3">
-        <v>554100</v>
+        <v>1421600</v>
       </c>
       <c r="I43" s="3">
-        <v>505700</v>
+        <v>541300</v>
       </c>
       <c r="J43" s="3">
+        <v>494000</v>
+      </c>
+      <c r="K43" s="3">
         <v>425000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>371600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>279800</v>
+        <v>337400</v>
       </c>
       <c r="E44" s="3">
-        <v>313500</v>
+        <v>273300</v>
       </c>
       <c r="F44" s="3">
-        <v>322500</v>
+        <v>306200</v>
       </c>
       <c r="G44" s="3">
-        <v>295000</v>
+        <v>315100</v>
       </c>
       <c r="H44" s="3">
-        <v>324100</v>
+        <v>288200</v>
       </c>
       <c r="I44" s="3">
-        <v>330800</v>
+        <v>316600</v>
       </c>
       <c r="J44" s="3">
+        <v>323100</v>
+      </c>
+      <c r="K44" s="3">
         <v>299600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>230900</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>134200</v>
+        <v>128800</v>
       </c>
       <c r="E45" s="3">
-        <v>152200</v>
+        <v>131000</v>
       </c>
       <c r="F45" s="3">
-        <v>450000</v>
+        <v>148700</v>
       </c>
       <c r="G45" s="3">
-        <v>258100</v>
+        <v>439500</v>
       </c>
       <c r="H45" s="3">
-        <v>1544800</v>
+        <v>252100</v>
       </c>
       <c r="I45" s="3">
-        <v>686500</v>
+        <v>1509100</v>
       </c>
       <c r="J45" s="3">
+        <v>670700</v>
+      </c>
+      <c r="K45" s="3">
         <v>733600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>858900</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2285900</v>
+        <v>2767200</v>
       </c>
       <c r="E46" s="3">
-        <v>2624700</v>
+        <v>2233000</v>
       </c>
       <c r="F46" s="3">
-        <v>2279600</v>
+        <v>2563900</v>
       </c>
       <c r="G46" s="3">
-        <v>3311200</v>
+        <v>2226900</v>
       </c>
       <c r="H46" s="3">
-        <v>2617500</v>
+        <v>3234600</v>
       </c>
       <c r="I46" s="3">
-        <v>1809300</v>
+        <v>2556900</v>
       </c>
       <c r="J46" s="3">
+        <v>1767400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1818600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2034400</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>512900</v>
+        <v>549400</v>
       </c>
       <c r="E47" s="3">
-        <v>441300</v>
+        <v>501100</v>
       </c>
       <c r="F47" s="3">
-        <v>400000</v>
+        <v>431100</v>
       </c>
       <c r="G47" s="3">
-        <v>500300</v>
+        <v>390800</v>
       </c>
       <c r="H47" s="3">
-        <v>290400</v>
+        <v>488700</v>
       </c>
       <c r="I47" s="3">
-        <v>273800</v>
+        <v>283700</v>
       </c>
       <c r="J47" s="3">
+        <v>267400</v>
+      </c>
+      <c r="K47" s="3">
         <v>213300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>222800</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29118800</v>
+        <v>34363300</v>
       </c>
       <c r="E48" s="3">
-        <v>27566400</v>
+        <v>28445100</v>
       </c>
       <c r="F48" s="3">
-        <v>25416500</v>
+        <v>26928500</v>
       </c>
       <c r="G48" s="3">
-        <v>22251000</v>
+        <v>24828400</v>
       </c>
       <c r="H48" s="3">
-        <v>18609200</v>
+        <v>21736200</v>
       </c>
       <c r="I48" s="3">
-        <v>15650600</v>
+        <v>18178600</v>
       </c>
       <c r="J48" s="3">
+        <v>15288500</v>
+      </c>
+      <c r="K48" s="3">
         <v>13546500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12574200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1665700</v>
+        <v>1639600</v>
       </c>
       <c r="E49" s="3">
-        <v>1663800</v>
+        <v>1627100</v>
       </c>
       <c r="F49" s="3">
-        <v>1667800</v>
+        <v>1625300</v>
       </c>
       <c r="G49" s="3">
-        <v>1653200</v>
+        <v>1629200</v>
       </c>
       <c r="H49" s="3">
-        <v>1650000</v>
+        <v>1614900</v>
       </c>
       <c r="I49" s="3">
-        <v>1648600</v>
+        <v>1611800</v>
       </c>
       <c r="J49" s="3">
+        <v>1610500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1642700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1685000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>710800</v>
+        <v>652000</v>
       </c>
       <c r="E52" s="3">
-        <v>665000</v>
+        <v>694400</v>
       </c>
       <c r="F52" s="3">
-        <v>700300</v>
+        <v>649600</v>
       </c>
       <c r="G52" s="3">
-        <v>692100</v>
+        <v>684100</v>
       </c>
       <c r="H52" s="3">
-        <v>626000</v>
+        <v>676100</v>
       </c>
       <c r="I52" s="3">
-        <v>714700</v>
+        <v>611500</v>
       </c>
       <c r="J52" s="3">
+        <v>698100</v>
+      </c>
+      <c r="K52" s="3">
         <v>544500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>512000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34294200</v>
+        <v>39971500</v>
       </c>
       <c r="E54" s="3">
-        <v>32961200</v>
+        <v>33500600</v>
       </c>
       <c r="F54" s="3">
-        <v>30464200</v>
+        <v>32198500</v>
       </c>
       <c r="G54" s="3">
-        <v>28407900</v>
+        <v>29759300</v>
       </c>
       <c r="H54" s="3">
-        <v>23793100</v>
+        <v>27750600</v>
       </c>
       <c r="I54" s="3">
-        <v>20097000</v>
+        <v>23242600</v>
       </c>
       <c r="J54" s="3">
+        <v>19631900</v>
+      </c>
+      <c r="K54" s="3">
         <v>17765500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17028400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>579700</v>
+        <v>543400</v>
       </c>
       <c r="E57" s="3">
-        <v>456800</v>
+        <v>566200</v>
       </c>
       <c r="F57" s="3">
-        <v>484400</v>
+        <v>446300</v>
       </c>
       <c r="G57" s="3">
-        <v>532600</v>
+        <v>473200</v>
       </c>
       <c r="H57" s="3">
-        <v>298900</v>
+        <v>520300</v>
       </c>
       <c r="I57" s="3">
-        <v>496900</v>
+        <v>292000</v>
       </c>
       <c r="J57" s="3">
+        <v>485400</v>
+      </c>
+      <c r="K57" s="3">
         <v>469200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>413900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5541600</v>
+        <v>5721800</v>
       </c>
       <c r="E58" s="3">
-        <v>6934500</v>
+        <v>5413400</v>
       </c>
       <c r="F58" s="3">
-        <v>5063300</v>
+        <v>6774100</v>
       </c>
       <c r="G58" s="3">
-        <v>6359500</v>
+        <v>4946100</v>
       </c>
       <c r="H58" s="3">
-        <v>4773900</v>
+        <v>6212300</v>
       </c>
       <c r="I58" s="3">
-        <v>3768600</v>
+        <v>4663400</v>
       </c>
       <c r="J58" s="3">
+        <v>3681400</v>
+      </c>
+      <c r="K58" s="3">
         <v>3727500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3117500</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4361900</v>
+        <v>4718200</v>
       </c>
       <c r="E59" s="3">
-        <v>4134100</v>
+        <v>4261000</v>
       </c>
       <c r="F59" s="3">
-        <v>4220800</v>
+        <v>4038400</v>
       </c>
       <c r="G59" s="3">
-        <v>3781000</v>
+        <v>4123100</v>
       </c>
       <c r="H59" s="3">
-        <v>3698200</v>
+        <v>3693500</v>
       </c>
       <c r="I59" s="3">
-        <v>3350700</v>
+        <v>3612600</v>
       </c>
       <c r="J59" s="3">
+        <v>3273200</v>
+      </c>
+      <c r="K59" s="3">
         <v>2779700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2907600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10483200</v>
+        <v>10983400</v>
       </c>
       <c r="E60" s="3">
-        <v>11525500</v>
+        <v>10240700</v>
       </c>
       <c r="F60" s="3">
-        <v>9768400</v>
+        <v>11258800</v>
       </c>
       <c r="G60" s="3">
-        <v>10673000</v>
+        <v>9542400</v>
       </c>
       <c r="H60" s="3">
-        <v>8770900</v>
+        <v>10426100</v>
       </c>
       <c r="I60" s="3">
-        <v>7616200</v>
+        <v>8568000</v>
       </c>
       <c r="J60" s="3">
+        <v>7439900</v>
+      </c>
+      <c r="K60" s="3">
         <v>6976400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6439000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13477100</v>
+        <v>16999900</v>
       </c>
       <c r="E61" s="3">
-        <v>11813900</v>
+        <v>13165200</v>
       </c>
       <c r="F61" s="3">
-        <v>11834800</v>
+        <v>11540500</v>
       </c>
       <c r="G61" s="3">
-        <v>10730600</v>
+        <v>11561000</v>
       </c>
       <c r="H61" s="3">
-        <v>9270500</v>
+        <v>10482300</v>
       </c>
       <c r="I61" s="3">
-        <v>6811000</v>
+        <v>9056000</v>
       </c>
       <c r="J61" s="3">
+        <v>6653400</v>
+      </c>
+      <c r="K61" s="3">
         <v>6076200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6144900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1495300</v>
+        <v>1806200</v>
       </c>
       <c r="E62" s="3">
-        <v>1188400</v>
+        <v>1460700</v>
       </c>
       <c r="F62" s="3">
-        <v>1347600</v>
+        <v>1160900</v>
       </c>
       <c r="G62" s="3">
-        <v>1275000</v>
+        <v>1316400</v>
       </c>
       <c r="H62" s="3">
-        <v>1193200</v>
+        <v>1245500</v>
       </c>
       <c r="I62" s="3">
-        <v>1568800</v>
+        <v>1165600</v>
       </c>
       <c r="J62" s="3">
+        <v>1532500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1189900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1208400</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25971200</v>
+        <v>30299400</v>
       </c>
       <c r="E66" s="3">
-        <v>25018200</v>
+        <v>25370200</v>
       </c>
       <c r="F66" s="3">
-        <v>23369200</v>
+        <v>24439300</v>
       </c>
       <c r="G66" s="3">
-        <v>23040200</v>
+        <v>22828400</v>
       </c>
       <c r="H66" s="3">
-        <v>19492500</v>
+        <v>22507000</v>
       </c>
       <c r="I66" s="3">
-        <v>16237000</v>
+        <v>19041400</v>
       </c>
       <c r="J66" s="3">
+        <v>15861300</v>
+      </c>
+      <c r="K66" s="3">
         <v>14476100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14041500</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6247300</v>
+        <v>7376500</v>
       </c>
       <c r="E72" s="3">
-        <v>5867300</v>
+        <v>6102700</v>
       </c>
       <c r="F72" s="3">
-        <v>5019400</v>
+        <v>5731600</v>
       </c>
       <c r="G72" s="3">
-        <v>3482400</v>
+        <v>4903200</v>
       </c>
       <c r="H72" s="3">
-        <v>-405900</v>
+        <v>3401800</v>
       </c>
       <c r="I72" s="3">
-        <v>-848200</v>
+        <v>-396500</v>
       </c>
       <c r="J72" s="3">
+        <v>-828500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-913300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1382000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8323000</v>
+        <v>9672200</v>
       </c>
       <c r="E76" s="3">
-        <v>7943100</v>
+        <v>8130400</v>
       </c>
       <c r="F76" s="3">
-        <v>7095100</v>
+        <v>7759300</v>
       </c>
       <c r="G76" s="3">
-        <v>5367700</v>
+        <v>6930900</v>
       </c>
       <c r="H76" s="3">
-        <v>4300700</v>
+        <v>5243500</v>
       </c>
       <c r="I76" s="3">
-        <v>3859900</v>
+        <v>4201200</v>
       </c>
       <c r="J76" s="3">
+        <v>3770600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3289400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2986900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>387100</v>
+        <v>446800</v>
       </c>
       <c r="E81" s="3">
-        <v>910000</v>
+        <v>377600</v>
       </c>
       <c r="F81" s="3">
-        <v>645400</v>
+        <v>887600</v>
       </c>
       <c r="G81" s="3">
-        <v>651000</v>
+        <v>629500</v>
       </c>
       <c r="H81" s="3">
-        <v>489300</v>
+        <v>635000</v>
       </c>
       <c r="I81" s="3">
-        <v>340400</v>
+        <v>477300</v>
       </c>
       <c r="J81" s="3">
+        <v>332100</v>
+      </c>
+      <c r="K81" s="3">
         <v>423800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>679100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2190900</v>
+        <v>3015300</v>
       </c>
       <c r="E83" s="3">
-        <v>1997800</v>
+        <v>2137200</v>
       </c>
       <c r="F83" s="3">
-        <v>1791300</v>
+        <v>1948800</v>
       </c>
       <c r="G83" s="3">
-        <v>1549400</v>
+        <v>1747400</v>
       </c>
       <c r="H83" s="3">
-        <v>1309300</v>
+        <v>1511400</v>
       </c>
       <c r="I83" s="3">
-        <v>1172800</v>
+        <v>1277100</v>
       </c>
       <c r="J83" s="3">
+        <v>1144100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1077400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1025800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3205100</v>
+        <v>4054900</v>
       </c>
       <c r="E89" s="3">
-        <v>2808200</v>
+        <v>3126400</v>
       </c>
       <c r="F89" s="3">
-        <v>3571600</v>
+        <v>2739300</v>
       </c>
       <c r="G89" s="3">
-        <v>3490200</v>
+        <v>3484000</v>
       </c>
       <c r="H89" s="3">
-        <v>1764200</v>
+        <v>3404500</v>
       </c>
       <c r="I89" s="3">
-        <v>1550500</v>
+        <v>1720900</v>
       </c>
       <c r="J89" s="3">
+        <v>1512500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1810300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2021800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1528500</v>
+        <v>-1062200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1118600</v>
+        <v>-1491000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3089600</v>
+        <v>-1091100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1235200</v>
+        <v>-3013800</v>
       </c>
       <c r="H91" s="3">
-        <v>-836200</v>
+        <v>-1204900</v>
       </c>
       <c r="I91" s="3">
-        <v>-261400</v>
+        <v>-815700</v>
       </c>
       <c r="J91" s="3">
+        <v>-255000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-882100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-796700</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1833700</v>
+        <v>-685700</v>
       </c>
       <c r="E94" s="3">
-        <v>-3057800</v>
+        <v>-1788700</v>
       </c>
       <c r="F94" s="3">
-        <v>-5334600</v>
+        <v>-2982800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3988700</v>
+        <v>-5203700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3448300</v>
+        <v>-3890900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2443100</v>
+        <v>-3363700</v>
       </c>
       <c r="J94" s="3">
+        <v>-2383200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2217100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,22 +3291,23 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-105900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-101700</v>
+        <v>-103300</v>
       </c>
       <c r="F96" s="3">
-        <v>-105900</v>
+        <v>-99200</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-103300</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1945300</v>
+        <v>-3271600</v>
       </c>
       <c r="E100" s="3">
-        <v>675500</v>
+        <v>-1897600</v>
       </c>
       <c r="F100" s="3">
-        <v>664900</v>
+        <v>658900</v>
       </c>
       <c r="G100" s="3">
-        <v>1590200</v>
+        <v>648600</v>
       </c>
       <c r="H100" s="3">
-        <v>1594300</v>
+        <v>1551200</v>
       </c>
       <c r="I100" s="3">
-        <v>822100</v>
+        <v>1555200</v>
       </c>
       <c r="J100" s="3">
+        <v>801900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-312000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>316900</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4300</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>-6700</v>
+        <v>4200</v>
       </c>
       <c r="F101" s="3">
-        <v>38500</v>
+        <v>-6600</v>
       </c>
       <c r="G101" s="3">
-        <v>16800</v>
+        <v>37500</v>
       </c>
       <c r="H101" s="3">
-        <v>-2200</v>
+        <v>16400</v>
       </c>
       <c r="I101" s="3">
-        <v>-3600</v>
+        <v>-2100</v>
       </c>
       <c r="J101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5500</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-569600</v>
+        <v>98500</v>
       </c>
       <c r="E102" s="3">
-        <v>419100</v>
+        <v>-555600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1059600</v>
+        <v>408800</v>
       </c>
       <c r="G102" s="3">
-        <v>1108400</v>
+        <v>-1033600</v>
       </c>
       <c r="H102" s="3">
-        <v>-91800</v>
+        <v>1081200</v>
       </c>
       <c r="I102" s="3">
-        <v>-74100</v>
+        <v>-89600</v>
       </c>
       <c r="J102" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-193600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>116200</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16933200</v>
+        <v>17570800</v>
       </c>
       <c r="E8" s="3">
-        <v>16134300</v>
+        <v>16741800</v>
       </c>
       <c r="F8" s="3">
-        <v>14342400</v>
+        <v>14882400</v>
       </c>
       <c r="G8" s="3">
-        <v>13842600</v>
+        <v>14363800</v>
       </c>
       <c r="H8" s="3">
-        <v>13151900</v>
+        <v>13647100</v>
       </c>
       <c r="I8" s="3">
-        <v>12622300</v>
+        <v>13097600</v>
       </c>
       <c r="J8" s="3">
-        <v>12350800</v>
+        <v>12815800</v>
       </c>
       <c r="K8" s="3">
         <v>12232100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11801800</v>
+        <v>12246200</v>
       </c>
       <c r="E9" s="3">
-        <v>11293900</v>
+        <v>11719200</v>
       </c>
       <c r="F9" s="3">
-        <v>9851600</v>
+        <v>10222600</v>
       </c>
       <c r="G9" s="3">
-        <v>8807700</v>
+        <v>9139300</v>
       </c>
       <c r="H9" s="3">
-        <v>8380000</v>
+        <v>8695500</v>
       </c>
       <c r="I9" s="3">
-        <v>8784300</v>
+        <v>9115100</v>
       </c>
       <c r="J9" s="3">
-        <v>9151700</v>
+        <v>9496300</v>
       </c>
       <c r="K9" s="3">
         <v>8042700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5131400</v>
+        <v>5324600</v>
       </c>
       <c r="E10" s="3">
-        <v>4840400</v>
+        <v>5022600</v>
       </c>
       <c r="F10" s="3">
-        <v>4490800</v>
+        <v>4659800</v>
       </c>
       <c r="G10" s="3">
-        <v>5034900</v>
+        <v>5224500</v>
       </c>
       <c r="H10" s="3">
-        <v>4771900</v>
+        <v>4951600</v>
       </c>
       <c r="I10" s="3">
-        <v>3838000</v>
+        <v>3982500</v>
       </c>
       <c r="J10" s="3">
-        <v>3199000</v>
+        <v>3319500</v>
       </c>
       <c r="K10" s="3">
         <v>4189500</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="E14" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="F14" s="3">
-        <v>-193700</v>
+        <v>-201000</v>
       </c>
       <c r="G14" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H14" s="3">
-        <v>25300</v>
+        <v>26300</v>
       </c>
       <c r="I14" s="3">
         <v>1700</v>
       </c>
       <c r="J14" s="3">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="K14" s="3">
         <v>-1900</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3090300</v>
+        <v>3206700</v>
       </c>
       <c r="E15" s="3">
-        <v>2143200</v>
+        <v>2223900</v>
       </c>
       <c r="F15" s="3">
-        <v>1955100</v>
+        <v>2028700</v>
       </c>
       <c r="G15" s="3">
-        <v>1701100</v>
+        <v>1765100</v>
       </c>
       <c r="H15" s="3">
-        <v>1465500</v>
+        <v>1520700</v>
       </c>
       <c r="I15" s="3">
-        <v>1285300</v>
+        <v>1333600</v>
       </c>
       <c r="J15" s="3">
-        <v>1151300</v>
+        <v>1194700</v>
       </c>
       <c r="K15" s="3">
         <v>1084300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15522300</v>
+        <v>16106700</v>
       </c>
       <c r="E17" s="3">
-        <v>14831400</v>
+        <v>15389900</v>
       </c>
       <c r="F17" s="3">
-        <v>13022400</v>
+        <v>13512800</v>
       </c>
       <c r="G17" s="3">
-        <v>12095100</v>
+        <v>12550500</v>
       </c>
       <c r="H17" s="3">
-        <v>11384900</v>
+        <v>11813600</v>
       </c>
       <c r="I17" s="3">
-        <v>11774400</v>
+        <v>12217800</v>
       </c>
       <c r="J17" s="3">
-        <v>12130100</v>
+        <v>12586900</v>
       </c>
       <c r="K17" s="3">
         <v>11625500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1410900</v>
+        <v>1464100</v>
       </c>
       <c r="E18" s="3">
-        <v>1302900</v>
+        <v>1351900</v>
       </c>
       <c r="F18" s="3">
-        <v>1320000</v>
+        <v>1369700</v>
       </c>
       <c r="G18" s="3">
-        <v>1747500</v>
+        <v>1813300</v>
       </c>
       <c r="H18" s="3">
-        <v>1767000</v>
+        <v>1833500</v>
       </c>
       <c r="I18" s="3">
-        <v>847900</v>
+        <v>879800</v>
       </c>
       <c r="J18" s="3">
-        <v>220600</v>
+        <v>228900</v>
       </c>
       <c r="K18" s="3">
         <v>606600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-85700</v>
+        <v>-88900</v>
       </c>
       <c r="E20" s="3">
-        <v>-262700</v>
+        <v>-272600</v>
       </c>
       <c r="F20" s="3">
-        <v>330700</v>
+        <v>343200</v>
       </c>
       <c r="G20" s="3">
-        <v>-460500</v>
+        <v>-477800</v>
       </c>
       <c r="H20" s="3">
-        <v>-667500</v>
+        <v>-692600</v>
       </c>
       <c r="I20" s="3">
         <v>1700</v>
       </c>
       <c r="J20" s="3">
-        <v>306400</v>
+        <v>318000</v>
       </c>
       <c r="K20" s="3">
         <v>69100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4330900</v>
+        <v>4492200</v>
       </c>
       <c r="E21" s="3">
-        <v>3170500</v>
+        <v>3288600</v>
       </c>
       <c r="F21" s="3">
-        <v>3593200</v>
+        <v>3727400</v>
       </c>
       <c r="G21" s="3">
-        <v>3028900</v>
+        <v>3141900</v>
       </c>
       <c r="H21" s="3">
-        <v>2606100</v>
+        <v>2703300</v>
       </c>
       <c r="I21" s="3">
-        <v>2122600</v>
+        <v>2201800</v>
       </c>
       <c r="J21" s="3">
-        <v>1667400</v>
+        <v>1729600</v>
       </c>
       <c r="K21" s="3">
         <v>1752800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>723600</v>
+        <v>750800</v>
       </c>
       <c r="E22" s="3">
-        <v>500500</v>
+        <v>519300</v>
       </c>
       <c r="F22" s="3">
-        <v>445600</v>
+        <v>462400</v>
       </c>
       <c r="G22" s="3">
-        <v>377800</v>
+        <v>392000</v>
       </c>
       <c r="H22" s="3">
-        <v>306400</v>
+        <v>317900</v>
       </c>
       <c r="I22" s="3">
-        <v>273900</v>
+        <v>284200</v>
       </c>
       <c r="J22" s="3">
-        <v>216700</v>
+        <v>224900</v>
       </c>
       <c r="K22" s="3">
         <v>243600</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>601700</v>
+        <v>624300</v>
       </c>
       <c r="E23" s="3">
-        <v>539700</v>
+        <v>560000</v>
       </c>
       <c r="F23" s="3">
-        <v>1205100</v>
+        <v>1250400</v>
       </c>
       <c r="G23" s="3">
-        <v>909300</v>
+        <v>943600</v>
       </c>
       <c r="H23" s="3">
-        <v>793200</v>
+        <v>823000</v>
       </c>
       <c r="I23" s="3">
-        <v>575700</v>
+        <v>597300</v>
       </c>
       <c r="J23" s="3">
-        <v>310300</v>
+        <v>322000</v>
       </c>
       <c r="K23" s="3">
         <v>432200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>114600</v>
+        <v>118900</v>
       </c>
       <c r="E24" s="3">
-        <v>129600</v>
+        <v>134500</v>
       </c>
       <c r="F24" s="3">
-        <v>251900</v>
+        <v>261400</v>
       </c>
       <c r="G24" s="3">
-        <v>215800</v>
+        <v>223900</v>
       </c>
       <c r="H24" s="3">
-        <v>87300</v>
+        <v>90600</v>
       </c>
       <c r="I24" s="3">
-        <v>80200</v>
+        <v>83200</v>
       </c>
       <c r="J24" s="3">
-        <v>17400</v>
+        <v>18000</v>
       </c>
       <c r="K24" s="3">
         <v>29400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>487100</v>
+        <v>505400</v>
       </c>
       <c r="E26" s="3">
-        <v>410100</v>
+        <v>425500</v>
       </c>
       <c r="F26" s="3">
-        <v>953100</v>
+        <v>989000</v>
       </c>
       <c r="G26" s="3">
-        <v>693500</v>
+        <v>719600</v>
       </c>
       <c r="H26" s="3">
-        <v>705800</v>
+        <v>732400</v>
       </c>
       <c r="I26" s="3">
-        <v>495500</v>
+        <v>514100</v>
       </c>
       <c r="J26" s="3">
-        <v>292900</v>
+        <v>303900</v>
       </c>
       <c r="K26" s="3">
         <v>402800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>446800</v>
+        <v>463600</v>
       </c>
       <c r="E27" s="3">
-        <v>377600</v>
+        <v>391800</v>
       </c>
       <c r="F27" s="3">
-        <v>887600</v>
+        <v>921000</v>
       </c>
       <c r="G27" s="3">
-        <v>629500</v>
+        <v>653200</v>
       </c>
       <c r="H27" s="3">
-        <v>635000</v>
+        <v>658900</v>
       </c>
       <c r="I27" s="3">
-        <v>477300</v>
+        <v>495200</v>
       </c>
       <c r="J27" s="3">
-        <v>332100</v>
+        <v>344600</v>
       </c>
       <c r="K27" s="3">
         <v>423800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>85700</v>
+        <v>88900</v>
       </c>
       <c r="E32" s="3">
-        <v>262700</v>
+        <v>272600</v>
       </c>
       <c r="F32" s="3">
-        <v>-330700</v>
+        <v>-343200</v>
       </c>
       <c r="G32" s="3">
-        <v>460500</v>
+        <v>477800</v>
       </c>
       <c r="H32" s="3">
-        <v>667500</v>
+        <v>692600</v>
       </c>
       <c r="I32" s="3">
         <v>-1700</v>
       </c>
       <c r="J32" s="3">
-        <v>-306400</v>
+        <v>-318000</v>
       </c>
       <c r="K32" s="3">
         <v>-69100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>446800</v>
+        <v>463600</v>
       </c>
       <c r="E33" s="3">
-        <v>377600</v>
+        <v>391800</v>
       </c>
       <c r="F33" s="3">
-        <v>887600</v>
+        <v>921000</v>
       </c>
       <c r="G33" s="3">
-        <v>629500</v>
+        <v>653200</v>
       </c>
       <c r="H33" s="3">
-        <v>635000</v>
+        <v>658900</v>
       </c>
       <c r="I33" s="3">
-        <v>477300</v>
+        <v>495200</v>
       </c>
       <c r="J33" s="3">
-        <v>332100</v>
+        <v>344600</v>
       </c>
       <c r="K33" s="3">
         <v>423800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>446800</v>
+        <v>463600</v>
       </c>
       <c r="E35" s="3">
-        <v>377600</v>
+        <v>391800</v>
       </c>
       <c r="F35" s="3">
-        <v>887600</v>
+        <v>921000</v>
       </c>
       <c r="G35" s="3">
-        <v>629500</v>
+        <v>653200</v>
       </c>
       <c r="H35" s="3">
-        <v>635000</v>
+        <v>658900</v>
       </c>
       <c r="I35" s="3">
-        <v>477300</v>
+        <v>495200</v>
       </c>
       <c r="J35" s="3">
-        <v>332100</v>
+        <v>344600</v>
       </c>
       <c r="K35" s="3">
         <v>423800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>189200</v>
+        <v>196100</v>
       </c>
       <c r="E41" s="3">
-        <v>90500</v>
+        <v>93800</v>
       </c>
       <c r="F41" s="3">
-        <v>645400</v>
+        <v>668800</v>
       </c>
       <c r="G41" s="3">
-        <v>237600</v>
+        <v>246200</v>
       </c>
       <c r="H41" s="3">
-        <v>1272700</v>
+        <v>1318700</v>
       </c>
       <c r="I41" s="3">
-        <v>189900</v>
+        <v>196800</v>
       </c>
       <c r="J41" s="3">
-        <v>279600</v>
+        <v>289700</v>
       </c>
       <c r="K41" s="3">
         <v>360400</v>
@@ -1685,10 +1685,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17000</v>
+        <v>17600</v>
       </c>
       <c r="E42" s="3">
-        <v>13500</v>
+        <v>13900</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2094800</v>
+        <v>2170600</v>
       </c>
       <c r="E43" s="3">
-        <v>1724700</v>
+        <v>1787100</v>
       </c>
       <c r="F43" s="3">
-        <v>1463600</v>
+        <v>1516500</v>
       </c>
       <c r="G43" s="3">
-        <v>1234700</v>
+        <v>1279300</v>
       </c>
       <c r="H43" s="3">
-        <v>1421600</v>
+        <v>1473100</v>
       </c>
       <c r="I43" s="3">
-        <v>541300</v>
+        <v>560900</v>
       </c>
       <c r="J43" s="3">
-        <v>494000</v>
+        <v>511900</v>
       </c>
       <c r="K43" s="3">
         <v>425000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>337400</v>
+        <v>349600</v>
       </c>
       <c r="E44" s="3">
-        <v>273300</v>
+        <v>283200</v>
       </c>
       <c r="F44" s="3">
-        <v>306200</v>
+        <v>317300</v>
       </c>
       <c r="G44" s="3">
-        <v>315100</v>
+        <v>326500</v>
       </c>
       <c r="H44" s="3">
-        <v>288200</v>
+        <v>298600</v>
       </c>
       <c r="I44" s="3">
-        <v>316600</v>
+        <v>328100</v>
       </c>
       <c r="J44" s="3">
-        <v>323100</v>
+        <v>334800</v>
       </c>
       <c r="K44" s="3">
         <v>299600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>128800</v>
+        <v>133500</v>
       </c>
       <c r="E45" s="3">
-        <v>131000</v>
+        <v>135800</v>
       </c>
       <c r="F45" s="3">
-        <v>148700</v>
+        <v>154100</v>
       </c>
       <c r="G45" s="3">
-        <v>439500</v>
+        <v>455400</v>
       </c>
       <c r="H45" s="3">
-        <v>252100</v>
+        <v>261300</v>
       </c>
       <c r="I45" s="3">
-        <v>1509100</v>
+        <v>1563700</v>
       </c>
       <c r="J45" s="3">
-        <v>670700</v>
+        <v>694900</v>
       </c>
       <c r="K45" s="3">
         <v>733600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2767200</v>
+        <v>2867300</v>
       </c>
       <c r="E46" s="3">
-        <v>2233000</v>
+        <v>2313800</v>
       </c>
       <c r="F46" s="3">
-        <v>2563900</v>
+        <v>2656700</v>
       </c>
       <c r="G46" s="3">
-        <v>2226900</v>
+        <v>2307400</v>
       </c>
       <c r="H46" s="3">
-        <v>3234600</v>
+        <v>3351600</v>
       </c>
       <c r="I46" s="3">
-        <v>2556900</v>
+        <v>2649400</v>
       </c>
       <c r="J46" s="3">
-        <v>1767400</v>
+        <v>1831300</v>
       </c>
       <c r="K46" s="3">
         <v>1818600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>549400</v>
+        <v>569300</v>
       </c>
       <c r="E47" s="3">
-        <v>501100</v>
+        <v>519200</v>
       </c>
       <c r="F47" s="3">
-        <v>431100</v>
+        <v>446700</v>
       </c>
       <c r="G47" s="3">
-        <v>390800</v>
+        <v>404900</v>
       </c>
       <c r="H47" s="3">
-        <v>488700</v>
+        <v>506400</v>
       </c>
       <c r="I47" s="3">
-        <v>283700</v>
+        <v>293900</v>
       </c>
       <c r="J47" s="3">
-        <v>267400</v>
+        <v>277100</v>
       </c>
       <c r="K47" s="3">
         <v>213300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34363300</v>
+        <v>35606300</v>
       </c>
       <c r="E48" s="3">
-        <v>28445100</v>
+        <v>29474000</v>
       </c>
       <c r="F48" s="3">
-        <v>26928500</v>
+        <v>27902600</v>
       </c>
       <c r="G48" s="3">
-        <v>24828400</v>
+        <v>25726500</v>
       </c>
       <c r="H48" s="3">
-        <v>21736200</v>
+        <v>22522400</v>
       </c>
       <c r="I48" s="3">
-        <v>18178600</v>
+        <v>18836200</v>
       </c>
       <c r="J48" s="3">
-        <v>15288500</v>
+        <v>15841500</v>
       </c>
       <c r="K48" s="3">
         <v>13546500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1639600</v>
+        <v>1698900</v>
       </c>
       <c r="E49" s="3">
-        <v>1627100</v>
+        <v>1686000</v>
       </c>
       <c r="F49" s="3">
-        <v>1625300</v>
+        <v>1684100</v>
       </c>
       <c r="G49" s="3">
-        <v>1629200</v>
+        <v>1688200</v>
       </c>
       <c r="H49" s="3">
-        <v>1614900</v>
+        <v>1673300</v>
       </c>
       <c r="I49" s="3">
-        <v>1611800</v>
+        <v>1670100</v>
       </c>
       <c r="J49" s="3">
-        <v>1610500</v>
+        <v>1668700</v>
       </c>
       <c r="K49" s="3">
         <v>1642700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>652000</v>
+        <v>675600</v>
       </c>
       <c r="E52" s="3">
-        <v>694400</v>
+        <v>719500</v>
       </c>
       <c r="F52" s="3">
-        <v>649600</v>
+        <v>673100</v>
       </c>
       <c r="G52" s="3">
-        <v>684100</v>
+        <v>708900</v>
       </c>
       <c r="H52" s="3">
-        <v>676100</v>
+        <v>700600</v>
       </c>
       <c r="I52" s="3">
-        <v>611500</v>
+        <v>633600</v>
       </c>
       <c r="J52" s="3">
-        <v>698100</v>
+        <v>723400</v>
       </c>
       <c r="K52" s="3">
         <v>544500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39971500</v>
+        <v>41417400</v>
       </c>
       <c r="E54" s="3">
-        <v>33500600</v>
+        <v>34712400</v>
       </c>
       <c r="F54" s="3">
-        <v>32198500</v>
+        <v>33363300</v>
       </c>
       <c r="G54" s="3">
-        <v>29759300</v>
+        <v>30835800</v>
       </c>
       <c r="H54" s="3">
-        <v>27750600</v>
+        <v>28754400</v>
       </c>
       <c r="I54" s="3">
-        <v>23242600</v>
+        <v>24083300</v>
       </c>
       <c r="J54" s="3">
-        <v>19631900</v>
+        <v>20342100</v>
       </c>
       <c r="K54" s="3">
         <v>17765500</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>543400</v>
+        <v>563100</v>
       </c>
       <c r="E57" s="3">
-        <v>566200</v>
+        <v>586700</v>
       </c>
       <c r="F57" s="3">
-        <v>446300</v>
+        <v>462400</v>
       </c>
       <c r="G57" s="3">
-        <v>473200</v>
+        <v>490300</v>
       </c>
       <c r="H57" s="3">
-        <v>520300</v>
+        <v>539100</v>
       </c>
       <c r="I57" s="3">
-        <v>292000</v>
+        <v>302500</v>
       </c>
       <c r="J57" s="3">
-        <v>485400</v>
+        <v>502900</v>
       </c>
       <c r="K57" s="3">
         <v>469200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5721800</v>
+        <v>5928700</v>
       </c>
       <c r="E58" s="3">
-        <v>5413400</v>
+        <v>5609200</v>
       </c>
       <c r="F58" s="3">
-        <v>6774100</v>
+        <v>7019100</v>
       </c>
       <c r="G58" s="3">
-        <v>4946100</v>
+        <v>5125000</v>
       </c>
       <c r="H58" s="3">
-        <v>6212300</v>
+        <v>6437000</v>
       </c>
       <c r="I58" s="3">
-        <v>4663400</v>
+        <v>4832100</v>
       </c>
       <c r="J58" s="3">
-        <v>3681400</v>
+        <v>3814600</v>
       </c>
       <c r="K58" s="3">
         <v>3727500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4718200</v>
+        <v>4888900</v>
       </c>
       <c r="E59" s="3">
-        <v>4261000</v>
+        <v>4415100</v>
       </c>
       <c r="F59" s="3">
-        <v>4038400</v>
+        <v>4184500</v>
       </c>
       <c r="G59" s="3">
-        <v>4123100</v>
+        <v>4272200</v>
       </c>
       <c r="H59" s="3">
-        <v>3693500</v>
+        <v>3827100</v>
       </c>
       <c r="I59" s="3">
-        <v>3612600</v>
+        <v>3743300</v>
       </c>
       <c r="J59" s="3">
-        <v>3273200</v>
+        <v>3391600</v>
       </c>
       <c r="K59" s="3">
         <v>2779700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10983400</v>
+        <v>11380700</v>
       </c>
       <c r="E60" s="3">
-        <v>10240700</v>
+        <v>10611100</v>
       </c>
       <c r="F60" s="3">
-        <v>11258800</v>
+        <v>11666000</v>
       </c>
       <c r="G60" s="3">
-        <v>9542400</v>
+        <v>9887500</v>
       </c>
       <c r="H60" s="3">
-        <v>10426100</v>
+        <v>10803200</v>
       </c>
       <c r="I60" s="3">
-        <v>8568000</v>
+        <v>8877900</v>
       </c>
       <c r="J60" s="3">
-        <v>7439900</v>
+        <v>7709100</v>
       </c>
       <c r="K60" s="3">
         <v>6976400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16999900</v>
+        <v>17614800</v>
       </c>
       <c r="E61" s="3">
-        <v>13165200</v>
+        <v>13641500</v>
       </c>
       <c r="F61" s="3">
-        <v>11540500</v>
+        <v>11957900</v>
       </c>
       <c r="G61" s="3">
-        <v>11561000</v>
+        <v>11979200</v>
       </c>
       <c r="H61" s="3">
-        <v>10482300</v>
+        <v>10861500</v>
       </c>
       <c r="I61" s="3">
-        <v>9056000</v>
+        <v>9383600</v>
       </c>
       <c r="J61" s="3">
-        <v>6653400</v>
+        <v>6894100</v>
       </c>
       <c r="K61" s="3">
         <v>6076200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1806200</v>
+        <v>1871600</v>
       </c>
       <c r="E62" s="3">
-        <v>1460700</v>
+        <v>1513600</v>
       </c>
       <c r="F62" s="3">
-        <v>1160900</v>
+        <v>1202900</v>
       </c>
       <c r="G62" s="3">
-        <v>1316400</v>
+        <v>1364000</v>
       </c>
       <c r="H62" s="3">
-        <v>1245500</v>
+        <v>1290500</v>
       </c>
       <c r="I62" s="3">
-        <v>1165600</v>
+        <v>1207700</v>
       </c>
       <c r="J62" s="3">
-        <v>1532500</v>
+        <v>1588000</v>
       </c>
       <c r="K62" s="3">
         <v>1189900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30299400</v>
+        <v>31395400</v>
       </c>
       <c r="E66" s="3">
-        <v>25370200</v>
+        <v>26287900</v>
       </c>
       <c r="F66" s="3">
-        <v>24439300</v>
+        <v>25323300</v>
       </c>
       <c r="G66" s="3">
-        <v>22828400</v>
+        <v>23654200</v>
       </c>
       <c r="H66" s="3">
-        <v>22507000</v>
+        <v>23321200</v>
       </c>
       <c r="I66" s="3">
-        <v>19041400</v>
+        <v>19730200</v>
       </c>
       <c r="J66" s="3">
-        <v>15861300</v>
+        <v>16435100</v>
       </c>
       <c r="K66" s="3">
         <v>14476100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7376500</v>
+        <v>7643300</v>
       </c>
       <c r="E72" s="3">
-        <v>6102700</v>
+        <v>6323500</v>
       </c>
       <c r="F72" s="3">
-        <v>5731600</v>
+        <v>5938900</v>
       </c>
       <c r="G72" s="3">
-        <v>4903200</v>
+        <v>5080600</v>
       </c>
       <c r="H72" s="3">
-        <v>3401800</v>
+        <v>3524900</v>
       </c>
       <c r="I72" s="3">
-        <v>-396500</v>
+        <v>-410900</v>
       </c>
       <c r="J72" s="3">
-        <v>-828500</v>
+        <v>-858500</v>
       </c>
       <c r="K72" s="3">
         <v>-913300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9672200</v>
+        <v>10022000</v>
       </c>
       <c r="E76" s="3">
-        <v>8130400</v>
+        <v>8424500</v>
       </c>
       <c r="F76" s="3">
-        <v>7759300</v>
+        <v>8039900</v>
       </c>
       <c r="G76" s="3">
-        <v>6930900</v>
+        <v>7181600</v>
       </c>
       <c r="H76" s="3">
-        <v>5243500</v>
+        <v>5433200</v>
       </c>
       <c r="I76" s="3">
-        <v>4201200</v>
+        <v>4353100</v>
       </c>
       <c r="J76" s="3">
-        <v>3770600</v>
+        <v>3907000</v>
       </c>
       <c r="K76" s="3">
         <v>3289400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>446800</v>
+        <v>463600</v>
       </c>
       <c r="E81" s="3">
-        <v>377600</v>
+        <v>391800</v>
       </c>
       <c r="F81" s="3">
-        <v>887600</v>
+        <v>921000</v>
       </c>
       <c r="G81" s="3">
-        <v>629500</v>
+        <v>653200</v>
       </c>
       <c r="H81" s="3">
-        <v>635000</v>
+        <v>658900</v>
       </c>
       <c r="I81" s="3">
-        <v>477300</v>
+        <v>495200</v>
       </c>
       <c r="J81" s="3">
-        <v>332100</v>
+        <v>344600</v>
       </c>
       <c r="K81" s="3">
         <v>423800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3015300</v>
+        <v>3128800</v>
       </c>
       <c r="E83" s="3">
-        <v>2137200</v>
+        <v>2217700</v>
       </c>
       <c r="F83" s="3">
-        <v>1948800</v>
+        <v>2022200</v>
       </c>
       <c r="G83" s="3">
-        <v>1747400</v>
+        <v>1813200</v>
       </c>
       <c r="H83" s="3">
-        <v>1511400</v>
+        <v>1568300</v>
       </c>
       <c r="I83" s="3">
-        <v>1277100</v>
+        <v>1325200</v>
       </c>
       <c r="J83" s="3">
-        <v>1144100</v>
+        <v>1187200</v>
       </c>
       <c r="K83" s="3">
         <v>1077400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4054900</v>
+        <v>4207600</v>
       </c>
       <c r="E89" s="3">
-        <v>3126400</v>
+        <v>3244100</v>
       </c>
       <c r="F89" s="3">
-        <v>2739300</v>
+        <v>2842400</v>
       </c>
       <c r="G89" s="3">
-        <v>3484000</v>
+        <v>3615200</v>
       </c>
       <c r="H89" s="3">
-        <v>3404500</v>
+        <v>3532700</v>
       </c>
       <c r="I89" s="3">
-        <v>1720900</v>
+        <v>1785700</v>
       </c>
       <c r="J89" s="3">
-        <v>1512500</v>
+        <v>1569400</v>
       </c>
       <c r="K89" s="3">
         <v>1810300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1062200</v>
+        <v>-1102200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1491000</v>
+        <v>-1547100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1091100</v>
+        <v>-1132200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3013800</v>
+        <v>-3127200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1204900</v>
+        <v>-1250300</v>
       </c>
       <c r="I91" s="3">
-        <v>-815700</v>
+        <v>-846400</v>
       </c>
       <c r="J91" s="3">
-        <v>-255000</v>
+        <v>-264600</v>
       </c>
       <c r="K91" s="3">
         <v>-882100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-685700</v>
+        <v>-711500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1788700</v>
+        <v>-1856000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2982800</v>
+        <v>-3095100</v>
       </c>
       <c r="G94" s="3">
-        <v>-5203700</v>
+        <v>-5399700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3890900</v>
+        <v>-4037400</v>
       </c>
       <c r="I94" s="3">
-        <v>-3363700</v>
+        <v>-3490300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2383200</v>
+        <v>-2472900</v>
       </c>
       <c r="K94" s="3">
         <v>-1691500</v>
@@ -3301,13 +3301,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-103300</v>
+        <v>-107200</v>
       </c>
       <c r="F96" s="3">
-        <v>-99200</v>
+        <v>-103000</v>
       </c>
       <c r="G96" s="3">
-        <v>-103300</v>
+        <v>-107200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3271600</v>
+        <v>-3394800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1897600</v>
+        <v>-1969000</v>
       </c>
       <c r="F100" s="3">
-        <v>658900</v>
+        <v>683700</v>
       </c>
       <c r="G100" s="3">
-        <v>648600</v>
+        <v>673000</v>
       </c>
       <c r="H100" s="3">
-        <v>1551200</v>
+        <v>1609600</v>
       </c>
       <c r="I100" s="3">
-        <v>1555200</v>
+        <v>1613800</v>
       </c>
       <c r="J100" s="3">
-        <v>801900</v>
+        <v>832100</v>
       </c>
       <c r="K100" s="3">
         <v>-312000</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E101" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="F101" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="G101" s="3">
-        <v>37500</v>
+        <v>38900</v>
       </c>
       <c r="H101" s="3">
-        <v>16400</v>
+        <v>17000</v>
       </c>
       <c r="I101" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J101" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>98500</v>
+        <v>102200</v>
       </c>
       <c r="E102" s="3">
-        <v>-555600</v>
+        <v>-576600</v>
       </c>
       <c r="F102" s="3">
-        <v>408800</v>
+        <v>424200</v>
       </c>
       <c r="G102" s="3">
-        <v>-1033600</v>
+        <v>-1072500</v>
       </c>
       <c r="H102" s="3">
-        <v>1081200</v>
+        <v>1121900</v>
       </c>
       <c r="I102" s="3">
-        <v>-89600</v>
+        <v>-92900</v>
       </c>
       <c r="J102" s="3">
-        <v>-72300</v>
+        <v>-75000</v>
       </c>
       <c r="K102" s="3">
         <v>-193600</v>

--- a/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17570800</v>
+        <v>18404400</v>
       </c>
       <c r="E8" s="3">
-        <v>16741800</v>
+        <v>17536100</v>
       </c>
       <c r="F8" s="3">
-        <v>14882400</v>
+        <v>15588500</v>
       </c>
       <c r="G8" s="3">
-        <v>14363800</v>
+        <v>15045300</v>
       </c>
       <c r="H8" s="3">
-        <v>13647100</v>
+        <v>14294600</v>
       </c>
       <c r="I8" s="3">
-        <v>13097600</v>
+        <v>13718900</v>
       </c>
       <c r="J8" s="3">
-        <v>12815800</v>
+        <v>13423800</v>
       </c>
       <c r="K8" s="3">
         <v>12232100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12246200</v>
+        <v>12827200</v>
       </c>
       <c r="E9" s="3">
-        <v>11719200</v>
+        <v>12275200</v>
       </c>
       <c r="F9" s="3">
-        <v>10222600</v>
+        <v>10707600</v>
       </c>
       <c r="G9" s="3">
-        <v>9139300</v>
+        <v>9572900</v>
       </c>
       <c r="H9" s="3">
-        <v>8695500</v>
+        <v>9108000</v>
       </c>
       <c r="I9" s="3">
-        <v>9115100</v>
+        <v>9547500</v>
       </c>
       <c r="J9" s="3">
-        <v>9496300</v>
+        <v>9946900</v>
       </c>
       <c r="K9" s="3">
         <v>8042700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5324600</v>
+        <v>5577200</v>
       </c>
       <c r="E10" s="3">
-        <v>5022600</v>
+        <v>5260900</v>
       </c>
       <c r="F10" s="3">
-        <v>4659800</v>
+        <v>4880900</v>
       </c>
       <c r="G10" s="3">
-        <v>5224500</v>
+        <v>5472400</v>
       </c>
       <c r="H10" s="3">
-        <v>4951600</v>
+        <v>5186500</v>
       </c>
       <c r="I10" s="3">
-        <v>3982500</v>
+        <v>4171400</v>
       </c>
       <c r="J10" s="3">
-        <v>3319500</v>
+        <v>3477000</v>
       </c>
       <c r="K10" s="3">
         <v>4189500</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="E14" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="F14" s="3">
-        <v>-201000</v>
+        <v>-210500</v>
       </c>
       <c r="G14" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H14" s="3">
-        <v>26300</v>
+        <v>27500</v>
       </c>
       <c r="I14" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J14" s="3">
-        <v>27000</v>
+        <v>28300</v>
       </c>
       <c r="K14" s="3">
         <v>-1900</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3206700</v>
+        <v>3358800</v>
       </c>
       <c r="E15" s="3">
-        <v>2223900</v>
+        <v>2329400</v>
       </c>
       <c r="F15" s="3">
-        <v>2028700</v>
+        <v>2125000</v>
       </c>
       <c r="G15" s="3">
-        <v>1765100</v>
+        <v>1848900</v>
       </c>
       <c r="H15" s="3">
-        <v>1520700</v>
+        <v>1592800</v>
       </c>
       <c r="I15" s="3">
-        <v>1333600</v>
+        <v>1396900</v>
       </c>
       <c r="J15" s="3">
-        <v>1194700</v>
+        <v>1251400</v>
       </c>
       <c r="K15" s="3">
         <v>1084300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16106700</v>
+        <v>16870900</v>
       </c>
       <c r="E17" s="3">
-        <v>15389900</v>
+        <v>16120000</v>
       </c>
       <c r="F17" s="3">
-        <v>13512800</v>
+        <v>14153900</v>
       </c>
       <c r="G17" s="3">
-        <v>12550500</v>
+        <v>13145900</v>
       </c>
       <c r="H17" s="3">
-        <v>11813600</v>
+        <v>12374000</v>
       </c>
       <c r="I17" s="3">
-        <v>12217800</v>
+        <v>12797400</v>
       </c>
       <c r="J17" s="3">
-        <v>12586900</v>
+        <v>13184000</v>
       </c>
       <c r="K17" s="3">
         <v>11625500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1464100</v>
+        <v>1533500</v>
       </c>
       <c r="E18" s="3">
-        <v>1351900</v>
+        <v>1416100</v>
       </c>
       <c r="F18" s="3">
-        <v>1369700</v>
+        <v>1434600</v>
       </c>
       <c r="G18" s="3">
-        <v>1813300</v>
+        <v>1899400</v>
       </c>
       <c r="H18" s="3">
-        <v>1833500</v>
+        <v>1920500</v>
       </c>
       <c r="I18" s="3">
-        <v>879800</v>
+        <v>921500</v>
       </c>
       <c r="J18" s="3">
-        <v>228900</v>
+        <v>239800</v>
       </c>
       <c r="K18" s="3">
         <v>606600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-88900</v>
+        <v>-93100</v>
       </c>
       <c r="E20" s="3">
-        <v>-272600</v>
+        <v>-285500</v>
       </c>
       <c r="F20" s="3">
-        <v>343200</v>
+        <v>359500</v>
       </c>
       <c r="G20" s="3">
-        <v>-477800</v>
+        <v>-500500</v>
       </c>
       <c r="H20" s="3">
-        <v>-692600</v>
+        <v>-725500</v>
       </c>
       <c r="I20" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J20" s="3">
-        <v>318000</v>
+        <v>333000</v>
       </c>
       <c r="K20" s="3">
         <v>69100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4492200</v>
+        <v>4717500</v>
       </c>
       <c r="E21" s="3">
-        <v>3288600</v>
+        <v>3453300</v>
       </c>
       <c r="F21" s="3">
-        <v>3727400</v>
+        <v>3912100</v>
       </c>
       <c r="G21" s="3">
-        <v>3141900</v>
+        <v>3298000</v>
       </c>
       <c r="H21" s="3">
-        <v>2703300</v>
+        <v>2837700</v>
       </c>
       <c r="I21" s="3">
-        <v>2201800</v>
+        <v>2311400</v>
       </c>
       <c r="J21" s="3">
-        <v>1729600</v>
+        <v>1816200</v>
       </c>
       <c r="K21" s="3">
         <v>1752800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>750800</v>
+        <v>786500</v>
       </c>
       <c r="E22" s="3">
-        <v>519300</v>
+        <v>544000</v>
       </c>
       <c r="F22" s="3">
-        <v>462400</v>
+        <v>484400</v>
       </c>
       <c r="G22" s="3">
-        <v>392000</v>
+        <v>410600</v>
       </c>
       <c r="H22" s="3">
-        <v>317900</v>
+        <v>333000</v>
       </c>
       <c r="I22" s="3">
-        <v>284200</v>
+        <v>297700</v>
       </c>
       <c r="J22" s="3">
-        <v>224900</v>
+        <v>235600</v>
       </c>
       <c r="K22" s="3">
         <v>243600</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>624300</v>
+        <v>654000</v>
       </c>
       <c r="E23" s="3">
-        <v>560000</v>
+        <v>586600</v>
       </c>
       <c r="F23" s="3">
-        <v>1250400</v>
+        <v>1309800</v>
       </c>
       <c r="G23" s="3">
-        <v>943600</v>
+        <v>988300</v>
       </c>
       <c r="H23" s="3">
-        <v>823000</v>
+        <v>862100</v>
       </c>
       <c r="I23" s="3">
-        <v>597300</v>
+        <v>625700</v>
       </c>
       <c r="J23" s="3">
-        <v>322000</v>
+        <v>337300</v>
       </c>
       <c r="K23" s="3">
         <v>432200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>118900</v>
+        <v>124600</v>
       </c>
       <c r="E24" s="3">
-        <v>134500</v>
+        <v>140900</v>
       </c>
       <c r="F24" s="3">
-        <v>261400</v>
+        <v>273800</v>
       </c>
       <c r="G24" s="3">
-        <v>223900</v>
+        <v>234600</v>
       </c>
       <c r="H24" s="3">
-        <v>90600</v>
+        <v>94900</v>
       </c>
       <c r="I24" s="3">
-        <v>83200</v>
+        <v>87200</v>
       </c>
       <c r="J24" s="3">
-        <v>18000</v>
+        <v>18900</v>
       </c>
       <c r="K24" s="3">
         <v>29400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>505400</v>
+        <v>529400</v>
       </c>
       <c r="E26" s="3">
-        <v>425500</v>
+        <v>445700</v>
       </c>
       <c r="F26" s="3">
-        <v>989000</v>
+        <v>1035900</v>
       </c>
       <c r="G26" s="3">
-        <v>719600</v>
+        <v>753800</v>
       </c>
       <c r="H26" s="3">
-        <v>732400</v>
+        <v>767100</v>
       </c>
       <c r="I26" s="3">
-        <v>514100</v>
+        <v>538500</v>
       </c>
       <c r="J26" s="3">
-        <v>303900</v>
+        <v>318400</v>
       </c>
       <c r="K26" s="3">
         <v>402800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>463600</v>
+        <v>485600</v>
       </c>
       <c r="E27" s="3">
-        <v>391800</v>
+        <v>410400</v>
       </c>
       <c r="F27" s="3">
-        <v>921000</v>
+        <v>964700</v>
       </c>
       <c r="G27" s="3">
-        <v>653200</v>
+        <v>684200</v>
       </c>
       <c r="H27" s="3">
-        <v>658900</v>
+        <v>690200</v>
       </c>
       <c r="I27" s="3">
-        <v>495200</v>
+        <v>518700</v>
       </c>
       <c r="J27" s="3">
-        <v>344600</v>
+        <v>360900</v>
       </c>
       <c r="K27" s="3">
         <v>423800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>88900</v>
+        <v>93100</v>
       </c>
       <c r="E32" s="3">
-        <v>272600</v>
+        <v>285500</v>
       </c>
       <c r="F32" s="3">
-        <v>-343200</v>
+        <v>-359500</v>
       </c>
       <c r="G32" s="3">
-        <v>477800</v>
+        <v>500500</v>
       </c>
       <c r="H32" s="3">
-        <v>692600</v>
+        <v>725500</v>
       </c>
       <c r="I32" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="J32" s="3">
-        <v>-318000</v>
+        <v>-333000</v>
       </c>
       <c r="K32" s="3">
         <v>-69100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>463600</v>
+        <v>485600</v>
       </c>
       <c r="E33" s="3">
-        <v>391800</v>
+        <v>410400</v>
       </c>
       <c r="F33" s="3">
-        <v>921000</v>
+        <v>964700</v>
       </c>
       <c r="G33" s="3">
-        <v>653200</v>
+        <v>684200</v>
       </c>
       <c r="H33" s="3">
-        <v>658900</v>
+        <v>690200</v>
       </c>
       <c r="I33" s="3">
-        <v>495200</v>
+        <v>518700</v>
       </c>
       <c r="J33" s="3">
-        <v>344600</v>
+        <v>360900</v>
       </c>
       <c r="K33" s="3">
         <v>423800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>463600</v>
+        <v>485600</v>
       </c>
       <c r="E35" s="3">
-        <v>391800</v>
+        <v>410400</v>
       </c>
       <c r="F35" s="3">
-        <v>921000</v>
+        <v>964700</v>
       </c>
       <c r="G35" s="3">
-        <v>653200</v>
+        <v>684200</v>
       </c>
       <c r="H35" s="3">
-        <v>658900</v>
+        <v>690200</v>
       </c>
       <c r="I35" s="3">
-        <v>495200</v>
+        <v>518700</v>
       </c>
       <c r="J35" s="3">
-        <v>344600</v>
+        <v>360900</v>
       </c>
       <c r="K35" s="3">
         <v>423800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>196100</v>
+        <v>205400</v>
       </c>
       <c r="E41" s="3">
-        <v>93800</v>
+        <v>98300</v>
       </c>
       <c r="F41" s="3">
-        <v>668800</v>
+        <v>700500</v>
       </c>
       <c r="G41" s="3">
-        <v>246200</v>
+        <v>257800</v>
       </c>
       <c r="H41" s="3">
-        <v>1318700</v>
+        <v>1381200</v>
       </c>
       <c r="I41" s="3">
-        <v>196800</v>
+        <v>206100</v>
       </c>
       <c r="J41" s="3">
-        <v>289700</v>
+        <v>303500</v>
       </c>
       <c r="K41" s="3">
         <v>360400</v>
@@ -1685,10 +1685,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17600</v>
+        <v>18400</v>
       </c>
       <c r="E42" s="3">
-        <v>13900</v>
+        <v>14600</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2170600</v>
+        <v>2273600</v>
       </c>
       <c r="E43" s="3">
-        <v>1787100</v>
+        <v>1871800</v>
       </c>
       <c r="F43" s="3">
-        <v>1516500</v>
+        <v>1588400</v>
       </c>
       <c r="G43" s="3">
-        <v>1279300</v>
+        <v>1340000</v>
       </c>
       <c r="H43" s="3">
-        <v>1473100</v>
+        <v>1543000</v>
       </c>
       <c r="I43" s="3">
-        <v>560900</v>
+        <v>587500</v>
       </c>
       <c r="J43" s="3">
-        <v>511900</v>
+        <v>536200</v>
       </c>
       <c r="K43" s="3">
         <v>425000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>349600</v>
+        <v>366200</v>
       </c>
       <c r="E44" s="3">
-        <v>283200</v>
+        <v>296600</v>
       </c>
       <c r="F44" s="3">
-        <v>317300</v>
+        <v>332400</v>
       </c>
       <c r="G44" s="3">
-        <v>326500</v>
+        <v>342000</v>
       </c>
       <c r="H44" s="3">
-        <v>298600</v>
+        <v>312800</v>
       </c>
       <c r="I44" s="3">
-        <v>328100</v>
+        <v>343600</v>
       </c>
       <c r="J44" s="3">
-        <v>334800</v>
+        <v>350700</v>
       </c>
       <c r="K44" s="3">
         <v>299600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>133500</v>
+        <v>139800</v>
       </c>
       <c r="E45" s="3">
-        <v>135800</v>
+        <v>142200</v>
       </c>
       <c r="F45" s="3">
-        <v>154100</v>
+        <v>161400</v>
       </c>
       <c r="G45" s="3">
-        <v>455400</v>
+        <v>477000</v>
       </c>
       <c r="H45" s="3">
-        <v>261300</v>
+        <v>273700</v>
       </c>
       <c r="I45" s="3">
-        <v>1563700</v>
+        <v>1637900</v>
       </c>
       <c r="J45" s="3">
-        <v>694900</v>
+        <v>727900</v>
       </c>
       <c r="K45" s="3">
         <v>733600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2867300</v>
+        <v>3003300</v>
       </c>
       <c r="E46" s="3">
-        <v>2313800</v>
+        <v>2423600</v>
       </c>
       <c r="F46" s="3">
-        <v>2656700</v>
+        <v>2782700</v>
       </c>
       <c r="G46" s="3">
-        <v>2307400</v>
+        <v>2416900</v>
       </c>
       <c r="H46" s="3">
-        <v>3351600</v>
+        <v>3510600</v>
       </c>
       <c r="I46" s="3">
-        <v>2649400</v>
+        <v>2775100</v>
       </c>
       <c r="J46" s="3">
-        <v>1831300</v>
+        <v>1918200</v>
       </c>
       <c r="K46" s="3">
         <v>1818600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>569300</v>
+        <v>596300</v>
       </c>
       <c r="E47" s="3">
-        <v>519200</v>
+        <v>543800</v>
       </c>
       <c r="F47" s="3">
-        <v>446700</v>
+        <v>467900</v>
       </c>
       <c r="G47" s="3">
-        <v>404900</v>
+        <v>424100</v>
       </c>
       <c r="H47" s="3">
-        <v>506400</v>
+        <v>530400</v>
       </c>
       <c r="I47" s="3">
-        <v>293900</v>
+        <v>307900</v>
       </c>
       <c r="J47" s="3">
-        <v>277100</v>
+        <v>290300</v>
       </c>
       <c r="K47" s="3">
         <v>213300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35606300</v>
+        <v>37295600</v>
       </c>
       <c r="E48" s="3">
-        <v>29474000</v>
+        <v>30872300</v>
       </c>
       <c r="F48" s="3">
-        <v>27902600</v>
+        <v>29226400</v>
       </c>
       <c r="G48" s="3">
-        <v>25726500</v>
+        <v>26947000</v>
       </c>
       <c r="H48" s="3">
-        <v>22522400</v>
+        <v>23590900</v>
       </c>
       <c r="I48" s="3">
-        <v>18836200</v>
+        <v>19729800</v>
       </c>
       <c r="J48" s="3">
-        <v>15841500</v>
+        <v>16593100</v>
       </c>
       <c r="K48" s="3">
         <v>13546500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1698900</v>
+        <v>1779500</v>
       </c>
       <c r="E49" s="3">
-        <v>1686000</v>
+        <v>1766000</v>
       </c>
       <c r="F49" s="3">
-        <v>1684100</v>
+        <v>1764000</v>
       </c>
       <c r="G49" s="3">
-        <v>1688200</v>
+        <v>1768200</v>
       </c>
       <c r="H49" s="3">
-        <v>1673300</v>
+        <v>1752700</v>
       </c>
       <c r="I49" s="3">
-        <v>1670100</v>
+        <v>1749400</v>
       </c>
       <c r="J49" s="3">
-        <v>1668700</v>
+        <v>1747900</v>
       </c>
       <c r="K49" s="3">
         <v>1642700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>675600</v>
+        <v>707700</v>
       </c>
       <c r="E52" s="3">
-        <v>719500</v>
+        <v>753600</v>
       </c>
       <c r="F52" s="3">
-        <v>673100</v>
+        <v>705100</v>
       </c>
       <c r="G52" s="3">
-        <v>708900</v>
+        <v>742500</v>
       </c>
       <c r="H52" s="3">
-        <v>700600</v>
+        <v>733800</v>
       </c>
       <c r="I52" s="3">
-        <v>633600</v>
+        <v>663700</v>
       </c>
       <c r="J52" s="3">
-        <v>723400</v>
+        <v>757700</v>
       </c>
       <c r="K52" s="3">
         <v>544500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41417400</v>
+        <v>43382300</v>
       </c>
       <c r="E54" s="3">
-        <v>34712400</v>
+        <v>36359300</v>
       </c>
       <c r="F54" s="3">
-        <v>33363300</v>
+        <v>34946100</v>
       </c>
       <c r="G54" s="3">
-        <v>30835800</v>
+        <v>32298700</v>
       </c>
       <c r="H54" s="3">
-        <v>28754400</v>
+        <v>30118500</v>
       </c>
       <c r="I54" s="3">
-        <v>24083300</v>
+        <v>25225900</v>
       </c>
       <c r="J54" s="3">
-        <v>20342100</v>
+        <v>21307200</v>
       </c>
       <c r="K54" s="3">
         <v>17765500</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>563100</v>
+        <v>589800</v>
       </c>
       <c r="E57" s="3">
-        <v>586700</v>
+        <v>614600</v>
       </c>
       <c r="F57" s="3">
-        <v>462400</v>
+        <v>484400</v>
       </c>
       <c r="G57" s="3">
-        <v>490300</v>
+        <v>513600</v>
       </c>
       <c r="H57" s="3">
-        <v>539100</v>
+        <v>564700</v>
       </c>
       <c r="I57" s="3">
-        <v>302500</v>
+        <v>316900</v>
       </c>
       <c r="J57" s="3">
-        <v>502900</v>
+        <v>526800</v>
       </c>
       <c r="K57" s="3">
         <v>469200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5928700</v>
+        <v>6210000</v>
       </c>
       <c r="E58" s="3">
-        <v>5609200</v>
+        <v>5875300</v>
       </c>
       <c r="F58" s="3">
-        <v>7019100</v>
+        <v>7352100</v>
       </c>
       <c r="G58" s="3">
-        <v>5125000</v>
+        <v>5368200</v>
       </c>
       <c r="H58" s="3">
-        <v>6437000</v>
+        <v>6742400</v>
       </c>
       <c r="I58" s="3">
-        <v>4832100</v>
+        <v>5061300</v>
       </c>
       <c r="J58" s="3">
-        <v>3814600</v>
+        <v>3995500</v>
       </c>
       <c r="K58" s="3">
         <v>3727500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4888900</v>
+        <v>5120800</v>
       </c>
       <c r="E59" s="3">
-        <v>4415100</v>
+        <v>4624600</v>
       </c>
       <c r="F59" s="3">
-        <v>4184500</v>
+        <v>4383000</v>
       </c>
       <c r="G59" s="3">
-        <v>4272200</v>
+        <v>4474900</v>
       </c>
       <c r="H59" s="3">
-        <v>3827100</v>
+        <v>4008700</v>
       </c>
       <c r="I59" s="3">
-        <v>3743300</v>
+        <v>3920900</v>
       </c>
       <c r="J59" s="3">
-        <v>3391600</v>
+        <v>3552500</v>
       </c>
       <c r="K59" s="3">
         <v>2779700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11380700</v>
+        <v>11920600</v>
       </c>
       <c r="E60" s="3">
-        <v>10611100</v>
+        <v>11114500</v>
       </c>
       <c r="F60" s="3">
-        <v>11666000</v>
+        <v>12219500</v>
       </c>
       <c r="G60" s="3">
-        <v>9887500</v>
+        <v>10356600</v>
       </c>
       <c r="H60" s="3">
-        <v>10803200</v>
+        <v>11315800</v>
       </c>
       <c r="I60" s="3">
-        <v>8877900</v>
+        <v>9299100</v>
       </c>
       <c r="J60" s="3">
-        <v>7709100</v>
+        <v>8074800</v>
       </c>
       <c r="K60" s="3">
         <v>6976400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17614800</v>
+        <v>18450500</v>
       </c>
       <c r="E61" s="3">
-        <v>13641500</v>
+        <v>14288600</v>
       </c>
       <c r="F61" s="3">
-        <v>11957900</v>
+        <v>12525300</v>
       </c>
       <c r="G61" s="3">
-        <v>11979200</v>
+        <v>12547500</v>
       </c>
       <c r="H61" s="3">
-        <v>10861500</v>
+        <v>11376800</v>
       </c>
       <c r="I61" s="3">
-        <v>9383600</v>
+        <v>9828800</v>
       </c>
       <c r="J61" s="3">
-        <v>6894100</v>
+        <v>7221100</v>
       </c>
       <c r="K61" s="3">
         <v>6076200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1871600</v>
+        <v>1960400</v>
       </c>
       <c r="E62" s="3">
-        <v>1513600</v>
+        <v>1585400</v>
       </c>
       <c r="F62" s="3">
-        <v>1202900</v>
+        <v>1260000</v>
       </c>
       <c r="G62" s="3">
-        <v>1364000</v>
+        <v>1428700</v>
       </c>
       <c r="H62" s="3">
-        <v>1290500</v>
+        <v>1351700</v>
       </c>
       <c r="I62" s="3">
-        <v>1207700</v>
+        <v>1265000</v>
       </c>
       <c r="J62" s="3">
-        <v>1588000</v>
+        <v>1663300</v>
       </c>
       <c r="K62" s="3">
         <v>1189900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31395400</v>
+        <v>32884800</v>
       </c>
       <c r="E66" s="3">
-        <v>26287900</v>
+        <v>27535100</v>
       </c>
       <c r="F66" s="3">
-        <v>25323300</v>
+        <v>26524700</v>
       </c>
       <c r="G66" s="3">
-        <v>23654200</v>
+        <v>24776400</v>
       </c>
       <c r="H66" s="3">
-        <v>23321200</v>
+        <v>24427600</v>
       </c>
       <c r="I66" s="3">
-        <v>19730200</v>
+        <v>20666300</v>
       </c>
       <c r="J66" s="3">
-        <v>16435100</v>
+        <v>17214800</v>
       </c>
       <c r="K66" s="3">
         <v>14476100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7643300</v>
+        <v>8005900</v>
       </c>
       <c r="E72" s="3">
-        <v>6323500</v>
+        <v>6623500</v>
       </c>
       <c r="F72" s="3">
-        <v>5938900</v>
+        <v>6220600</v>
       </c>
       <c r="G72" s="3">
-        <v>5080600</v>
+        <v>5321600</v>
       </c>
       <c r="H72" s="3">
-        <v>3524900</v>
+        <v>3692100</v>
       </c>
       <c r="I72" s="3">
-        <v>-410900</v>
+        <v>-430300</v>
       </c>
       <c r="J72" s="3">
-        <v>-858500</v>
+        <v>-899200</v>
       </c>
       <c r="K72" s="3">
         <v>-913300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10022000</v>
+        <v>10497500</v>
       </c>
       <c r="E76" s="3">
-        <v>8424500</v>
+        <v>8824200</v>
       </c>
       <c r="F76" s="3">
-        <v>8039900</v>
+        <v>8421400</v>
       </c>
       <c r="G76" s="3">
-        <v>7181600</v>
+        <v>7522300</v>
       </c>
       <c r="H76" s="3">
-        <v>5433200</v>
+        <v>5691000</v>
       </c>
       <c r="I76" s="3">
-        <v>4353100</v>
+        <v>4559600</v>
       </c>
       <c r="J76" s="3">
-        <v>3907000</v>
+        <v>4092400</v>
       </c>
       <c r="K76" s="3">
         <v>3289400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>463600</v>
+        <v>485600</v>
       </c>
       <c r="E81" s="3">
-        <v>391800</v>
+        <v>410400</v>
       </c>
       <c r="F81" s="3">
-        <v>921000</v>
+        <v>964700</v>
       </c>
       <c r="G81" s="3">
-        <v>653200</v>
+        <v>684200</v>
       </c>
       <c r="H81" s="3">
-        <v>658900</v>
+        <v>690200</v>
       </c>
       <c r="I81" s="3">
-        <v>495200</v>
+        <v>518700</v>
       </c>
       <c r="J81" s="3">
-        <v>344600</v>
+        <v>360900</v>
       </c>
       <c r="K81" s="3">
         <v>423800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3128800</v>
+        <v>3277300</v>
       </c>
       <c r="E83" s="3">
-        <v>2217700</v>
+        <v>2322900</v>
       </c>
       <c r="F83" s="3">
-        <v>2022200</v>
+        <v>2118100</v>
       </c>
       <c r="G83" s="3">
-        <v>1813200</v>
+        <v>1899200</v>
       </c>
       <c r="H83" s="3">
-        <v>1568300</v>
+        <v>1642700</v>
       </c>
       <c r="I83" s="3">
-        <v>1325200</v>
+        <v>1388100</v>
       </c>
       <c r="J83" s="3">
-        <v>1187200</v>
+        <v>1243500</v>
       </c>
       <c r="K83" s="3">
         <v>1077400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4207600</v>
+        <v>4407200</v>
       </c>
       <c r="E89" s="3">
-        <v>3244100</v>
+        <v>3398100</v>
       </c>
       <c r="F89" s="3">
-        <v>2842400</v>
+        <v>2977300</v>
       </c>
       <c r="G89" s="3">
-        <v>3615200</v>
+        <v>3786700</v>
       </c>
       <c r="H89" s="3">
-        <v>3532700</v>
+        <v>3700300</v>
       </c>
       <c r="I89" s="3">
-        <v>1785700</v>
+        <v>1870500</v>
       </c>
       <c r="J89" s="3">
-        <v>1569400</v>
+        <v>1643900</v>
       </c>
       <c r="K89" s="3">
         <v>1810300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1102200</v>
+        <v>-1154400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1547100</v>
+        <v>-1620500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1132200</v>
+        <v>-1185900</v>
       </c>
       <c r="G91" s="3">
-        <v>-3127200</v>
+        <v>-3275600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1250300</v>
+        <v>-1309600</v>
       </c>
       <c r="I91" s="3">
-        <v>-846400</v>
+        <v>-886600</v>
       </c>
       <c r="J91" s="3">
-        <v>-264600</v>
+        <v>-277200</v>
       </c>
       <c r="K91" s="3">
         <v>-882100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-711500</v>
+        <v>-745200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1856000</v>
+        <v>-1944100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3095100</v>
+        <v>-3242000</v>
       </c>
       <c r="G94" s="3">
-        <v>-5399700</v>
+        <v>-5655800</v>
       </c>
       <c r="H94" s="3">
-        <v>-4037400</v>
+        <v>-4228900</v>
       </c>
       <c r="I94" s="3">
-        <v>-3490300</v>
+        <v>-3655900</v>
       </c>
       <c r="J94" s="3">
-        <v>-2472900</v>
+        <v>-2590200</v>
       </c>
       <c r="K94" s="3">
         <v>-1691500</v>
@@ -3301,13 +3301,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-107200</v>
+        <v>-112300</v>
       </c>
       <c r="F96" s="3">
-        <v>-103000</v>
+        <v>-107900</v>
       </c>
       <c r="G96" s="3">
-        <v>-107200</v>
+        <v>-112300</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3394800</v>
+        <v>-3555800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1969000</v>
+        <v>-2062400</v>
       </c>
       <c r="F100" s="3">
-        <v>683700</v>
+        <v>716200</v>
       </c>
       <c r="G100" s="3">
-        <v>673000</v>
+        <v>704900</v>
       </c>
       <c r="H100" s="3">
-        <v>1609600</v>
+        <v>1685900</v>
       </c>
       <c r="I100" s="3">
-        <v>1613800</v>
+        <v>1690400</v>
       </c>
       <c r="J100" s="3">
-        <v>832100</v>
+        <v>871600</v>
       </c>
       <c r="K100" s="3">
         <v>-312000</v>
@@ -3466,22 +3466,22 @@
         <v>900</v>
       </c>
       <c r="E101" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="F101" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
       </c>
       <c r="G101" s="3">
-        <v>38900</v>
+        <v>40800</v>
       </c>
       <c r="H101" s="3">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="I101" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="J101" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>102200</v>
+        <v>107100</v>
       </c>
       <c r="E102" s="3">
-        <v>-576600</v>
+        <v>-603900</v>
       </c>
       <c r="F102" s="3">
-        <v>424200</v>
+        <v>444300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1072500</v>
+        <v>-1123400</v>
       </c>
       <c r="H102" s="3">
-        <v>1121900</v>
+        <v>1175100</v>
       </c>
       <c r="I102" s="3">
-        <v>-92900</v>
+        <v>-97400</v>
       </c>
       <c r="J102" s="3">
-        <v>-75000</v>
+        <v>-78600</v>
       </c>
       <c r="K102" s="3">
         <v>-193600</v>

--- a/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18404400</v>
+        <v>18484200</v>
       </c>
       <c r="E8" s="3">
-        <v>17536100</v>
+        <v>17612200</v>
       </c>
       <c r="F8" s="3">
-        <v>15588500</v>
+        <v>15656100</v>
       </c>
       <c r="G8" s="3">
-        <v>15045300</v>
+        <v>15110600</v>
       </c>
       <c r="H8" s="3">
-        <v>14294600</v>
+        <v>14356600</v>
       </c>
       <c r="I8" s="3">
-        <v>13718900</v>
+        <v>13778500</v>
       </c>
       <c r="J8" s="3">
-        <v>13423800</v>
+        <v>13482100</v>
       </c>
       <c r="K8" s="3">
         <v>12232100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12827200</v>
+        <v>12882900</v>
       </c>
       <c r="E9" s="3">
-        <v>12275200</v>
+        <v>12328400</v>
       </c>
       <c r="F9" s="3">
-        <v>10707600</v>
+        <v>10754000</v>
       </c>
       <c r="G9" s="3">
-        <v>9572900</v>
+        <v>9614400</v>
       </c>
       <c r="H9" s="3">
-        <v>9108000</v>
+        <v>9147500</v>
       </c>
       <c r="I9" s="3">
-        <v>9547500</v>
+        <v>9588900</v>
       </c>
       <c r="J9" s="3">
-        <v>9946900</v>
+        <v>9990000</v>
       </c>
       <c r="K9" s="3">
         <v>8042700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5577200</v>
+        <v>5601400</v>
       </c>
       <c r="E10" s="3">
-        <v>5260900</v>
+        <v>5283700</v>
       </c>
       <c r="F10" s="3">
-        <v>4880900</v>
+        <v>4902100</v>
       </c>
       <c r="G10" s="3">
-        <v>5472400</v>
+        <v>5496100</v>
       </c>
       <c r="H10" s="3">
-        <v>5186500</v>
+        <v>5209000</v>
       </c>
       <c r="I10" s="3">
-        <v>4171400</v>
+        <v>4189500</v>
       </c>
       <c r="J10" s="3">
-        <v>3477000</v>
+        <v>3492100</v>
       </c>
       <c r="K10" s="3">
         <v>4189500</v>
@@ -900,22 +900,22 @@
         <v>-6700</v>
       </c>
       <c r="E14" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F14" s="3">
-        <v>-210500</v>
+        <v>-211400</v>
       </c>
       <c r="G14" s="3">
         <v>2600</v>
       </c>
       <c r="H14" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="I14" s="3">
         <v>1800</v>
       </c>
       <c r="J14" s="3">
-        <v>28300</v>
+        <v>28400</v>
       </c>
       <c r="K14" s="3">
         <v>-1900</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3358800</v>
+        <v>3373400</v>
       </c>
       <c r="E15" s="3">
-        <v>2329400</v>
+        <v>2339500</v>
       </c>
       <c r="F15" s="3">
-        <v>2125000</v>
+        <v>2134200</v>
       </c>
       <c r="G15" s="3">
-        <v>1848900</v>
+        <v>1856900</v>
       </c>
       <c r="H15" s="3">
-        <v>1592800</v>
+        <v>1599800</v>
       </c>
       <c r="I15" s="3">
-        <v>1396900</v>
+        <v>1403000</v>
       </c>
       <c r="J15" s="3">
-        <v>1251400</v>
+        <v>1256800</v>
       </c>
       <c r="K15" s="3">
         <v>1084300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16870900</v>
+        <v>16944100</v>
       </c>
       <c r="E17" s="3">
-        <v>16120000</v>
+        <v>16189900</v>
       </c>
       <c r="F17" s="3">
-        <v>14153900</v>
+        <v>14215300</v>
       </c>
       <c r="G17" s="3">
-        <v>13145900</v>
+        <v>13202900</v>
       </c>
       <c r="H17" s="3">
-        <v>12374000</v>
+        <v>12427700</v>
       </c>
       <c r="I17" s="3">
-        <v>12797400</v>
+        <v>12852900</v>
       </c>
       <c r="J17" s="3">
-        <v>13184000</v>
+        <v>13241200</v>
       </c>
       <c r="K17" s="3">
         <v>11625500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1533500</v>
+        <v>1540200</v>
       </c>
       <c r="E18" s="3">
-        <v>1416100</v>
+        <v>1422200</v>
       </c>
       <c r="F18" s="3">
-        <v>1434600</v>
+        <v>1440900</v>
       </c>
       <c r="G18" s="3">
-        <v>1899400</v>
+        <v>1907600</v>
       </c>
       <c r="H18" s="3">
-        <v>1920500</v>
+        <v>1928800</v>
       </c>
       <c r="I18" s="3">
-        <v>921500</v>
+        <v>925500</v>
       </c>
       <c r="J18" s="3">
-        <v>239800</v>
+        <v>240800</v>
       </c>
       <c r="K18" s="3">
         <v>606600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-93100</v>
+        <v>-93500</v>
       </c>
       <c r="E20" s="3">
-        <v>-285500</v>
+        <v>-286800</v>
       </c>
       <c r="F20" s="3">
-        <v>359500</v>
+        <v>361000</v>
       </c>
       <c r="G20" s="3">
-        <v>-500500</v>
+        <v>-502600</v>
       </c>
       <c r="H20" s="3">
-        <v>-725500</v>
+        <v>-728600</v>
       </c>
       <c r="I20" s="3">
         <v>1800</v>
       </c>
       <c r="J20" s="3">
-        <v>333000</v>
+        <v>334500</v>
       </c>
       <c r="K20" s="3">
         <v>69100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4717500</v>
+        <v>4749400</v>
       </c>
       <c r="E21" s="3">
-        <v>3453300</v>
+        <v>3476400</v>
       </c>
       <c r="F21" s="3">
-        <v>3912100</v>
+        <v>3936400</v>
       </c>
       <c r="G21" s="3">
-        <v>3298000</v>
+        <v>3318900</v>
       </c>
       <c r="H21" s="3">
-        <v>2837700</v>
+        <v>2855700</v>
       </c>
       <c r="I21" s="3">
-        <v>2311400</v>
+        <v>2326200</v>
       </c>
       <c r="J21" s="3">
-        <v>1816200</v>
+        <v>1828400</v>
       </c>
       <c r="K21" s="3">
         <v>1752800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>786500</v>
+        <v>789900</v>
       </c>
       <c r="E22" s="3">
-        <v>544000</v>
+        <v>546300</v>
       </c>
       <c r="F22" s="3">
-        <v>484400</v>
+        <v>486500</v>
       </c>
       <c r="G22" s="3">
-        <v>410600</v>
+        <v>412400</v>
       </c>
       <c r="H22" s="3">
-        <v>333000</v>
+        <v>334400</v>
       </c>
       <c r="I22" s="3">
-        <v>297700</v>
+        <v>299000</v>
       </c>
       <c r="J22" s="3">
-        <v>235600</v>
+        <v>236600</v>
       </c>
       <c r="K22" s="3">
         <v>243600</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>654000</v>
+        <v>656800</v>
       </c>
       <c r="E23" s="3">
-        <v>586600</v>
+        <v>589100</v>
       </c>
       <c r="F23" s="3">
-        <v>1309800</v>
+        <v>1315400</v>
       </c>
       <c r="G23" s="3">
-        <v>988300</v>
+        <v>992600</v>
       </c>
       <c r="H23" s="3">
-        <v>862100</v>
+        <v>865800</v>
       </c>
       <c r="I23" s="3">
-        <v>625700</v>
+        <v>628400</v>
       </c>
       <c r="J23" s="3">
-        <v>337300</v>
+        <v>338700</v>
       </c>
       <c r="K23" s="3">
         <v>432200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>124600</v>
+        <v>125100</v>
       </c>
       <c r="E24" s="3">
-        <v>140900</v>
+        <v>141500</v>
       </c>
       <c r="F24" s="3">
-        <v>273800</v>
+        <v>275000</v>
       </c>
       <c r="G24" s="3">
-        <v>234600</v>
+        <v>235600</v>
       </c>
       <c r="H24" s="3">
-        <v>94900</v>
+        <v>95300</v>
       </c>
       <c r="I24" s="3">
-        <v>87200</v>
+        <v>87500</v>
       </c>
       <c r="J24" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="K24" s="3">
         <v>29400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>529400</v>
+        <v>531700</v>
       </c>
       <c r="E26" s="3">
-        <v>445700</v>
+        <v>447600</v>
       </c>
       <c r="F26" s="3">
-        <v>1035900</v>
+        <v>1040400</v>
       </c>
       <c r="G26" s="3">
-        <v>753800</v>
+        <v>757000</v>
       </c>
       <c r="H26" s="3">
-        <v>767100</v>
+        <v>770500</v>
       </c>
       <c r="I26" s="3">
-        <v>538500</v>
+        <v>540800</v>
       </c>
       <c r="J26" s="3">
-        <v>318400</v>
+        <v>319700</v>
       </c>
       <c r="K26" s="3">
         <v>402800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>485600</v>
+        <v>487700</v>
       </c>
       <c r="E27" s="3">
-        <v>410400</v>
+        <v>412200</v>
       </c>
       <c r="F27" s="3">
-        <v>964700</v>
+        <v>968900</v>
       </c>
       <c r="G27" s="3">
-        <v>684200</v>
+        <v>687200</v>
       </c>
       <c r="H27" s="3">
-        <v>690200</v>
+        <v>693200</v>
       </c>
       <c r="I27" s="3">
-        <v>518700</v>
+        <v>521000</v>
       </c>
       <c r="J27" s="3">
-        <v>360900</v>
+        <v>362500</v>
       </c>
       <c r="K27" s="3">
         <v>423800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>93100</v>
+        <v>93500</v>
       </c>
       <c r="E32" s="3">
-        <v>285500</v>
+        <v>286800</v>
       </c>
       <c r="F32" s="3">
-        <v>-359500</v>
+        <v>-361000</v>
       </c>
       <c r="G32" s="3">
-        <v>500500</v>
+        <v>502600</v>
       </c>
       <c r="H32" s="3">
-        <v>725500</v>
+        <v>728600</v>
       </c>
       <c r="I32" s="3">
         <v>-1800</v>
       </c>
       <c r="J32" s="3">
-        <v>-333000</v>
+        <v>-334500</v>
       </c>
       <c r="K32" s="3">
         <v>-69100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>485600</v>
+        <v>487700</v>
       </c>
       <c r="E33" s="3">
-        <v>410400</v>
+        <v>412200</v>
       </c>
       <c r="F33" s="3">
-        <v>964700</v>
+        <v>968900</v>
       </c>
       <c r="G33" s="3">
-        <v>684200</v>
+        <v>687200</v>
       </c>
       <c r="H33" s="3">
-        <v>690200</v>
+        <v>693200</v>
       </c>
       <c r="I33" s="3">
-        <v>518700</v>
+        <v>521000</v>
       </c>
       <c r="J33" s="3">
-        <v>360900</v>
+        <v>362500</v>
       </c>
       <c r="K33" s="3">
         <v>423800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>485600</v>
+        <v>487700</v>
       </c>
       <c r="E35" s="3">
-        <v>410400</v>
+        <v>412200</v>
       </c>
       <c r="F35" s="3">
-        <v>964700</v>
+        <v>968900</v>
       </c>
       <c r="G35" s="3">
-        <v>684200</v>
+        <v>687200</v>
       </c>
       <c r="H35" s="3">
-        <v>690200</v>
+        <v>693200</v>
       </c>
       <c r="I35" s="3">
-        <v>518700</v>
+        <v>521000</v>
       </c>
       <c r="J35" s="3">
-        <v>360900</v>
+        <v>362500</v>
       </c>
       <c r="K35" s="3">
         <v>423800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>205400</v>
+        <v>206300</v>
       </c>
       <c r="E41" s="3">
-        <v>98300</v>
+        <v>98700</v>
       </c>
       <c r="F41" s="3">
-        <v>700500</v>
+        <v>703600</v>
       </c>
       <c r="G41" s="3">
-        <v>257800</v>
+        <v>259000</v>
       </c>
       <c r="H41" s="3">
-        <v>1381200</v>
+        <v>1387200</v>
       </c>
       <c r="I41" s="3">
-        <v>206100</v>
+        <v>207000</v>
       </c>
       <c r="J41" s="3">
-        <v>303500</v>
+        <v>304800</v>
       </c>
       <c r="K41" s="3">
         <v>360400</v>
@@ -1685,10 +1685,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="E42" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2273600</v>
+        <v>2283400</v>
       </c>
       <c r="E43" s="3">
-        <v>1871800</v>
+        <v>1880000</v>
       </c>
       <c r="F43" s="3">
-        <v>1588400</v>
+        <v>1595300</v>
       </c>
       <c r="G43" s="3">
-        <v>1340000</v>
+        <v>1345800</v>
       </c>
       <c r="H43" s="3">
-        <v>1543000</v>
+        <v>1549600</v>
       </c>
       <c r="I43" s="3">
-        <v>587500</v>
+        <v>590000</v>
       </c>
       <c r="J43" s="3">
-        <v>536200</v>
+        <v>538500</v>
       </c>
       <c r="K43" s="3">
         <v>425000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>366200</v>
+        <v>367700</v>
       </c>
       <c r="E44" s="3">
-        <v>296600</v>
+        <v>297900</v>
       </c>
       <c r="F44" s="3">
-        <v>332400</v>
+        <v>333800</v>
       </c>
       <c r="G44" s="3">
-        <v>342000</v>
+        <v>343400</v>
       </c>
       <c r="H44" s="3">
-        <v>312800</v>
+        <v>314100</v>
       </c>
       <c r="I44" s="3">
-        <v>343600</v>
+        <v>345100</v>
       </c>
       <c r="J44" s="3">
-        <v>350700</v>
+        <v>352200</v>
       </c>
       <c r="K44" s="3">
         <v>299600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>139800</v>
+        <v>140400</v>
       </c>
       <c r="E45" s="3">
-        <v>142200</v>
+        <v>142800</v>
       </c>
       <c r="F45" s="3">
-        <v>161400</v>
+        <v>162100</v>
       </c>
       <c r="G45" s="3">
-        <v>477000</v>
+        <v>479100</v>
       </c>
       <c r="H45" s="3">
-        <v>273700</v>
+        <v>274900</v>
       </c>
       <c r="I45" s="3">
-        <v>1637900</v>
+        <v>1645000</v>
       </c>
       <c r="J45" s="3">
-        <v>727900</v>
+        <v>731000</v>
       </c>
       <c r="K45" s="3">
         <v>733600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3003300</v>
+        <v>3016300</v>
       </c>
       <c r="E46" s="3">
-        <v>2423600</v>
+        <v>2434100</v>
       </c>
       <c r="F46" s="3">
-        <v>2782700</v>
+        <v>2794800</v>
       </c>
       <c r="G46" s="3">
-        <v>2416900</v>
+        <v>2427400</v>
       </c>
       <c r="H46" s="3">
-        <v>3510600</v>
+        <v>3525900</v>
       </c>
       <c r="I46" s="3">
-        <v>2775100</v>
+        <v>2787200</v>
       </c>
       <c r="J46" s="3">
-        <v>1918200</v>
+        <v>1926500</v>
       </c>
       <c r="K46" s="3">
         <v>1818600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>596300</v>
+        <v>598900</v>
       </c>
       <c r="E47" s="3">
-        <v>543800</v>
+        <v>546200</v>
       </c>
       <c r="F47" s="3">
-        <v>467900</v>
+        <v>470000</v>
       </c>
       <c r="G47" s="3">
-        <v>424100</v>
+        <v>426000</v>
       </c>
       <c r="H47" s="3">
-        <v>530400</v>
+        <v>532700</v>
       </c>
       <c r="I47" s="3">
-        <v>307900</v>
+        <v>309200</v>
       </c>
       <c r="J47" s="3">
-        <v>290300</v>
+        <v>291500</v>
       </c>
       <c r="K47" s="3">
         <v>213300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37295600</v>
+        <v>37457400</v>
       </c>
       <c r="E48" s="3">
-        <v>30872300</v>
+        <v>31006200</v>
       </c>
       <c r="F48" s="3">
-        <v>29226400</v>
+        <v>29353200</v>
       </c>
       <c r="G48" s="3">
-        <v>26947000</v>
+        <v>27063900</v>
       </c>
       <c r="H48" s="3">
-        <v>23590900</v>
+        <v>23693300</v>
       </c>
       <c r="I48" s="3">
-        <v>19729800</v>
+        <v>19815400</v>
       </c>
       <c r="J48" s="3">
-        <v>16593100</v>
+        <v>16665100</v>
       </c>
       <c r="K48" s="3">
         <v>13546500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1779500</v>
+        <v>1787200</v>
       </c>
       <c r="E49" s="3">
-        <v>1766000</v>
+        <v>1773600</v>
       </c>
       <c r="F49" s="3">
-        <v>1764000</v>
+        <v>1771600</v>
       </c>
       <c r="G49" s="3">
-        <v>1768200</v>
+        <v>1775900</v>
       </c>
       <c r="H49" s="3">
-        <v>1752700</v>
+        <v>1760300</v>
       </c>
       <c r="I49" s="3">
-        <v>1749400</v>
+        <v>1757000</v>
       </c>
       <c r="J49" s="3">
-        <v>1747900</v>
+        <v>1755500</v>
       </c>
       <c r="K49" s="3">
         <v>1642700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>707700</v>
+        <v>710700</v>
       </c>
       <c r="E52" s="3">
-        <v>753600</v>
+        <v>756900</v>
       </c>
       <c r="F52" s="3">
-        <v>705100</v>
+        <v>708100</v>
       </c>
       <c r="G52" s="3">
-        <v>742500</v>
+        <v>745700</v>
       </c>
       <c r="H52" s="3">
-        <v>733800</v>
+        <v>737000</v>
       </c>
       <c r="I52" s="3">
-        <v>663700</v>
+        <v>666600</v>
       </c>
       <c r="J52" s="3">
-        <v>757700</v>
+        <v>761000</v>
       </c>
       <c r="K52" s="3">
         <v>544500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43382300</v>
+        <v>43570600</v>
       </c>
       <c r="E54" s="3">
-        <v>36359300</v>
+        <v>36517000</v>
       </c>
       <c r="F54" s="3">
-        <v>34946100</v>
+        <v>35097700</v>
       </c>
       <c r="G54" s="3">
-        <v>32298700</v>
+        <v>32438900</v>
       </c>
       <c r="H54" s="3">
-        <v>30118500</v>
+        <v>30249200</v>
       </c>
       <c r="I54" s="3">
-        <v>25225900</v>
+        <v>25335400</v>
       </c>
       <c r="J54" s="3">
-        <v>21307200</v>
+        <v>21399600</v>
       </c>
       <c r="K54" s="3">
         <v>17765500</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>589800</v>
+        <v>592300</v>
       </c>
       <c r="E57" s="3">
-        <v>614600</v>
+        <v>617200</v>
       </c>
       <c r="F57" s="3">
-        <v>484400</v>
+        <v>486500</v>
       </c>
       <c r="G57" s="3">
-        <v>513600</v>
+        <v>515800</v>
       </c>
       <c r="H57" s="3">
-        <v>564700</v>
+        <v>567100</v>
       </c>
       <c r="I57" s="3">
-        <v>316900</v>
+        <v>318200</v>
       </c>
       <c r="J57" s="3">
-        <v>526800</v>
+        <v>529100</v>
       </c>
       <c r="K57" s="3">
         <v>469200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6210000</v>
+        <v>6236900</v>
       </c>
       <c r="E58" s="3">
-        <v>5875300</v>
+        <v>5900800</v>
       </c>
       <c r="F58" s="3">
-        <v>7352100</v>
+        <v>7384000</v>
       </c>
       <c r="G58" s="3">
-        <v>5368200</v>
+        <v>5391500</v>
       </c>
       <c r="H58" s="3">
-        <v>6742400</v>
+        <v>6771700</v>
       </c>
       <c r="I58" s="3">
-        <v>5061300</v>
+        <v>5083300</v>
       </c>
       <c r="J58" s="3">
-        <v>3995500</v>
+        <v>4012900</v>
       </c>
       <c r="K58" s="3">
         <v>3727500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5120800</v>
+        <v>5143000</v>
       </c>
       <c r="E59" s="3">
-        <v>4624600</v>
+        <v>4644700</v>
       </c>
       <c r="F59" s="3">
-        <v>4383000</v>
+        <v>4402100</v>
       </c>
       <c r="G59" s="3">
-        <v>4474900</v>
+        <v>4494300</v>
       </c>
       <c r="H59" s="3">
-        <v>4008700</v>
+        <v>4026100</v>
       </c>
       <c r="I59" s="3">
-        <v>3920900</v>
+        <v>3937900</v>
       </c>
       <c r="J59" s="3">
-        <v>3552500</v>
+        <v>3567900</v>
       </c>
       <c r="K59" s="3">
         <v>2779700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11920600</v>
+        <v>11972300</v>
       </c>
       <c r="E60" s="3">
-        <v>11114500</v>
+        <v>11162700</v>
       </c>
       <c r="F60" s="3">
-        <v>12219500</v>
+        <v>12272500</v>
       </c>
       <c r="G60" s="3">
-        <v>10356600</v>
+        <v>10401600</v>
       </c>
       <c r="H60" s="3">
-        <v>11315800</v>
+        <v>11364800</v>
       </c>
       <c r="I60" s="3">
-        <v>9299100</v>
+        <v>9339400</v>
       </c>
       <c r="J60" s="3">
-        <v>8074800</v>
+        <v>8109800</v>
       </c>
       <c r="K60" s="3">
         <v>6976400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18450500</v>
+        <v>18530500</v>
       </c>
       <c r="E61" s="3">
-        <v>14288600</v>
+        <v>14350600</v>
       </c>
       <c r="F61" s="3">
-        <v>12525300</v>
+        <v>12579600</v>
       </c>
       <c r="G61" s="3">
-        <v>12547500</v>
+        <v>12601900</v>
       </c>
       <c r="H61" s="3">
-        <v>11376800</v>
+        <v>11426100</v>
       </c>
       <c r="I61" s="3">
-        <v>9828800</v>
+        <v>9871400</v>
       </c>
       <c r="J61" s="3">
-        <v>7221100</v>
+        <v>7252500</v>
       </c>
       <c r="K61" s="3">
         <v>6076200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1960400</v>
+        <v>1968900</v>
       </c>
       <c r="E62" s="3">
-        <v>1585400</v>
+        <v>1592300</v>
       </c>
       <c r="F62" s="3">
-        <v>1260000</v>
+        <v>1265500</v>
       </c>
       <c r="G62" s="3">
-        <v>1428700</v>
+        <v>1434900</v>
       </c>
       <c r="H62" s="3">
-        <v>1351700</v>
+        <v>1357600</v>
       </c>
       <c r="I62" s="3">
-        <v>1265000</v>
+        <v>1270500</v>
       </c>
       <c r="J62" s="3">
-        <v>1663300</v>
+        <v>1670500</v>
       </c>
       <c r="K62" s="3">
         <v>1189900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32884800</v>
+        <v>33027500</v>
       </c>
       <c r="E66" s="3">
-        <v>27535100</v>
+        <v>27654600</v>
       </c>
       <c r="F66" s="3">
-        <v>26524700</v>
+        <v>26639800</v>
       </c>
       <c r="G66" s="3">
-        <v>24776400</v>
+        <v>24883900</v>
       </c>
       <c r="H66" s="3">
-        <v>24427600</v>
+        <v>24533600</v>
       </c>
       <c r="I66" s="3">
-        <v>20666300</v>
+        <v>20755900</v>
       </c>
       <c r="J66" s="3">
-        <v>17214800</v>
+        <v>17289500</v>
       </c>
       <c r="K66" s="3">
         <v>14476100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8005900</v>
+        <v>8040700</v>
       </c>
       <c r="E72" s="3">
-        <v>6623500</v>
+        <v>6652200</v>
       </c>
       <c r="F72" s="3">
-        <v>6220600</v>
+        <v>6247600</v>
       </c>
       <c r="G72" s="3">
-        <v>5321600</v>
+        <v>5344700</v>
       </c>
       <c r="H72" s="3">
-        <v>3692100</v>
+        <v>3708100</v>
       </c>
       <c r="I72" s="3">
-        <v>-430300</v>
+        <v>-432200</v>
       </c>
       <c r="J72" s="3">
-        <v>-899200</v>
+        <v>-903100</v>
       </c>
       <c r="K72" s="3">
         <v>-913300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10497500</v>
+        <v>10543000</v>
       </c>
       <c r="E76" s="3">
-        <v>8824200</v>
+        <v>8862500</v>
       </c>
       <c r="F76" s="3">
-        <v>8421400</v>
+        <v>8457900</v>
       </c>
       <c r="G76" s="3">
-        <v>7522300</v>
+        <v>7555000</v>
       </c>
       <c r="H76" s="3">
-        <v>5691000</v>
+        <v>5715700</v>
       </c>
       <c r="I76" s="3">
-        <v>4559600</v>
+        <v>4579400</v>
       </c>
       <c r="J76" s="3">
-        <v>4092400</v>
+        <v>4110100</v>
       </c>
       <c r="K76" s="3">
         <v>3289400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>485600</v>
+        <v>487700</v>
       </c>
       <c r="E81" s="3">
-        <v>410400</v>
+        <v>412200</v>
       </c>
       <c r="F81" s="3">
-        <v>964700</v>
+        <v>968900</v>
       </c>
       <c r="G81" s="3">
-        <v>684200</v>
+        <v>687200</v>
       </c>
       <c r="H81" s="3">
-        <v>690200</v>
+        <v>693200</v>
       </c>
       <c r="I81" s="3">
-        <v>518700</v>
+        <v>521000</v>
       </c>
       <c r="J81" s="3">
-        <v>360900</v>
+        <v>362500</v>
       </c>
       <c r="K81" s="3">
         <v>423800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3277300</v>
+        <v>3291500</v>
       </c>
       <c r="E83" s="3">
-        <v>2322900</v>
+        <v>2333000</v>
       </c>
       <c r="F83" s="3">
-        <v>2118100</v>
+        <v>2127300</v>
       </c>
       <c r="G83" s="3">
-        <v>1899200</v>
+        <v>1907500</v>
       </c>
       <c r="H83" s="3">
-        <v>1642700</v>
+        <v>1649900</v>
       </c>
       <c r="I83" s="3">
-        <v>1388100</v>
+        <v>1394100</v>
       </c>
       <c r="J83" s="3">
-        <v>1243500</v>
+        <v>1248900</v>
       </c>
       <c r="K83" s="3">
         <v>1077400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4407200</v>
+        <v>4426300</v>
       </c>
       <c r="E89" s="3">
-        <v>3398100</v>
+        <v>3412800</v>
       </c>
       <c r="F89" s="3">
-        <v>2977300</v>
+        <v>2990200</v>
       </c>
       <c r="G89" s="3">
-        <v>3786700</v>
+        <v>3803200</v>
       </c>
       <c r="H89" s="3">
-        <v>3700300</v>
+        <v>3716400</v>
       </c>
       <c r="I89" s="3">
-        <v>1870500</v>
+        <v>1878600</v>
       </c>
       <c r="J89" s="3">
-        <v>1643900</v>
+        <v>1651000</v>
       </c>
       <c r="K89" s="3">
         <v>1810300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1154400</v>
+        <v>-1159400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1620500</v>
+        <v>-1627600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1185900</v>
+        <v>-1191100</v>
       </c>
       <c r="G91" s="3">
-        <v>-3275600</v>
+        <v>-3289800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1309600</v>
+        <v>-1315300</v>
       </c>
       <c r="I91" s="3">
-        <v>-886600</v>
+        <v>-890400</v>
       </c>
       <c r="J91" s="3">
-        <v>-277200</v>
+        <v>-278400</v>
       </c>
       <c r="K91" s="3">
         <v>-882100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-745200</v>
+        <v>-748500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1944100</v>
+        <v>-1952500</v>
       </c>
       <c r="F94" s="3">
-        <v>-3242000</v>
+        <v>-3256000</v>
       </c>
       <c r="G94" s="3">
-        <v>-5655800</v>
+        <v>-5680400</v>
       </c>
       <c r="H94" s="3">
-        <v>-4228900</v>
+        <v>-4247300</v>
       </c>
       <c r="I94" s="3">
-        <v>-3655900</v>
+        <v>-3671800</v>
       </c>
       <c r="J94" s="3">
-        <v>-2590200</v>
+        <v>-2601500</v>
       </c>
       <c r="K94" s="3">
         <v>-1691500</v>
@@ -3301,13 +3301,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-112300</v>
+        <v>-112800</v>
       </c>
       <c r="F96" s="3">
-        <v>-107900</v>
+        <v>-108300</v>
       </c>
       <c r="G96" s="3">
-        <v>-112300</v>
+        <v>-112800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3555800</v>
+        <v>-3571200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2062400</v>
+        <v>-2071400</v>
       </c>
       <c r="F100" s="3">
-        <v>716200</v>
+        <v>719300</v>
       </c>
       <c r="G100" s="3">
-        <v>704900</v>
+        <v>708000</v>
       </c>
       <c r="H100" s="3">
-        <v>1685900</v>
+        <v>1693300</v>
       </c>
       <c r="I100" s="3">
-        <v>1690400</v>
+        <v>1697700</v>
       </c>
       <c r="J100" s="3">
-        <v>871600</v>
+        <v>875400</v>
       </c>
       <c r="K100" s="3">
         <v>-312000</v>
@@ -3469,19 +3469,19 @@
         <v>4600</v>
       </c>
       <c r="F101" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="G101" s="3">
-        <v>40800</v>
+        <v>40900</v>
       </c>
       <c r="H101" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="I101" s="3">
         <v>-2300</v>
       </c>
       <c r="J101" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>107100</v>
+        <v>107600</v>
       </c>
       <c r="E102" s="3">
-        <v>-603900</v>
+        <v>-606500</v>
       </c>
       <c r="F102" s="3">
-        <v>444300</v>
+        <v>446300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1123400</v>
+        <v>-1128300</v>
       </c>
       <c r="H102" s="3">
-        <v>1175100</v>
+        <v>1180200</v>
       </c>
       <c r="I102" s="3">
-        <v>-97400</v>
+        <v>-97800</v>
       </c>
       <c r="J102" s="3">
-        <v>-78600</v>
+        <v>-78900</v>
       </c>
       <c r="K102" s="3">
         <v>-193600</v>

--- a/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18484200</v>
+        <v>9162000</v>
       </c>
       <c r="E8" s="3">
-        <v>17612200</v>
+        <v>18875000</v>
       </c>
       <c r="F8" s="3">
-        <v>15656100</v>
+        <v>17984500</v>
       </c>
       <c r="G8" s="3">
-        <v>15110600</v>
+        <v>15987100</v>
       </c>
       <c r="H8" s="3">
-        <v>14356600</v>
+        <v>15430000</v>
       </c>
       <c r="I8" s="3">
-        <v>13778500</v>
+        <v>14660100</v>
       </c>
       <c r="J8" s="3">
+        <v>14069800</v>
+      </c>
+      <c r="K8" s="3">
         <v>13482100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12232100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12229400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12882900</v>
+        <v>7786500</v>
       </c>
       <c r="E9" s="3">
-        <v>12328400</v>
+        <v>13155200</v>
       </c>
       <c r="F9" s="3">
-        <v>10754000</v>
+        <v>12589100</v>
       </c>
       <c r="G9" s="3">
-        <v>9614400</v>
+        <v>10981400</v>
       </c>
       <c r="H9" s="3">
-        <v>9147500</v>
+        <v>9817700</v>
       </c>
       <c r="I9" s="3">
-        <v>9588900</v>
+        <v>9340900</v>
       </c>
       <c r="J9" s="3">
+        <v>9791700</v>
+      </c>
+      <c r="K9" s="3">
         <v>9990000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8042700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7901300</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5601400</v>
+        <v>1375500</v>
       </c>
       <c r="E10" s="3">
-        <v>5283700</v>
+        <v>5719800</v>
       </c>
       <c r="F10" s="3">
-        <v>4902100</v>
+        <v>5395400</v>
       </c>
       <c r="G10" s="3">
-        <v>5496100</v>
+        <v>5005700</v>
       </c>
       <c r="H10" s="3">
-        <v>5209000</v>
+        <v>5612300</v>
       </c>
       <c r="I10" s="3">
+        <v>5319200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4278100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3492100</v>
+      </c>
+      <c r="L10" s="3">
         <v>4189500</v>
       </c>
-      <c r="J10" s="3">
-        <v>3492100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>4189500</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4328100</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-6700</v>
+        <v>9800</v>
       </c>
       <c r="E14" s="3">
-        <v>6000</v>
+        <v>-6900</v>
       </c>
       <c r="F14" s="3">
-        <v>-211400</v>
+        <v>6100</v>
       </c>
       <c r="G14" s="3">
-        <v>2600</v>
+        <v>-215900</v>
       </c>
       <c r="H14" s="3">
-        <v>27700</v>
+        <v>2700</v>
       </c>
       <c r="I14" s="3">
-        <v>1800</v>
+        <v>28200</v>
       </c>
       <c r="J14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K14" s="3">
         <v>28400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>94700</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3373400</v>
+        <v>3472000</v>
       </c>
       <c r="E15" s="3">
-        <v>2339500</v>
+        <v>3444700</v>
       </c>
       <c r="F15" s="3">
-        <v>2134200</v>
+        <v>2389000</v>
       </c>
       <c r="G15" s="3">
-        <v>1856900</v>
+        <v>2179300</v>
       </c>
       <c r="H15" s="3">
-        <v>1599800</v>
+        <v>1896100</v>
       </c>
       <c r="I15" s="3">
-        <v>1403000</v>
+        <v>1633600</v>
       </c>
       <c r="J15" s="3">
+        <v>1432600</v>
+      </c>
+      <c r="K15" s="3">
         <v>1256800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1084300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1033800</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16944100</v>
+        <v>11321200</v>
       </c>
       <c r="E17" s="3">
-        <v>16189900</v>
+        <v>17302300</v>
       </c>
       <c r="F17" s="3">
-        <v>14215300</v>
+        <v>16532200</v>
       </c>
       <c r="G17" s="3">
-        <v>13202900</v>
+        <v>14515800</v>
       </c>
       <c r="H17" s="3">
-        <v>12427700</v>
+        <v>13482100</v>
       </c>
       <c r="I17" s="3">
-        <v>12852900</v>
+        <v>12690500</v>
       </c>
       <c r="J17" s="3">
+        <v>13124700</v>
+      </c>
+      <c r="K17" s="3">
         <v>13241200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11625500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11610200</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1540200</v>
+        <v>-2159200</v>
       </c>
       <c r="E18" s="3">
-        <v>1422200</v>
+        <v>1572700</v>
       </c>
       <c r="F18" s="3">
-        <v>1440900</v>
+        <v>1452300</v>
       </c>
       <c r="G18" s="3">
-        <v>1907600</v>
+        <v>1471300</v>
       </c>
       <c r="H18" s="3">
-        <v>1928800</v>
+        <v>1947900</v>
       </c>
       <c r="I18" s="3">
-        <v>925500</v>
+        <v>1969600</v>
       </c>
       <c r="J18" s="3">
+        <v>945100</v>
+      </c>
+      <c r="K18" s="3">
         <v>240800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>606600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>619200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-93500</v>
+        <v>400200</v>
       </c>
       <c r="E20" s="3">
-        <v>-286800</v>
+        <v>-95500</v>
       </c>
       <c r="F20" s="3">
-        <v>361000</v>
+        <v>-292800</v>
       </c>
       <c r="G20" s="3">
-        <v>-502600</v>
+        <v>368700</v>
       </c>
       <c r="H20" s="3">
-        <v>-728600</v>
+        <v>-513300</v>
       </c>
       <c r="I20" s="3">
-        <v>1800</v>
+        <v>-744000</v>
       </c>
       <c r="J20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K20" s="3">
         <v>334500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>69100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>316200</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4749400</v>
+        <v>1619900</v>
       </c>
       <c r="E21" s="3">
-        <v>3476400</v>
+        <v>4834200</v>
       </c>
       <c r="F21" s="3">
-        <v>3936400</v>
+        <v>3538800</v>
       </c>
       <c r="G21" s="3">
-        <v>3318900</v>
+        <v>4009600</v>
       </c>
       <c r="H21" s="3">
-        <v>2855700</v>
+        <v>3380100</v>
       </c>
       <c r="I21" s="3">
-        <v>2326200</v>
+        <v>2908300</v>
       </c>
       <c r="J21" s="3">
+        <v>2368800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1828400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1752800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1963100</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>789900</v>
+        <v>813300</v>
       </c>
       <c r="E22" s="3">
-        <v>546300</v>
+        <v>806600</v>
       </c>
       <c r="F22" s="3">
-        <v>486500</v>
+        <v>557900</v>
       </c>
       <c r="G22" s="3">
-        <v>412400</v>
+        <v>496700</v>
       </c>
       <c r="H22" s="3">
-        <v>334400</v>
+        <v>421100</v>
       </c>
       <c r="I22" s="3">
-        <v>299000</v>
+        <v>341500</v>
       </c>
       <c r="J22" s="3">
+        <v>305300</v>
+      </c>
+      <c r="K22" s="3">
         <v>236600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>243600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>217100</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>656800</v>
+        <v>-2572300</v>
       </c>
       <c r="E23" s="3">
-        <v>589100</v>
+        <v>670700</v>
       </c>
       <c r="F23" s="3">
-        <v>1315400</v>
+        <v>601600</v>
       </c>
       <c r="G23" s="3">
-        <v>992600</v>
+        <v>1343200</v>
       </c>
       <c r="H23" s="3">
-        <v>865800</v>
+        <v>1013600</v>
       </c>
       <c r="I23" s="3">
-        <v>628400</v>
+        <v>884100</v>
       </c>
       <c r="J23" s="3">
+        <v>641700</v>
+      </c>
+      <c r="K23" s="3">
         <v>338700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>432200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>718400</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>125100</v>
+        <v>-612700</v>
       </c>
       <c r="E24" s="3">
-        <v>141500</v>
+        <v>127800</v>
       </c>
       <c r="F24" s="3">
-        <v>275000</v>
+        <v>144500</v>
       </c>
       <c r="G24" s="3">
-        <v>235600</v>
+        <v>280800</v>
       </c>
       <c r="H24" s="3">
-        <v>95300</v>
+        <v>240600</v>
       </c>
       <c r="I24" s="3">
-        <v>87500</v>
+        <v>97400</v>
       </c>
       <c r="J24" s="3">
+        <v>89400</v>
+      </c>
+      <c r="K24" s="3">
         <v>19000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39200</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>531700</v>
+        <v>-1959600</v>
       </c>
       <c r="E26" s="3">
-        <v>447600</v>
+        <v>542900</v>
       </c>
       <c r="F26" s="3">
-        <v>1040400</v>
+        <v>457100</v>
       </c>
       <c r="G26" s="3">
-        <v>757000</v>
+        <v>1062400</v>
       </c>
       <c r="H26" s="3">
-        <v>770500</v>
+        <v>773000</v>
       </c>
       <c r="I26" s="3">
-        <v>540800</v>
+        <v>786800</v>
       </c>
       <c r="J26" s="3">
+        <v>552300</v>
+      </c>
+      <c r="K26" s="3">
         <v>319700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>402800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>679200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>487700</v>
+        <v>-1846500</v>
       </c>
       <c r="E27" s="3">
-        <v>412200</v>
+        <v>498000</v>
       </c>
       <c r="F27" s="3">
-        <v>968900</v>
+        <v>420900</v>
       </c>
       <c r="G27" s="3">
-        <v>687200</v>
+        <v>989400</v>
       </c>
       <c r="H27" s="3">
-        <v>693200</v>
+        <v>701700</v>
       </c>
       <c r="I27" s="3">
-        <v>521000</v>
+        <v>707800</v>
       </c>
       <c r="J27" s="3">
+        <v>532000</v>
+      </c>
+      <c r="K27" s="3">
         <v>362500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>423800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>679100</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>93500</v>
+        <v>-400200</v>
       </c>
       <c r="E32" s="3">
-        <v>286800</v>
+        <v>95500</v>
       </c>
       <c r="F32" s="3">
-        <v>-361000</v>
+        <v>292800</v>
       </c>
       <c r="G32" s="3">
-        <v>502600</v>
+        <v>-368700</v>
       </c>
       <c r="H32" s="3">
-        <v>728600</v>
+        <v>513300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1800</v>
+        <v>744000</v>
       </c>
       <c r="J32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-334500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-69100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-316200</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>487700</v>
+        <v>-1846500</v>
       </c>
       <c r="E33" s="3">
-        <v>412200</v>
+        <v>498000</v>
       </c>
       <c r="F33" s="3">
-        <v>968900</v>
+        <v>420900</v>
       </c>
       <c r="G33" s="3">
-        <v>687200</v>
+        <v>989400</v>
       </c>
       <c r="H33" s="3">
-        <v>693200</v>
+        <v>701700</v>
       </c>
       <c r="I33" s="3">
-        <v>521000</v>
+        <v>707800</v>
       </c>
       <c r="J33" s="3">
+        <v>532000</v>
+      </c>
+      <c r="K33" s="3">
         <v>362500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>423800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>679100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>487700</v>
+        <v>-1846500</v>
       </c>
       <c r="E35" s="3">
-        <v>412200</v>
+        <v>498000</v>
       </c>
       <c r="F35" s="3">
-        <v>968900</v>
+        <v>420900</v>
       </c>
       <c r="G35" s="3">
-        <v>687200</v>
+        <v>989400</v>
       </c>
       <c r="H35" s="3">
-        <v>693200</v>
+        <v>701700</v>
       </c>
       <c r="I35" s="3">
-        <v>521000</v>
+        <v>707800</v>
       </c>
       <c r="J35" s="3">
+        <v>532000</v>
+      </c>
+      <c r="K35" s="3">
         <v>362500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>423800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>679100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,52 +1731,56 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>206300</v>
+        <v>1193600</v>
       </c>
       <c r="E41" s="3">
-        <v>98700</v>
+        <v>210600</v>
       </c>
       <c r="F41" s="3">
-        <v>703600</v>
+        <v>100800</v>
       </c>
       <c r="G41" s="3">
-        <v>259000</v>
+        <v>718400</v>
       </c>
       <c r="H41" s="3">
-        <v>1387200</v>
+        <v>264400</v>
       </c>
       <c r="I41" s="3">
-        <v>207000</v>
+        <v>1416600</v>
       </c>
       <c r="J41" s="3">
+        <v>211400</v>
+      </c>
+      <c r="K41" s="3">
         <v>304800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>360400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>573000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18500</v>
+        <v>14800</v>
       </c>
       <c r="E42" s="3">
-        <v>14700</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+        <v>18900</v>
+      </c>
+      <c r="F42" s="3">
+        <v>15000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1708,243 +1797,267 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2283400</v>
+        <v>1877300</v>
       </c>
       <c r="E43" s="3">
-        <v>1880000</v>
+        <v>2331700</v>
       </c>
       <c r="F43" s="3">
-        <v>1595300</v>
+        <v>1919700</v>
       </c>
       <c r="G43" s="3">
-        <v>1345800</v>
+        <v>1629100</v>
       </c>
       <c r="H43" s="3">
-        <v>1549600</v>
+        <v>1374300</v>
       </c>
       <c r="I43" s="3">
-        <v>590000</v>
+        <v>1582400</v>
       </c>
       <c r="J43" s="3">
+        <v>602500</v>
+      </c>
+      <c r="K43" s="3">
         <v>538500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>425000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>371600</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>367700</v>
+        <v>320400</v>
       </c>
       <c r="E44" s="3">
-        <v>297900</v>
+        <v>375500</v>
       </c>
       <c r="F44" s="3">
-        <v>333800</v>
+        <v>304200</v>
       </c>
       <c r="G44" s="3">
-        <v>343400</v>
+        <v>340900</v>
       </c>
       <c r="H44" s="3">
-        <v>314100</v>
+        <v>350700</v>
       </c>
       <c r="I44" s="3">
-        <v>345100</v>
+        <v>320800</v>
       </c>
       <c r="J44" s="3">
+        <v>352400</v>
+      </c>
+      <c r="K44" s="3">
         <v>352200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>299600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>230900</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>140400</v>
+        <v>103700</v>
       </c>
       <c r="E45" s="3">
-        <v>142800</v>
+        <v>143400</v>
       </c>
       <c r="F45" s="3">
-        <v>162100</v>
+        <v>145900</v>
       </c>
       <c r="G45" s="3">
-        <v>479100</v>
+        <v>165500</v>
       </c>
       <c r="H45" s="3">
-        <v>274900</v>
+        <v>489200</v>
       </c>
       <c r="I45" s="3">
-        <v>1645000</v>
+        <v>280700</v>
       </c>
       <c r="J45" s="3">
+        <v>1679800</v>
+      </c>
+      <c r="K45" s="3">
         <v>731000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>733600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>858900</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3016300</v>
+        <v>3509900</v>
       </c>
       <c r="E46" s="3">
-        <v>2434100</v>
+        <v>3080100</v>
       </c>
       <c r="F46" s="3">
-        <v>2794800</v>
+        <v>2485600</v>
       </c>
       <c r="G46" s="3">
-        <v>2427400</v>
+        <v>2853900</v>
       </c>
       <c r="H46" s="3">
-        <v>3525900</v>
+        <v>2478700</v>
       </c>
       <c r="I46" s="3">
-        <v>2787200</v>
+        <v>3600400</v>
       </c>
       <c r="J46" s="3">
+        <v>2846100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1926500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1818600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2034400</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>598900</v>
+        <v>724800</v>
       </c>
       <c r="E47" s="3">
-        <v>546200</v>
+        <v>611600</v>
       </c>
       <c r="F47" s="3">
-        <v>470000</v>
+        <v>557700</v>
       </c>
       <c r="G47" s="3">
-        <v>426000</v>
+        <v>479900</v>
       </c>
       <c r="H47" s="3">
-        <v>532700</v>
+        <v>435000</v>
       </c>
       <c r="I47" s="3">
-        <v>309200</v>
+        <v>544000</v>
       </c>
       <c r="J47" s="3">
+        <v>315800</v>
+      </c>
+      <c r="K47" s="3">
         <v>291500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>213300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>222800</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37457400</v>
+        <v>36943500</v>
       </c>
       <c r="E48" s="3">
-        <v>31006200</v>
+        <v>38249300</v>
       </c>
       <c r="F48" s="3">
-        <v>29353200</v>
+        <v>31661800</v>
       </c>
       <c r="G48" s="3">
-        <v>27063900</v>
+        <v>29973700</v>
       </c>
       <c r="H48" s="3">
-        <v>23693300</v>
+        <v>27636100</v>
       </c>
       <c r="I48" s="3">
-        <v>19815400</v>
+        <v>24194200</v>
       </c>
       <c r="J48" s="3">
+        <v>20234300</v>
+      </c>
+      <c r="K48" s="3">
         <v>16665100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13546500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12574200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1787200</v>
+        <v>1828100</v>
       </c>
       <c r="E49" s="3">
-        <v>1773600</v>
+        <v>1825000</v>
       </c>
       <c r="F49" s="3">
-        <v>1771600</v>
+        <v>1811100</v>
       </c>
       <c r="G49" s="3">
-        <v>1775900</v>
+        <v>1809100</v>
       </c>
       <c r="H49" s="3">
-        <v>1760300</v>
+        <v>1813500</v>
       </c>
       <c r="I49" s="3">
-        <v>1757000</v>
+        <v>1797500</v>
       </c>
       <c r="J49" s="3">
+        <v>1794100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1755500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1642700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1685000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>710700</v>
+        <v>1401900</v>
       </c>
       <c r="E52" s="3">
-        <v>756900</v>
+        <v>725800</v>
       </c>
       <c r="F52" s="3">
-        <v>708100</v>
+        <v>772900</v>
       </c>
       <c r="G52" s="3">
-        <v>745700</v>
+        <v>723100</v>
       </c>
       <c r="H52" s="3">
-        <v>737000</v>
+        <v>761500</v>
       </c>
       <c r="I52" s="3">
-        <v>666600</v>
+        <v>752600</v>
       </c>
       <c r="J52" s="3">
+        <v>680700</v>
+      </c>
+      <c r="K52" s="3">
         <v>761000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>544500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>512000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43570600</v>
+        <v>44408200</v>
       </c>
       <c r="E54" s="3">
-        <v>36517000</v>
+        <v>44491700</v>
       </c>
       <c r="F54" s="3">
-        <v>35097700</v>
+        <v>37289000</v>
       </c>
       <c r="G54" s="3">
-        <v>32438900</v>
+        <v>35839700</v>
       </c>
       <c r="H54" s="3">
-        <v>30249200</v>
+        <v>33124700</v>
       </c>
       <c r="I54" s="3">
-        <v>25335400</v>
+        <v>30888700</v>
       </c>
       <c r="J54" s="3">
+        <v>25871000</v>
+      </c>
+      <c r="K54" s="3">
         <v>21399600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17765500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17028400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>592300</v>
+        <v>502400</v>
       </c>
       <c r="E57" s="3">
-        <v>617200</v>
+        <v>604900</v>
       </c>
       <c r="F57" s="3">
-        <v>486500</v>
+        <v>630300</v>
       </c>
       <c r="G57" s="3">
-        <v>515800</v>
+        <v>496700</v>
       </c>
       <c r="H57" s="3">
-        <v>567100</v>
+        <v>526700</v>
       </c>
       <c r="I57" s="3">
-        <v>318200</v>
+        <v>579100</v>
       </c>
       <c r="J57" s="3">
+        <v>325000</v>
+      </c>
+      <c r="K57" s="3">
         <v>529100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>469200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>413900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6236900</v>
+        <v>11111500</v>
       </c>
       <c r="E58" s="3">
-        <v>5900800</v>
+        <v>6368800</v>
       </c>
       <c r="F58" s="3">
-        <v>7384000</v>
+        <v>6025600</v>
       </c>
       <c r="G58" s="3">
-        <v>5391500</v>
+        <v>7540100</v>
       </c>
       <c r="H58" s="3">
-        <v>6771700</v>
+        <v>5505400</v>
       </c>
       <c r="I58" s="3">
-        <v>5083300</v>
+        <v>6914800</v>
       </c>
       <c r="J58" s="3">
+        <v>5190800</v>
+      </c>
+      <c r="K58" s="3">
         <v>4012900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3727500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3117500</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5143000</v>
+        <v>3957200</v>
       </c>
       <c r="E59" s="3">
-        <v>4644700</v>
+        <v>5251800</v>
       </c>
       <c r="F59" s="3">
-        <v>4402100</v>
+        <v>4742900</v>
       </c>
       <c r="G59" s="3">
-        <v>4494300</v>
+        <v>4495100</v>
       </c>
       <c r="H59" s="3">
-        <v>4026100</v>
+        <v>4589300</v>
       </c>
       <c r="I59" s="3">
-        <v>3937900</v>
+        <v>4111200</v>
       </c>
       <c r="J59" s="3">
+        <v>4021200</v>
+      </c>
+      <c r="K59" s="3">
         <v>3567900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2779700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2907600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11972300</v>
+        <v>15571000</v>
       </c>
       <c r="E60" s="3">
-        <v>11162700</v>
+        <v>12225400</v>
       </c>
       <c r="F60" s="3">
-        <v>12272500</v>
+        <v>11398700</v>
       </c>
       <c r="G60" s="3">
-        <v>10401600</v>
+        <v>12532000</v>
       </c>
       <c r="H60" s="3">
-        <v>11364800</v>
+        <v>10621500</v>
       </c>
       <c r="I60" s="3">
-        <v>9339400</v>
+        <v>11605100</v>
       </c>
       <c r="J60" s="3">
+        <v>9536900</v>
+      </c>
+      <c r="K60" s="3">
         <v>8109800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6976400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6439000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18530500</v>
+        <v>17617100</v>
       </c>
       <c r="E61" s="3">
-        <v>14350600</v>
+        <v>18922300</v>
       </c>
       <c r="F61" s="3">
-        <v>12579600</v>
+        <v>14654000</v>
       </c>
       <c r="G61" s="3">
-        <v>12601900</v>
+        <v>12845600</v>
       </c>
       <c r="H61" s="3">
-        <v>11426100</v>
+        <v>12868300</v>
       </c>
       <c r="I61" s="3">
-        <v>9871400</v>
+        <v>11667700</v>
       </c>
       <c r="J61" s="3">
+        <v>10080100</v>
+      </c>
+      <c r="K61" s="3">
         <v>7252500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6076200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6144900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1968900</v>
+        <v>1991500</v>
       </c>
       <c r="E62" s="3">
-        <v>1592300</v>
+        <v>2010500</v>
       </c>
       <c r="F62" s="3">
-        <v>1265500</v>
+        <v>1625900</v>
       </c>
       <c r="G62" s="3">
-        <v>1434900</v>
+        <v>1292200</v>
       </c>
       <c r="H62" s="3">
-        <v>1357600</v>
+        <v>1465200</v>
       </c>
       <c r="I62" s="3">
-        <v>1270500</v>
+        <v>1386300</v>
       </c>
       <c r="J62" s="3">
+        <v>1297400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1670500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1189900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1208400</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33027500</v>
+        <v>35632800</v>
       </c>
       <c r="E66" s="3">
-        <v>27654600</v>
+        <v>33725800</v>
       </c>
       <c r="F66" s="3">
-        <v>26639800</v>
+        <v>28239200</v>
       </c>
       <c r="G66" s="3">
-        <v>24883900</v>
+        <v>27203000</v>
       </c>
       <c r="H66" s="3">
-        <v>24533600</v>
+        <v>25410000</v>
       </c>
       <c r="I66" s="3">
-        <v>20755900</v>
+        <v>25052200</v>
       </c>
       <c r="J66" s="3">
+        <v>21194700</v>
+      </c>
+      <c r="K66" s="3">
         <v>17289500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14476100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14041500</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8040700</v>
+        <v>6220100</v>
       </c>
       <c r="E72" s="3">
-        <v>6652200</v>
+        <v>8210700</v>
       </c>
       <c r="F72" s="3">
-        <v>6247600</v>
+        <v>6792800</v>
       </c>
       <c r="G72" s="3">
-        <v>5344700</v>
+        <v>6379700</v>
       </c>
       <c r="H72" s="3">
-        <v>3708100</v>
+        <v>5457700</v>
       </c>
       <c r="I72" s="3">
-        <v>-432200</v>
+        <v>3786500</v>
       </c>
       <c r="J72" s="3">
+        <v>-441400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-903100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-913300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1382000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10543000</v>
+        <v>8775400</v>
       </c>
       <c r="E76" s="3">
-        <v>8862500</v>
+        <v>10765900</v>
       </c>
       <c r="F76" s="3">
-        <v>8457900</v>
+        <v>9049800</v>
       </c>
       <c r="G76" s="3">
-        <v>7555000</v>
+        <v>8636700</v>
       </c>
       <c r="H76" s="3">
-        <v>5715700</v>
+        <v>7714700</v>
       </c>
       <c r="I76" s="3">
-        <v>4579400</v>
+        <v>5836500</v>
       </c>
       <c r="J76" s="3">
+        <v>4676200</v>
+      </c>
+      <c r="K76" s="3">
         <v>4110100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3289400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2986900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>487700</v>
+        <v>-1846500</v>
       </c>
       <c r="E81" s="3">
-        <v>412200</v>
+        <v>498000</v>
       </c>
       <c r="F81" s="3">
-        <v>968900</v>
+        <v>420900</v>
       </c>
       <c r="G81" s="3">
-        <v>687200</v>
+        <v>989400</v>
       </c>
       <c r="H81" s="3">
-        <v>693200</v>
+        <v>701700</v>
       </c>
       <c r="I81" s="3">
-        <v>521000</v>
+        <v>707800</v>
       </c>
       <c r="J81" s="3">
+        <v>532000</v>
+      </c>
+      <c r="K81" s="3">
         <v>362500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>423800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>679100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3291500</v>
+        <v>3383100</v>
       </c>
       <c r="E83" s="3">
-        <v>2333000</v>
+        <v>3361100</v>
       </c>
       <c r="F83" s="3">
-        <v>2127300</v>
+        <v>2382300</v>
       </c>
       <c r="G83" s="3">
-        <v>1907500</v>
+        <v>2172300</v>
       </c>
       <c r="H83" s="3">
-        <v>1649900</v>
+        <v>1947800</v>
       </c>
       <c r="I83" s="3">
-        <v>1394100</v>
+        <v>1684800</v>
       </c>
       <c r="J83" s="3">
+        <v>1423600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1248900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1077400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1025800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4426300</v>
+        <v>188900</v>
       </c>
       <c r="E89" s="3">
-        <v>3412800</v>
+        <v>4519900</v>
       </c>
       <c r="F89" s="3">
-        <v>2990200</v>
+        <v>3485000</v>
       </c>
       <c r="G89" s="3">
-        <v>3803200</v>
+        <v>3053400</v>
       </c>
       <c r="H89" s="3">
-        <v>3716400</v>
+        <v>3883600</v>
       </c>
       <c r="I89" s="3">
-        <v>1878600</v>
+        <v>3794900</v>
       </c>
       <c r="J89" s="3">
+        <v>1918300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1651000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1810300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2021800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1159400</v>
+        <v>-1130600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1627600</v>
+        <v>-1184000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1191100</v>
+        <v>-1662000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3289800</v>
+        <v>-1216300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1315300</v>
+        <v>-3359400</v>
       </c>
       <c r="I91" s="3">
-        <v>-890400</v>
+        <v>-1343100</v>
       </c>
       <c r="J91" s="3">
+        <v>-909200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-278400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-882100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-796700</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-748500</v>
+        <v>-980200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1952500</v>
+        <v>-764300</v>
       </c>
       <c r="F94" s="3">
-        <v>-3256000</v>
+        <v>-1993800</v>
       </c>
       <c r="G94" s="3">
-        <v>-5680400</v>
+        <v>-3324900</v>
       </c>
       <c r="H94" s="3">
-        <v>-4247300</v>
+        <v>-5800500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3671800</v>
+        <v>-4337100</v>
       </c>
       <c r="J94" s="3">
+        <v>-3749400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2601500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2217100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,25 +3524,26 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-127800</v>
       </c>
       <c r="E96" s="3">
-        <v>-112800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-108300</v>
+        <v>-115100</v>
       </c>
       <c r="G96" s="3">
-        <v>-112800</v>
+        <v>-110600</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-115100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3571200</v>
+        <v>1782600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2071400</v>
+        <v>-3646700</v>
       </c>
       <c r="F100" s="3">
-        <v>719300</v>
+        <v>-2115200</v>
       </c>
       <c r="G100" s="3">
-        <v>708000</v>
+        <v>734500</v>
       </c>
       <c r="H100" s="3">
-        <v>1693300</v>
+        <v>723000</v>
       </c>
       <c r="I100" s="3">
-        <v>1697700</v>
+        <v>1729100</v>
       </c>
       <c r="J100" s="3">
+        <v>1733600</v>
+      </c>
+      <c r="K100" s="3">
         <v>875400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-312000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>316900</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
-        <v>4600</v>
-      </c>
       <c r="F101" s="3">
-        <v>-7200</v>
+        <v>4700</v>
       </c>
       <c r="G101" s="3">
-        <v>40900</v>
+        <v>-7300</v>
       </c>
       <c r="H101" s="3">
-        <v>17900</v>
+        <v>41800</v>
       </c>
       <c r="I101" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5500</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>107600</v>
+        <v>983000</v>
       </c>
       <c r="E102" s="3">
-        <v>-606500</v>
+        <v>109800</v>
       </c>
       <c r="F102" s="3">
-        <v>446300</v>
+        <v>-619400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1128300</v>
+        <v>455700</v>
       </c>
       <c r="H102" s="3">
-        <v>1180200</v>
+        <v>-1152100</v>
       </c>
       <c r="I102" s="3">
-        <v>-97800</v>
+        <v>1205200</v>
       </c>
       <c r="J102" s="3">
+        <v>-99800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-78900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-193600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>116200</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9162000</v>
+        <v>9042800</v>
       </c>
       <c r="E8" s="3">
-        <v>18875000</v>
+        <v>18629400</v>
       </c>
       <c r="F8" s="3">
-        <v>17984500</v>
+        <v>17750500</v>
       </c>
       <c r="G8" s="3">
-        <v>15987100</v>
+        <v>15779100</v>
       </c>
       <c r="H8" s="3">
-        <v>15430000</v>
+        <v>15229200</v>
       </c>
       <c r="I8" s="3">
-        <v>14660100</v>
+        <v>14469300</v>
       </c>
       <c r="J8" s="3">
-        <v>14069800</v>
+        <v>13886700</v>
       </c>
       <c r="K8" s="3">
         <v>13482100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7786500</v>
+        <v>7685100</v>
       </c>
       <c r="E9" s="3">
-        <v>13155200</v>
+        <v>12984100</v>
       </c>
       <c r="F9" s="3">
-        <v>12589100</v>
+        <v>12425300</v>
       </c>
       <c r="G9" s="3">
-        <v>10981400</v>
+        <v>10838500</v>
       </c>
       <c r="H9" s="3">
-        <v>9817700</v>
+        <v>9690000</v>
       </c>
       <c r="I9" s="3">
-        <v>9340900</v>
+        <v>9219400</v>
       </c>
       <c r="J9" s="3">
-        <v>9791700</v>
+        <v>9664200</v>
       </c>
       <c r="K9" s="3">
         <v>9990000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1375500</v>
+        <v>1357600</v>
       </c>
       <c r="E10" s="3">
-        <v>5719800</v>
+        <v>5645400</v>
       </c>
       <c r="F10" s="3">
-        <v>5395400</v>
+        <v>5325200</v>
       </c>
       <c r="G10" s="3">
-        <v>5005700</v>
+        <v>4940600</v>
       </c>
       <c r="H10" s="3">
-        <v>5612300</v>
+        <v>5539300</v>
       </c>
       <c r="I10" s="3">
-        <v>5319200</v>
+        <v>5249900</v>
       </c>
       <c r="J10" s="3">
-        <v>4278100</v>
+        <v>4222400</v>
       </c>
       <c r="K10" s="3">
         <v>3492100</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="E14" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="F14" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G14" s="3">
-        <v>-215900</v>
+        <v>-213100</v>
       </c>
       <c r="H14" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I14" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="J14" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K14" s="3">
         <v>28400</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3472000</v>
+        <v>3426800</v>
       </c>
       <c r="E15" s="3">
-        <v>3444700</v>
+        <v>3399900</v>
       </c>
       <c r="F15" s="3">
-        <v>2389000</v>
+        <v>2357900</v>
       </c>
       <c r="G15" s="3">
-        <v>2179300</v>
+        <v>2150900</v>
       </c>
       <c r="H15" s="3">
-        <v>1896100</v>
+        <v>1871500</v>
       </c>
       <c r="I15" s="3">
-        <v>1633600</v>
+        <v>1612300</v>
       </c>
       <c r="J15" s="3">
-        <v>1432600</v>
+        <v>1414000</v>
       </c>
       <c r="K15" s="3">
         <v>1256800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11321200</v>
+        <v>11173900</v>
       </c>
       <c r="E17" s="3">
-        <v>17302300</v>
+        <v>17077200</v>
       </c>
       <c r="F17" s="3">
-        <v>16532200</v>
+        <v>16317100</v>
       </c>
       <c r="G17" s="3">
-        <v>14515800</v>
+        <v>14326900</v>
       </c>
       <c r="H17" s="3">
-        <v>13482100</v>
+        <v>13306600</v>
       </c>
       <c r="I17" s="3">
-        <v>12690500</v>
+        <v>12525300</v>
       </c>
       <c r="J17" s="3">
-        <v>13124700</v>
+        <v>12953900</v>
       </c>
       <c r="K17" s="3">
         <v>13241200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2159200</v>
+        <v>-2131100</v>
       </c>
       <c r="E18" s="3">
-        <v>1572700</v>
+        <v>1552300</v>
       </c>
       <c r="F18" s="3">
-        <v>1452300</v>
+        <v>1433400</v>
       </c>
       <c r="G18" s="3">
-        <v>1471300</v>
+        <v>1452200</v>
       </c>
       <c r="H18" s="3">
-        <v>1947900</v>
+        <v>1922600</v>
       </c>
       <c r="I18" s="3">
-        <v>1969600</v>
+        <v>1944000</v>
       </c>
       <c r="J18" s="3">
-        <v>945100</v>
+        <v>932800</v>
       </c>
       <c r="K18" s="3">
         <v>240800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>400200</v>
+        <v>395000</v>
       </c>
       <c r="E20" s="3">
-        <v>-95500</v>
+        <v>-94200</v>
       </c>
       <c r="F20" s="3">
-        <v>-292800</v>
+        <v>-289000</v>
       </c>
       <c r="G20" s="3">
-        <v>368700</v>
+        <v>363900</v>
       </c>
       <c r="H20" s="3">
-        <v>-513300</v>
+        <v>-506600</v>
       </c>
       <c r="I20" s="3">
-        <v>-744000</v>
+        <v>-734300</v>
       </c>
       <c r="J20" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K20" s="3">
         <v>334500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1619900</v>
+        <v>1608100</v>
       </c>
       <c r="E21" s="3">
-        <v>4834200</v>
+        <v>4780600</v>
       </c>
       <c r="F21" s="3">
-        <v>3538800</v>
+        <v>3499300</v>
       </c>
       <c r="G21" s="3">
-        <v>4009600</v>
+        <v>3963400</v>
       </c>
       <c r="H21" s="3">
-        <v>3380100</v>
+        <v>3341400</v>
       </c>
       <c r="I21" s="3">
-        <v>2908300</v>
+        <v>2875100</v>
       </c>
       <c r="J21" s="3">
-        <v>2368800</v>
+        <v>2341900</v>
       </c>
       <c r="K21" s="3">
         <v>1828400</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>813300</v>
+        <v>802700</v>
       </c>
       <c r="E22" s="3">
-        <v>806600</v>
+        <v>796100</v>
       </c>
       <c r="F22" s="3">
-        <v>557900</v>
+        <v>550600</v>
       </c>
       <c r="G22" s="3">
-        <v>496700</v>
+        <v>490300</v>
       </c>
       <c r="H22" s="3">
-        <v>421100</v>
+        <v>415600</v>
       </c>
       <c r="I22" s="3">
-        <v>341500</v>
+        <v>337100</v>
       </c>
       <c r="J22" s="3">
-        <v>305300</v>
+        <v>301300</v>
       </c>
       <c r="K22" s="3">
         <v>236600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2572300</v>
+        <v>-2538800</v>
       </c>
       <c r="E23" s="3">
-        <v>670700</v>
+        <v>662000</v>
       </c>
       <c r="F23" s="3">
-        <v>601600</v>
+        <v>593700</v>
       </c>
       <c r="G23" s="3">
-        <v>1343200</v>
+        <v>1325800</v>
       </c>
       <c r="H23" s="3">
-        <v>1013600</v>
+        <v>1000400</v>
       </c>
       <c r="I23" s="3">
-        <v>884100</v>
+        <v>872600</v>
       </c>
       <c r="J23" s="3">
-        <v>641700</v>
+        <v>633300</v>
       </c>
       <c r="K23" s="3">
         <v>338700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-612700</v>
+        <v>-604700</v>
       </c>
       <c r="E24" s="3">
-        <v>127800</v>
+        <v>126100</v>
       </c>
       <c r="F24" s="3">
-        <v>144500</v>
+        <v>142600</v>
       </c>
       <c r="G24" s="3">
-        <v>280800</v>
+        <v>277200</v>
       </c>
       <c r="H24" s="3">
-        <v>240600</v>
+        <v>237400</v>
       </c>
       <c r="I24" s="3">
-        <v>97400</v>
+        <v>96100</v>
       </c>
       <c r="J24" s="3">
-        <v>89400</v>
+        <v>88200</v>
       </c>
       <c r="K24" s="3">
         <v>19000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1959600</v>
+        <v>-1934100</v>
       </c>
       <c r="E26" s="3">
-        <v>542900</v>
+        <v>535900</v>
       </c>
       <c r="F26" s="3">
-        <v>457100</v>
+        <v>451200</v>
       </c>
       <c r="G26" s="3">
-        <v>1062400</v>
+        <v>1048600</v>
       </c>
       <c r="H26" s="3">
-        <v>773000</v>
+        <v>763000</v>
       </c>
       <c r="I26" s="3">
-        <v>786800</v>
+        <v>776500</v>
       </c>
       <c r="J26" s="3">
-        <v>552300</v>
+        <v>545100</v>
       </c>
       <c r="K26" s="3">
         <v>319700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1846500</v>
+        <v>-1822500</v>
       </c>
       <c r="E27" s="3">
-        <v>498000</v>
+        <v>491500</v>
       </c>
       <c r="F27" s="3">
-        <v>420900</v>
+        <v>415400</v>
       </c>
       <c r="G27" s="3">
-        <v>989400</v>
+        <v>976500</v>
       </c>
       <c r="H27" s="3">
-        <v>701700</v>
+        <v>692600</v>
       </c>
       <c r="I27" s="3">
-        <v>707800</v>
+        <v>698600</v>
       </c>
       <c r="J27" s="3">
-        <v>532000</v>
+        <v>525100</v>
       </c>
       <c r="K27" s="3">
         <v>362500</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-400200</v>
+        <v>-395000</v>
       </c>
       <c r="E32" s="3">
-        <v>95500</v>
+        <v>94200</v>
       </c>
       <c r="F32" s="3">
-        <v>292800</v>
+        <v>289000</v>
       </c>
       <c r="G32" s="3">
-        <v>-368700</v>
+        <v>-363900</v>
       </c>
       <c r="H32" s="3">
-        <v>513300</v>
+        <v>506600</v>
       </c>
       <c r="I32" s="3">
-        <v>744000</v>
+        <v>734300</v>
       </c>
       <c r="J32" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="K32" s="3">
         <v>-334500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1846500</v>
+        <v>-1822500</v>
       </c>
       <c r="E33" s="3">
-        <v>498000</v>
+        <v>491500</v>
       </c>
       <c r="F33" s="3">
-        <v>420900</v>
+        <v>415400</v>
       </c>
       <c r="G33" s="3">
-        <v>989400</v>
+        <v>976500</v>
       </c>
       <c r="H33" s="3">
-        <v>701700</v>
+        <v>692600</v>
       </c>
       <c r="I33" s="3">
-        <v>707800</v>
+        <v>698600</v>
       </c>
       <c r="J33" s="3">
-        <v>532000</v>
+        <v>525100</v>
       </c>
       <c r="K33" s="3">
         <v>362500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1846500</v>
+        <v>-1822500</v>
       </c>
       <c r="E35" s="3">
-        <v>498000</v>
+        <v>491500</v>
       </c>
       <c r="F35" s="3">
-        <v>420900</v>
+        <v>415400</v>
       </c>
       <c r="G35" s="3">
-        <v>989400</v>
+        <v>976500</v>
       </c>
       <c r="H35" s="3">
-        <v>701700</v>
+        <v>692600</v>
       </c>
       <c r="I35" s="3">
-        <v>707800</v>
+        <v>698600</v>
       </c>
       <c r="J35" s="3">
-        <v>532000</v>
+        <v>525100</v>
       </c>
       <c r="K35" s="3">
         <v>362500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1193600</v>
+        <v>1178100</v>
       </c>
       <c r="E41" s="3">
-        <v>210600</v>
+        <v>207900</v>
       </c>
       <c r="F41" s="3">
-        <v>100800</v>
+        <v>99500</v>
       </c>
       <c r="G41" s="3">
-        <v>718400</v>
+        <v>709100</v>
       </c>
       <c r="H41" s="3">
-        <v>264400</v>
+        <v>261000</v>
       </c>
       <c r="I41" s="3">
-        <v>1416600</v>
+        <v>1398100</v>
       </c>
       <c r="J41" s="3">
-        <v>211400</v>
+        <v>208600</v>
       </c>
       <c r="K41" s="3">
         <v>304800</v>
@@ -1774,13 +1774,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F42" s="3">
         <v>14800</v>
-      </c>
-      <c r="E42" s="3">
-        <v>18900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>15000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1877300</v>
+        <v>1852800</v>
       </c>
       <c r="E43" s="3">
-        <v>2331700</v>
+        <v>2301400</v>
       </c>
       <c r="F43" s="3">
-        <v>1919700</v>
+        <v>1894700</v>
       </c>
       <c r="G43" s="3">
-        <v>1629100</v>
+        <v>1607900</v>
       </c>
       <c r="H43" s="3">
-        <v>1374300</v>
+        <v>1356400</v>
       </c>
       <c r="I43" s="3">
-        <v>1582400</v>
+        <v>1561800</v>
       </c>
       <c r="J43" s="3">
-        <v>602500</v>
+        <v>594700</v>
       </c>
       <c r="K43" s="3">
         <v>538500</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>320400</v>
+        <v>316300</v>
       </c>
       <c r="E44" s="3">
-        <v>375500</v>
+        <v>370600</v>
       </c>
       <c r="F44" s="3">
-        <v>304200</v>
+        <v>300300</v>
       </c>
       <c r="G44" s="3">
-        <v>340900</v>
+        <v>336400</v>
       </c>
       <c r="H44" s="3">
-        <v>350700</v>
+        <v>346100</v>
       </c>
       <c r="I44" s="3">
-        <v>320800</v>
+        <v>316600</v>
       </c>
       <c r="J44" s="3">
-        <v>352400</v>
+        <v>347800</v>
       </c>
       <c r="K44" s="3">
         <v>352200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>103700</v>
+        <v>102400</v>
       </c>
       <c r="E45" s="3">
-        <v>143400</v>
+        <v>141500</v>
       </c>
       <c r="F45" s="3">
-        <v>145900</v>
+        <v>144000</v>
       </c>
       <c r="G45" s="3">
-        <v>165500</v>
+        <v>163400</v>
       </c>
       <c r="H45" s="3">
-        <v>489200</v>
+        <v>482900</v>
       </c>
       <c r="I45" s="3">
-        <v>280700</v>
+        <v>277000</v>
       </c>
       <c r="J45" s="3">
-        <v>1679800</v>
+        <v>1657900</v>
       </c>
       <c r="K45" s="3">
         <v>731000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3509900</v>
+        <v>3464200</v>
       </c>
       <c r="E46" s="3">
-        <v>3080100</v>
+        <v>3040000</v>
       </c>
       <c r="F46" s="3">
-        <v>2485600</v>
+        <v>2453200</v>
       </c>
       <c r="G46" s="3">
-        <v>2853900</v>
+        <v>2816800</v>
       </c>
       <c r="H46" s="3">
-        <v>2478700</v>
+        <v>2446400</v>
       </c>
       <c r="I46" s="3">
-        <v>3600400</v>
+        <v>3553600</v>
       </c>
       <c r="J46" s="3">
-        <v>2846100</v>
+        <v>2809100</v>
       </c>
       <c r="K46" s="3">
         <v>1926500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>724800</v>
+        <v>715400</v>
       </c>
       <c r="E47" s="3">
-        <v>611600</v>
+        <v>603600</v>
       </c>
       <c r="F47" s="3">
-        <v>557700</v>
+        <v>550500</v>
       </c>
       <c r="G47" s="3">
-        <v>479900</v>
+        <v>473600</v>
       </c>
       <c r="H47" s="3">
-        <v>435000</v>
+        <v>429300</v>
       </c>
       <c r="I47" s="3">
-        <v>544000</v>
+        <v>536900</v>
       </c>
       <c r="J47" s="3">
-        <v>315800</v>
+        <v>311700</v>
       </c>
       <c r="K47" s="3">
         <v>291500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36943500</v>
+        <v>36462800</v>
       </c>
       <c r="E48" s="3">
-        <v>38249300</v>
+        <v>37751600</v>
       </c>
       <c r="F48" s="3">
-        <v>31661800</v>
+        <v>31249800</v>
       </c>
       <c r="G48" s="3">
-        <v>29973700</v>
+        <v>29583700</v>
       </c>
       <c r="H48" s="3">
-        <v>27636100</v>
+        <v>27276500</v>
       </c>
       <c r="I48" s="3">
-        <v>24194200</v>
+        <v>23879400</v>
       </c>
       <c r="J48" s="3">
-        <v>20234300</v>
+        <v>19971100</v>
       </c>
       <c r="K48" s="3">
         <v>16665100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1828100</v>
+        <v>1804300</v>
       </c>
       <c r="E49" s="3">
-        <v>1825000</v>
+        <v>1801300</v>
       </c>
       <c r="F49" s="3">
-        <v>1811100</v>
+        <v>1787600</v>
       </c>
       <c r="G49" s="3">
-        <v>1809100</v>
+        <v>1785600</v>
       </c>
       <c r="H49" s="3">
-        <v>1813500</v>
+        <v>1789900</v>
       </c>
       <c r="I49" s="3">
-        <v>1797500</v>
+        <v>1774200</v>
       </c>
       <c r="J49" s="3">
-        <v>1794100</v>
+        <v>1770800</v>
       </c>
       <c r="K49" s="3">
         <v>1755500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1401900</v>
+        <v>1383700</v>
       </c>
       <c r="E52" s="3">
-        <v>725800</v>
+        <v>716300</v>
       </c>
       <c r="F52" s="3">
-        <v>772900</v>
+        <v>762800</v>
       </c>
       <c r="G52" s="3">
-        <v>723100</v>
+        <v>713700</v>
       </c>
       <c r="H52" s="3">
-        <v>761500</v>
+        <v>751600</v>
       </c>
       <c r="I52" s="3">
-        <v>752600</v>
+        <v>742800</v>
       </c>
       <c r="J52" s="3">
-        <v>680700</v>
+        <v>671800</v>
       </c>
       <c r="K52" s="3">
         <v>761000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>44408200</v>
+        <v>43830400</v>
       </c>
       <c r="E54" s="3">
-        <v>44491700</v>
+        <v>43912800</v>
       </c>
       <c r="F54" s="3">
-        <v>37289000</v>
+        <v>36803800</v>
       </c>
       <c r="G54" s="3">
-        <v>35839700</v>
+        <v>35373400</v>
       </c>
       <c r="H54" s="3">
-        <v>33124700</v>
+        <v>32693600</v>
       </c>
       <c r="I54" s="3">
-        <v>30888700</v>
+        <v>30486800</v>
       </c>
       <c r="J54" s="3">
-        <v>25871000</v>
+        <v>25534300</v>
       </c>
       <c r="K54" s="3">
         <v>21399600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>502400</v>
+        <v>495800</v>
       </c>
       <c r="E57" s="3">
-        <v>604900</v>
+        <v>597000</v>
       </c>
       <c r="F57" s="3">
-        <v>630300</v>
+        <v>622100</v>
       </c>
       <c r="G57" s="3">
-        <v>496700</v>
+        <v>490300</v>
       </c>
       <c r="H57" s="3">
-        <v>526700</v>
+        <v>519800</v>
       </c>
       <c r="I57" s="3">
-        <v>579100</v>
+        <v>571600</v>
       </c>
       <c r="J57" s="3">
-        <v>325000</v>
+        <v>320700</v>
       </c>
       <c r="K57" s="3">
         <v>529100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11111500</v>
+        <v>10966900</v>
       </c>
       <c r="E58" s="3">
-        <v>6368800</v>
+        <v>6285900</v>
       </c>
       <c r="F58" s="3">
-        <v>6025600</v>
+        <v>5947200</v>
       </c>
       <c r="G58" s="3">
-        <v>7540100</v>
+        <v>7442000</v>
       </c>
       <c r="H58" s="3">
-        <v>5505400</v>
+        <v>5433800</v>
       </c>
       <c r="I58" s="3">
-        <v>6914800</v>
+        <v>6824900</v>
       </c>
       <c r="J58" s="3">
-        <v>5190800</v>
+        <v>5123200</v>
       </c>
       <c r="K58" s="3">
         <v>4012900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3957200</v>
+        <v>3905700</v>
       </c>
       <c r="E59" s="3">
-        <v>5251800</v>
+        <v>5183400</v>
       </c>
       <c r="F59" s="3">
-        <v>4742900</v>
+        <v>4681100</v>
       </c>
       <c r="G59" s="3">
-        <v>4495100</v>
+        <v>4436600</v>
       </c>
       <c r="H59" s="3">
-        <v>4589300</v>
+        <v>4529600</v>
       </c>
       <c r="I59" s="3">
-        <v>4111200</v>
+        <v>4057700</v>
       </c>
       <c r="J59" s="3">
-        <v>4021200</v>
+        <v>3968800</v>
       </c>
       <c r="K59" s="3">
         <v>3567900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15571000</v>
+        <v>15368400</v>
       </c>
       <c r="E60" s="3">
-        <v>12225400</v>
+        <v>12066300</v>
       </c>
       <c r="F60" s="3">
-        <v>11398700</v>
+        <v>11250400</v>
       </c>
       <c r="G60" s="3">
-        <v>12532000</v>
+        <v>12368900</v>
       </c>
       <c r="H60" s="3">
-        <v>10621500</v>
+        <v>10483300</v>
       </c>
       <c r="I60" s="3">
-        <v>11605100</v>
+        <v>11454100</v>
       </c>
       <c r="J60" s="3">
-        <v>9536900</v>
+        <v>9412800</v>
       </c>
       <c r="K60" s="3">
         <v>8109800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17617100</v>
+        <v>17387900</v>
       </c>
       <c r="E61" s="3">
-        <v>18922300</v>
+        <v>18676100</v>
       </c>
       <c r="F61" s="3">
-        <v>14654000</v>
+        <v>14463300</v>
       </c>
       <c r="G61" s="3">
-        <v>12845600</v>
+        <v>12678400</v>
       </c>
       <c r="H61" s="3">
-        <v>12868300</v>
+        <v>12700900</v>
       </c>
       <c r="I61" s="3">
-        <v>11667700</v>
+        <v>11515900</v>
       </c>
       <c r="J61" s="3">
-        <v>10080100</v>
+        <v>9949000</v>
       </c>
       <c r="K61" s="3">
         <v>7252500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1991500</v>
+        <v>1965600</v>
       </c>
       <c r="E62" s="3">
-        <v>2010500</v>
+        <v>1984300</v>
       </c>
       <c r="F62" s="3">
-        <v>1625900</v>
+        <v>1604800</v>
       </c>
       <c r="G62" s="3">
-        <v>1292200</v>
+        <v>1275400</v>
       </c>
       <c r="H62" s="3">
-        <v>1465200</v>
+        <v>1446200</v>
       </c>
       <c r="I62" s="3">
-        <v>1386300</v>
+        <v>1368300</v>
       </c>
       <c r="J62" s="3">
-        <v>1297400</v>
+        <v>1280500</v>
       </c>
       <c r="K62" s="3">
         <v>1670500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35632800</v>
+        <v>35169200</v>
       </c>
       <c r="E66" s="3">
-        <v>33725800</v>
+        <v>33286900</v>
       </c>
       <c r="F66" s="3">
-        <v>28239200</v>
+        <v>27871800</v>
       </c>
       <c r="G66" s="3">
-        <v>27203000</v>
+        <v>26849000</v>
       </c>
       <c r="H66" s="3">
-        <v>25410000</v>
+        <v>25079300</v>
       </c>
       <c r="I66" s="3">
-        <v>25052200</v>
+        <v>24726300</v>
       </c>
       <c r="J66" s="3">
-        <v>21194700</v>
+        <v>20919000</v>
       </c>
       <c r="K66" s="3">
         <v>17289500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6220100</v>
+        <v>6139200</v>
       </c>
       <c r="E72" s="3">
-        <v>8210700</v>
+        <v>8103800</v>
       </c>
       <c r="F72" s="3">
-        <v>6792800</v>
+        <v>6704400</v>
       </c>
       <c r="G72" s="3">
-        <v>6379700</v>
+        <v>6296700</v>
       </c>
       <c r="H72" s="3">
-        <v>5457700</v>
+        <v>5386700</v>
       </c>
       <c r="I72" s="3">
-        <v>3786500</v>
+        <v>3737200</v>
       </c>
       <c r="J72" s="3">
-        <v>-441400</v>
+        <v>-435600</v>
       </c>
       <c r="K72" s="3">
         <v>-903100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8775400</v>
+        <v>8661200</v>
       </c>
       <c r="E76" s="3">
-        <v>10765900</v>
+        <v>10625900</v>
       </c>
       <c r="F76" s="3">
-        <v>9049800</v>
+        <v>8932100</v>
       </c>
       <c r="G76" s="3">
-        <v>8636700</v>
+        <v>8524300</v>
       </c>
       <c r="H76" s="3">
-        <v>7714700</v>
+        <v>7614300</v>
       </c>
       <c r="I76" s="3">
-        <v>5836500</v>
+        <v>5760500</v>
       </c>
       <c r="J76" s="3">
-        <v>4676200</v>
+        <v>4615400</v>
       </c>
       <c r="K76" s="3">
         <v>4110100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1846500</v>
+        <v>-1822500</v>
       </c>
       <c r="E81" s="3">
-        <v>498000</v>
+        <v>491500</v>
       </c>
       <c r="F81" s="3">
-        <v>420900</v>
+        <v>415400</v>
       </c>
       <c r="G81" s="3">
-        <v>989400</v>
+        <v>976500</v>
       </c>
       <c r="H81" s="3">
-        <v>701700</v>
+        <v>692600</v>
       </c>
       <c r="I81" s="3">
-        <v>707800</v>
+        <v>698600</v>
       </c>
       <c r="J81" s="3">
-        <v>532000</v>
+        <v>525100</v>
       </c>
       <c r="K81" s="3">
         <v>362500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3383100</v>
+        <v>3339100</v>
       </c>
       <c r="E83" s="3">
-        <v>3361100</v>
+        <v>3317300</v>
       </c>
       <c r="F83" s="3">
-        <v>2382300</v>
+        <v>2351300</v>
       </c>
       <c r="G83" s="3">
-        <v>2172300</v>
+        <v>2144000</v>
       </c>
       <c r="H83" s="3">
-        <v>1947800</v>
+        <v>1922400</v>
       </c>
       <c r="I83" s="3">
-        <v>1684800</v>
+        <v>1662800</v>
       </c>
       <c r="J83" s="3">
-        <v>1423600</v>
+        <v>1405100</v>
       </c>
       <c r="K83" s="3">
         <v>1248900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>188900</v>
+        <v>186500</v>
       </c>
       <c r="E89" s="3">
-        <v>4519900</v>
+        <v>4461100</v>
       </c>
       <c r="F89" s="3">
-        <v>3485000</v>
+        <v>3439600</v>
       </c>
       <c r="G89" s="3">
-        <v>3053400</v>
+        <v>3013700</v>
       </c>
       <c r="H89" s="3">
-        <v>3883600</v>
+        <v>3833000</v>
       </c>
       <c r="I89" s="3">
-        <v>3794900</v>
+        <v>3745600</v>
       </c>
       <c r="J89" s="3">
-        <v>1918300</v>
+        <v>1893300</v>
       </c>
       <c r="K89" s="3">
         <v>1651000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1130600</v>
+        <v>-1115900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1184000</v>
+        <v>-1168600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1662000</v>
+        <v>-1640300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1216300</v>
+        <v>-1200400</v>
       </c>
       <c r="H91" s="3">
-        <v>-3359400</v>
+        <v>-3315700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1343100</v>
+        <v>-1325600</v>
       </c>
       <c r="J91" s="3">
-        <v>-909200</v>
+        <v>-897400</v>
       </c>
       <c r="K91" s="3">
         <v>-278400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-980200</v>
+        <v>-967500</v>
       </c>
       <c r="E94" s="3">
-        <v>-764300</v>
+        <v>-754300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1993800</v>
+        <v>-1967900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3324900</v>
+        <v>-3281600</v>
       </c>
       <c r="H94" s="3">
-        <v>-5800500</v>
+        <v>-5725000</v>
       </c>
       <c r="I94" s="3">
-        <v>-4337100</v>
+        <v>-4280600</v>
       </c>
       <c r="J94" s="3">
-        <v>-3749400</v>
+        <v>-3700600</v>
       </c>
       <c r="K94" s="3">
         <v>-2601500</v>
@@ -3531,19 +3531,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-127800</v>
+        <v>-126100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-115100</v>
+        <v>-113600</v>
       </c>
       <c r="G96" s="3">
-        <v>-110600</v>
+        <v>-109200</v>
       </c>
       <c r="H96" s="3">
-        <v>-115100</v>
+        <v>-113600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1782600</v>
+        <v>1759400</v>
       </c>
       <c r="E100" s="3">
-        <v>-3646700</v>
+        <v>-3599300</v>
       </c>
       <c r="F100" s="3">
-        <v>-2115200</v>
+        <v>-2087700</v>
       </c>
       <c r="G100" s="3">
-        <v>734500</v>
+        <v>724900</v>
       </c>
       <c r="H100" s="3">
-        <v>723000</v>
+        <v>713500</v>
       </c>
       <c r="I100" s="3">
-        <v>1729100</v>
+        <v>1706600</v>
       </c>
       <c r="J100" s="3">
-        <v>1733600</v>
+        <v>1711000</v>
       </c>
       <c r="K100" s="3">
         <v>875400</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="E101" s="3">
         <v>900</v>
       </c>
       <c r="F101" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="G101" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="H101" s="3">
-        <v>41800</v>
+        <v>41300</v>
       </c>
       <c r="I101" s="3">
-        <v>18300</v>
+        <v>18000</v>
       </c>
       <c r="J101" s="3">
         <v>-2300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>983000</v>
+        <v>970200</v>
       </c>
       <c r="E102" s="3">
-        <v>109800</v>
+        <v>108400</v>
       </c>
       <c r="F102" s="3">
-        <v>-619400</v>
+        <v>-611300</v>
       </c>
       <c r="G102" s="3">
-        <v>455700</v>
+        <v>449800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1152100</v>
+        <v>-1137100</v>
       </c>
       <c r="I102" s="3">
-        <v>1205200</v>
+        <v>1189500</v>
       </c>
       <c r="J102" s="3">
-        <v>-99800</v>
+        <v>-98500</v>
       </c>
       <c r="K102" s="3">
         <v>-78900</v>

--- a/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9042800</v>
+        <v>9194300</v>
       </c>
       <c r="E8" s="3">
-        <v>18629400</v>
+        <v>18941600</v>
       </c>
       <c r="F8" s="3">
-        <v>17750500</v>
+        <v>18047900</v>
       </c>
       <c r="G8" s="3">
-        <v>15779100</v>
+        <v>16043500</v>
       </c>
       <c r="H8" s="3">
-        <v>15229200</v>
+        <v>15484400</v>
       </c>
       <c r="I8" s="3">
-        <v>14469300</v>
+        <v>14711800</v>
       </c>
       <c r="J8" s="3">
-        <v>13886700</v>
+        <v>14119400</v>
       </c>
       <c r="K8" s="3">
         <v>13482100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7685100</v>
+        <v>7813900</v>
       </c>
       <c r="E9" s="3">
-        <v>12984100</v>
+        <v>13201600</v>
       </c>
       <c r="F9" s="3">
-        <v>12425300</v>
+        <v>12633500</v>
       </c>
       <c r="G9" s="3">
-        <v>10838500</v>
+        <v>11020100</v>
       </c>
       <c r="H9" s="3">
-        <v>9690000</v>
+        <v>9852300</v>
       </c>
       <c r="I9" s="3">
-        <v>9219400</v>
+        <v>9373900</v>
       </c>
       <c r="J9" s="3">
-        <v>9664200</v>
+        <v>9826200</v>
       </c>
       <c r="K9" s="3">
         <v>9990000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1357600</v>
+        <v>1380400</v>
       </c>
       <c r="E10" s="3">
-        <v>5645400</v>
+        <v>5740000</v>
       </c>
       <c r="F10" s="3">
-        <v>5325200</v>
+        <v>5414500</v>
       </c>
       <c r="G10" s="3">
-        <v>4940600</v>
+        <v>5023400</v>
       </c>
       <c r="H10" s="3">
-        <v>5539300</v>
+        <v>5632100</v>
       </c>
       <c r="I10" s="3">
-        <v>5249900</v>
+        <v>5337900</v>
       </c>
       <c r="J10" s="3">
-        <v>4222400</v>
+        <v>4293200</v>
       </c>
       <c r="K10" s="3">
         <v>3492100</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="E14" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="F14" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="G14" s="3">
-        <v>-213100</v>
+        <v>-216700</v>
       </c>
       <c r="H14" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I14" s="3">
-        <v>27900</v>
+        <v>28300</v>
       </c>
       <c r="J14" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K14" s="3">
         <v>28400</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3426800</v>
+        <v>3484200</v>
       </c>
       <c r="E15" s="3">
-        <v>3399900</v>
+        <v>3456800</v>
       </c>
       <c r="F15" s="3">
-        <v>2357900</v>
+        <v>2397400</v>
       </c>
       <c r="G15" s="3">
-        <v>2150900</v>
+        <v>2187000</v>
       </c>
       <c r="H15" s="3">
-        <v>1871500</v>
+        <v>1902800</v>
       </c>
       <c r="I15" s="3">
-        <v>1612300</v>
+        <v>1639300</v>
       </c>
       <c r="J15" s="3">
-        <v>1414000</v>
+        <v>1437700</v>
       </c>
       <c r="K15" s="3">
         <v>1256800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11173900</v>
+        <v>11361100</v>
       </c>
       <c r="E17" s="3">
-        <v>17077200</v>
+        <v>17363300</v>
       </c>
       <c r="F17" s="3">
-        <v>16317100</v>
+        <v>16590500</v>
       </c>
       <c r="G17" s="3">
-        <v>14326900</v>
+        <v>14567000</v>
       </c>
       <c r="H17" s="3">
-        <v>13306600</v>
+        <v>13529600</v>
       </c>
       <c r="I17" s="3">
-        <v>12525300</v>
+        <v>12735200</v>
       </c>
       <c r="J17" s="3">
-        <v>12953900</v>
+        <v>13170900</v>
       </c>
       <c r="K17" s="3">
         <v>13241200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2131100</v>
+        <v>-2166800</v>
       </c>
       <c r="E18" s="3">
-        <v>1552300</v>
+        <v>1578300</v>
       </c>
       <c r="F18" s="3">
-        <v>1433400</v>
+        <v>1457400</v>
       </c>
       <c r="G18" s="3">
-        <v>1452200</v>
+        <v>1476500</v>
       </c>
       <c r="H18" s="3">
-        <v>1922600</v>
+        <v>1954800</v>
       </c>
       <c r="I18" s="3">
-        <v>1944000</v>
+        <v>1976600</v>
       </c>
       <c r="J18" s="3">
-        <v>932800</v>
+        <v>948400</v>
       </c>
       <c r="K18" s="3">
         <v>240800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>395000</v>
+        <v>401600</v>
       </c>
       <c r="E20" s="3">
-        <v>-94200</v>
+        <v>-95800</v>
       </c>
       <c r="F20" s="3">
-        <v>-289000</v>
+        <v>-293900</v>
       </c>
       <c r="G20" s="3">
-        <v>363900</v>
+        <v>370000</v>
       </c>
       <c r="H20" s="3">
-        <v>-506600</v>
+        <v>-515100</v>
       </c>
       <c r="I20" s="3">
-        <v>-734300</v>
+        <v>-746600</v>
       </c>
       <c r="J20" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K20" s="3">
         <v>334500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1608100</v>
+        <v>1627200</v>
       </c>
       <c r="E21" s="3">
-        <v>4780600</v>
+        <v>4852800</v>
       </c>
       <c r="F21" s="3">
-        <v>3499300</v>
+        <v>3552400</v>
       </c>
       <c r="G21" s="3">
-        <v>3963400</v>
+        <v>4024700</v>
       </c>
       <c r="H21" s="3">
-        <v>3341400</v>
+        <v>3392900</v>
       </c>
       <c r="I21" s="3">
-        <v>2875100</v>
+        <v>2919300</v>
       </c>
       <c r="J21" s="3">
-        <v>2341900</v>
+        <v>2377800</v>
       </c>
       <c r="K21" s="3">
         <v>1828400</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>802700</v>
+        <v>816100</v>
       </c>
       <c r="E22" s="3">
-        <v>796100</v>
+        <v>809400</v>
       </c>
       <c r="F22" s="3">
-        <v>550600</v>
+        <v>559900</v>
       </c>
       <c r="G22" s="3">
-        <v>490300</v>
+        <v>498500</v>
       </c>
       <c r="H22" s="3">
-        <v>415600</v>
+        <v>422600</v>
       </c>
       <c r="I22" s="3">
-        <v>337100</v>
+        <v>342700</v>
       </c>
       <c r="J22" s="3">
-        <v>301300</v>
+        <v>306400</v>
       </c>
       <c r="K22" s="3">
         <v>236600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2538800</v>
+        <v>-2581400</v>
       </c>
       <c r="E23" s="3">
-        <v>662000</v>
+        <v>673100</v>
       </c>
       <c r="F23" s="3">
-        <v>593700</v>
+        <v>603700</v>
       </c>
       <c r="G23" s="3">
-        <v>1325800</v>
+        <v>1348000</v>
       </c>
       <c r="H23" s="3">
-        <v>1000400</v>
+        <v>1017200</v>
       </c>
       <c r="I23" s="3">
-        <v>872600</v>
+        <v>887200</v>
       </c>
       <c r="J23" s="3">
-        <v>633300</v>
+        <v>643900</v>
       </c>
       <c r="K23" s="3">
         <v>338700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-604700</v>
+        <v>-614800</v>
       </c>
       <c r="E24" s="3">
-        <v>126100</v>
+        <v>128200</v>
       </c>
       <c r="F24" s="3">
-        <v>142600</v>
+        <v>145000</v>
       </c>
       <c r="G24" s="3">
-        <v>277200</v>
+        <v>281800</v>
       </c>
       <c r="H24" s="3">
-        <v>237400</v>
+        <v>241400</v>
       </c>
       <c r="I24" s="3">
-        <v>96100</v>
+        <v>97700</v>
       </c>
       <c r="J24" s="3">
-        <v>88200</v>
+        <v>89700</v>
       </c>
       <c r="K24" s="3">
         <v>19000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1934100</v>
+        <v>-1966600</v>
       </c>
       <c r="E26" s="3">
-        <v>535900</v>
+        <v>544800</v>
       </c>
       <c r="F26" s="3">
-        <v>451200</v>
+        <v>458700</v>
       </c>
       <c r="G26" s="3">
-        <v>1048600</v>
+        <v>1066200</v>
       </c>
       <c r="H26" s="3">
-        <v>763000</v>
+        <v>775800</v>
       </c>
       <c r="I26" s="3">
-        <v>776500</v>
+        <v>789500</v>
       </c>
       <c r="J26" s="3">
-        <v>545100</v>
+        <v>554200</v>
       </c>
       <c r="K26" s="3">
         <v>319700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1822500</v>
+        <v>-1853000</v>
       </c>
       <c r="E27" s="3">
-        <v>491500</v>
+        <v>499700</v>
       </c>
       <c r="F27" s="3">
-        <v>415400</v>
+        <v>422400</v>
       </c>
       <c r="G27" s="3">
-        <v>976500</v>
+        <v>992900</v>
       </c>
       <c r="H27" s="3">
-        <v>692600</v>
+        <v>704200</v>
       </c>
       <c r="I27" s="3">
-        <v>698600</v>
+        <v>710300</v>
       </c>
       <c r="J27" s="3">
-        <v>525100</v>
+        <v>533900</v>
       </c>
       <c r="K27" s="3">
         <v>362500</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-395000</v>
+        <v>-401600</v>
       </c>
       <c r="E32" s="3">
-        <v>94200</v>
+        <v>95800</v>
       </c>
       <c r="F32" s="3">
-        <v>289000</v>
+        <v>293900</v>
       </c>
       <c r="G32" s="3">
-        <v>-363900</v>
+        <v>-370000</v>
       </c>
       <c r="H32" s="3">
-        <v>506600</v>
+        <v>515100</v>
       </c>
       <c r="I32" s="3">
-        <v>734300</v>
+        <v>746600</v>
       </c>
       <c r="J32" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="K32" s="3">
         <v>-334500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1822500</v>
+        <v>-1853000</v>
       </c>
       <c r="E33" s="3">
-        <v>491500</v>
+        <v>499700</v>
       </c>
       <c r="F33" s="3">
-        <v>415400</v>
+        <v>422400</v>
       </c>
       <c r="G33" s="3">
-        <v>976500</v>
+        <v>992900</v>
       </c>
       <c r="H33" s="3">
-        <v>692600</v>
+        <v>704200</v>
       </c>
       <c r="I33" s="3">
-        <v>698600</v>
+        <v>710300</v>
       </c>
       <c r="J33" s="3">
-        <v>525100</v>
+        <v>533900</v>
       </c>
       <c r="K33" s="3">
         <v>362500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1822500</v>
+        <v>-1853000</v>
       </c>
       <c r="E35" s="3">
-        <v>491500</v>
+        <v>499700</v>
       </c>
       <c r="F35" s="3">
-        <v>415400</v>
+        <v>422400</v>
       </c>
       <c r="G35" s="3">
-        <v>976500</v>
+        <v>992900</v>
       </c>
       <c r="H35" s="3">
-        <v>692600</v>
+        <v>704200</v>
       </c>
       <c r="I35" s="3">
-        <v>698600</v>
+        <v>710300</v>
       </c>
       <c r="J35" s="3">
-        <v>525100</v>
+        <v>533900</v>
       </c>
       <c r="K35" s="3">
         <v>362500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1178100</v>
+        <v>1197800</v>
       </c>
       <c r="E41" s="3">
-        <v>207900</v>
+        <v>211400</v>
       </c>
       <c r="F41" s="3">
-        <v>99500</v>
+        <v>101100</v>
       </c>
       <c r="G41" s="3">
-        <v>709100</v>
+        <v>721000</v>
       </c>
       <c r="H41" s="3">
-        <v>261000</v>
+        <v>265400</v>
       </c>
       <c r="I41" s="3">
-        <v>1398100</v>
+        <v>1421600</v>
       </c>
       <c r="J41" s="3">
-        <v>208600</v>
+        <v>212100</v>
       </c>
       <c r="K41" s="3">
         <v>304800</v>
@@ -1774,13 +1774,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="E42" s="3">
-        <v>18600</v>
+        <v>18900</v>
       </c>
       <c r="F42" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1852800</v>
+        <v>1883900</v>
       </c>
       <c r="E43" s="3">
-        <v>2301400</v>
+        <v>2339900</v>
       </c>
       <c r="F43" s="3">
-        <v>1894700</v>
+        <v>1926500</v>
       </c>
       <c r="G43" s="3">
-        <v>1607900</v>
+        <v>1634800</v>
       </c>
       <c r="H43" s="3">
-        <v>1356400</v>
+        <v>1379100</v>
       </c>
       <c r="I43" s="3">
-        <v>1561800</v>
+        <v>1588000</v>
       </c>
       <c r="J43" s="3">
-        <v>594700</v>
+        <v>604600</v>
       </c>
       <c r="K43" s="3">
         <v>538500</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>316300</v>
+        <v>321600</v>
       </c>
       <c r="E44" s="3">
-        <v>370600</v>
+        <v>376800</v>
       </c>
       <c r="F44" s="3">
-        <v>300300</v>
+        <v>305300</v>
       </c>
       <c r="G44" s="3">
-        <v>336400</v>
+        <v>342100</v>
       </c>
       <c r="H44" s="3">
-        <v>346100</v>
+        <v>351900</v>
       </c>
       <c r="I44" s="3">
-        <v>316600</v>
+        <v>321900</v>
       </c>
       <c r="J44" s="3">
-        <v>347800</v>
+        <v>353700</v>
       </c>
       <c r="K44" s="3">
         <v>352200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>102400</v>
+        <v>104100</v>
       </c>
       <c r="E45" s="3">
-        <v>141500</v>
+        <v>143900</v>
       </c>
       <c r="F45" s="3">
-        <v>144000</v>
+        <v>146400</v>
       </c>
       <c r="G45" s="3">
-        <v>163400</v>
+        <v>166100</v>
       </c>
       <c r="H45" s="3">
-        <v>482900</v>
+        <v>491000</v>
       </c>
       <c r="I45" s="3">
-        <v>277000</v>
+        <v>281700</v>
       </c>
       <c r="J45" s="3">
-        <v>1657900</v>
+        <v>1685700</v>
       </c>
       <c r="K45" s="3">
         <v>731000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3464200</v>
+        <v>3522300</v>
       </c>
       <c r="E46" s="3">
-        <v>3040000</v>
+        <v>3091000</v>
       </c>
       <c r="F46" s="3">
-        <v>2453200</v>
+        <v>2494300</v>
       </c>
       <c r="G46" s="3">
-        <v>2816800</v>
+        <v>2864000</v>
       </c>
       <c r="H46" s="3">
-        <v>2446400</v>
+        <v>2487400</v>
       </c>
       <c r="I46" s="3">
-        <v>3553600</v>
+        <v>3613100</v>
       </c>
       <c r="J46" s="3">
-        <v>2809100</v>
+        <v>2856100</v>
       </c>
       <c r="K46" s="3">
         <v>1926500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>715400</v>
+        <v>727400</v>
       </c>
       <c r="E47" s="3">
-        <v>603600</v>
+        <v>613700</v>
       </c>
       <c r="F47" s="3">
-        <v>550500</v>
+        <v>559700</v>
       </c>
       <c r="G47" s="3">
-        <v>473600</v>
+        <v>481600</v>
       </c>
       <c r="H47" s="3">
-        <v>429300</v>
+        <v>436500</v>
       </c>
       <c r="I47" s="3">
-        <v>536900</v>
+        <v>545900</v>
       </c>
       <c r="J47" s="3">
-        <v>311700</v>
+        <v>316900</v>
       </c>
       <c r="K47" s="3">
         <v>291500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36462800</v>
+        <v>37073700</v>
       </c>
       <c r="E48" s="3">
-        <v>37751600</v>
+        <v>38384100</v>
       </c>
       <c r="F48" s="3">
-        <v>31249800</v>
+        <v>31773400</v>
       </c>
       <c r="G48" s="3">
-        <v>29583700</v>
+        <v>30079400</v>
       </c>
       <c r="H48" s="3">
-        <v>27276500</v>
+        <v>27733500</v>
       </c>
       <c r="I48" s="3">
-        <v>23879400</v>
+        <v>24279500</v>
       </c>
       <c r="J48" s="3">
-        <v>19971100</v>
+        <v>20305700</v>
       </c>
       <c r="K48" s="3">
         <v>16665100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1804300</v>
+        <v>1834600</v>
       </c>
       <c r="E49" s="3">
-        <v>1801300</v>
+        <v>1831400</v>
       </c>
       <c r="F49" s="3">
-        <v>1787600</v>
+        <v>1817500</v>
       </c>
       <c r="G49" s="3">
-        <v>1785600</v>
+        <v>1815500</v>
       </c>
       <c r="H49" s="3">
-        <v>1789900</v>
+        <v>1819900</v>
       </c>
       <c r="I49" s="3">
-        <v>1774200</v>
+        <v>1803900</v>
       </c>
       <c r="J49" s="3">
-        <v>1770800</v>
+        <v>1800400</v>
       </c>
       <c r="K49" s="3">
         <v>1755500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1383700</v>
+        <v>1406800</v>
       </c>
       <c r="E52" s="3">
-        <v>716300</v>
+        <v>728300</v>
       </c>
       <c r="F52" s="3">
-        <v>762800</v>
+        <v>775600</v>
       </c>
       <c r="G52" s="3">
-        <v>713700</v>
+        <v>725700</v>
       </c>
       <c r="H52" s="3">
-        <v>751600</v>
+        <v>764200</v>
       </c>
       <c r="I52" s="3">
-        <v>742800</v>
+        <v>755200</v>
       </c>
       <c r="J52" s="3">
-        <v>671800</v>
+        <v>683100</v>
       </c>
       <c r="K52" s="3">
         <v>761000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43830400</v>
+        <v>44564800</v>
       </c>
       <c r="E54" s="3">
-        <v>43912800</v>
+        <v>44648600</v>
       </c>
       <c r="F54" s="3">
-        <v>36803800</v>
+        <v>37420500</v>
       </c>
       <c r="G54" s="3">
-        <v>35373400</v>
+        <v>35966100</v>
       </c>
       <c r="H54" s="3">
-        <v>32693600</v>
+        <v>33241400</v>
       </c>
       <c r="I54" s="3">
-        <v>30486800</v>
+        <v>30997600</v>
       </c>
       <c r="J54" s="3">
-        <v>25534300</v>
+        <v>25962200</v>
       </c>
       <c r="K54" s="3">
         <v>21399600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>495800</v>
+        <v>504100</v>
       </c>
       <c r="E57" s="3">
-        <v>597000</v>
+        <v>607000</v>
       </c>
       <c r="F57" s="3">
-        <v>622100</v>
+        <v>632500</v>
       </c>
       <c r="G57" s="3">
-        <v>490300</v>
+        <v>498500</v>
       </c>
       <c r="H57" s="3">
-        <v>519800</v>
+        <v>528500</v>
       </c>
       <c r="I57" s="3">
-        <v>571600</v>
+        <v>581200</v>
       </c>
       <c r="J57" s="3">
-        <v>320700</v>
+        <v>326100</v>
       </c>
       <c r="K57" s="3">
         <v>529100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10966900</v>
+        <v>11150700</v>
       </c>
       <c r="E58" s="3">
-        <v>6285900</v>
+        <v>6391200</v>
       </c>
       <c r="F58" s="3">
-        <v>5947200</v>
+        <v>6046800</v>
       </c>
       <c r="G58" s="3">
-        <v>7442000</v>
+        <v>7566700</v>
       </c>
       <c r="H58" s="3">
-        <v>5433800</v>
+        <v>5524800</v>
       </c>
       <c r="I58" s="3">
-        <v>6824900</v>
+        <v>6939200</v>
       </c>
       <c r="J58" s="3">
-        <v>5123200</v>
+        <v>5209100</v>
       </c>
       <c r="K58" s="3">
         <v>4012900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3905700</v>
+        <v>3971100</v>
       </c>
       <c r="E59" s="3">
-        <v>5183400</v>
+        <v>5270300</v>
       </c>
       <c r="F59" s="3">
-        <v>4681100</v>
+        <v>4759600</v>
       </c>
       <c r="G59" s="3">
-        <v>4436600</v>
+        <v>4511000</v>
       </c>
       <c r="H59" s="3">
-        <v>4529600</v>
+        <v>4605500</v>
       </c>
       <c r="I59" s="3">
-        <v>4057700</v>
+        <v>4125700</v>
       </c>
       <c r="J59" s="3">
-        <v>3968800</v>
+        <v>4035300</v>
       </c>
       <c r="K59" s="3">
         <v>3567900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15368400</v>
+        <v>15625900</v>
       </c>
       <c r="E60" s="3">
-        <v>12066300</v>
+        <v>12268500</v>
       </c>
       <c r="F60" s="3">
-        <v>11250400</v>
+        <v>11438900</v>
       </c>
       <c r="G60" s="3">
-        <v>12368900</v>
+        <v>12576200</v>
       </c>
       <c r="H60" s="3">
-        <v>10483300</v>
+        <v>10658900</v>
       </c>
       <c r="I60" s="3">
-        <v>11454100</v>
+        <v>11646000</v>
       </c>
       <c r="J60" s="3">
-        <v>9412800</v>
+        <v>9570500</v>
       </c>
       <c r="K60" s="3">
         <v>8109800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17387900</v>
+        <v>17679200</v>
       </c>
       <c r="E61" s="3">
-        <v>18676100</v>
+        <v>18989000</v>
       </c>
       <c r="F61" s="3">
-        <v>14463300</v>
+        <v>14705700</v>
       </c>
       <c r="G61" s="3">
-        <v>12678400</v>
+        <v>12890800</v>
       </c>
       <c r="H61" s="3">
-        <v>12700900</v>
+        <v>12913700</v>
       </c>
       <c r="I61" s="3">
-        <v>11515900</v>
+        <v>11708800</v>
       </c>
       <c r="J61" s="3">
-        <v>9949000</v>
+        <v>10115700</v>
       </c>
       <c r="K61" s="3">
         <v>7252500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1965600</v>
+        <v>1998500</v>
       </c>
       <c r="E62" s="3">
-        <v>1984300</v>
+        <v>2017600</v>
       </c>
       <c r="F62" s="3">
-        <v>1604800</v>
+        <v>1631700</v>
       </c>
       <c r="G62" s="3">
-        <v>1275400</v>
+        <v>1296800</v>
       </c>
       <c r="H62" s="3">
-        <v>1446200</v>
+        <v>1470400</v>
       </c>
       <c r="I62" s="3">
-        <v>1368300</v>
+        <v>1391200</v>
       </c>
       <c r="J62" s="3">
-        <v>1280500</v>
+        <v>1302000</v>
       </c>
       <c r="K62" s="3">
         <v>1670500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35169200</v>
+        <v>35758500</v>
       </c>
       <c r="E66" s="3">
-        <v>33286900</v>
+        <v>33844700</v>
       </c>
       <c r="F66" s="3">
-        <v>27871800</v>
+        <v>28338800</v>
       </c>
       <c r="G66" s="3">
-        <v>26849000</v>
+        <v>27298900</v>
       </c>
       <c r="H66" s="3">
-        <v>25079300</v>
+        <v>25499600</v>
       </c>
       <c r="I66" s="3">
-        <v>24726300</v>
+        <v>25140600</v>
       </c>
       <c r="J66" s="3">
-        <v>20919000</v>
+        <v>21269500</v>
       </c>
       <c r="K66" s="3">
         <v>17289500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6139200</v>
+        <v>6242000</v>
       </c>
       <c r="E72" s="3">
-        <v>8103800</v>
+        <v>8239600</v>
       </c>
       <c r="F72" s="3">
-        <v>6704400</v>
+        <v>6816800</v>
       </c>
       <c r="G72" s="3">
-        <v>6296700</v>
+        <v>6402200</v>
       </c>
       <c r="H72" s="3">
-        <v>5386700</v>
+        <v>5476900</v>
       </c>
       <c r="I72" s="3">
-        <v>3737200</v>
+        <v>3799900</v>
       </c>
       <c r="J72" s="3">
-        <v>-435600</v>
+        <v>-442900</v>
       </c>
       <c r="K72" s="3">
         <v>-903100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8661200</v>
+        <v>8806300</v>
       </c>
       <c r="E76" s="3">
-        <v>10625900</v>
+        <v>10803900</v>
       </c>
       <c r="F76" s="3">
-        <v>8932100</v>
+        <v>9081700</v>
       </c>
       <c r="G76" s="3">
-        <v>8524300</v>
+        <v>8667200</v>
       </c>
       <c r="H76" s="3">
-        <v>7614300</v>
+        <v>7741900</v>
       </c>
       <c r="I76" s="3">
-        <v>5760500</v>
+        <v>5857100</v>
       </c>
       <c r="J76" s="3">
-        <v>4615400</v>
+        <v>4692700</v>
       </c>
       <c r="K76" s="3">
         <v>4110100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1822500</v>
+        <v>-1853000</v>
       </c>
       <c r="E81" s="3">
-        <v>491500</v>
+        <v>499700</v>
       </c>
       <c r="F81" s="3">
-        <v>415400</v>
+        <v>422400</v>
       </c>
       <c r="G81" s="3">
-        <v>976500</v>
+        <v>992900</v>
       </c>
       <c r="H81" s="3">
-        <v>692600</v>
+        <v>704200</v>
       </c>
       <c r="I81" s="3">
-        <v>698600</v>
+        <v>710300</v>
       </c>
       <c r="J81" s="3">
-        <v>525100</v>
+        <v>533900</v>
       </c>
       <c r="K81" s="3">
         <v>362500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3339100</v>
+        <v>3395000</v>
       </c>
       <c r="E83" s="3">
-        <v>3317300</v>
+        <v>3372900</v>
       </c>
       <c r="F83" s="3">
-        <v>2351300</v>
+        <v>2390700</v>
       </c>
       <c r="G83" s="3">
-        <v>2144000</v>
+        <v>2179900</v>
       </c>
       <c r="H83" s="3">
-        <v>1922400</v>
+        <v>1954700</v>
       </c>
       <c r="I83" s="3">
-        <v>1662800</v>
+        <v>1690700</v>
       </c>
       <c r="J83" s="3">
-        <v>1405100</v>
+        <v>1428600</v>
       </c>
       <c r="K83" s="3">
         <v>1248900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>186500</v>
+        <v>189600</v>
       </c>
       <c r="E89" s="3">
-        <v>4461100</v>
+        <v>4535900</v>
       </c>
       <c r="F89" s="3">
-        <v>3439600</v>
+        <v>3497200</v>
       </c>
       <c r="G89" s="3">
-        <v>3013700</v>
+        <v>3064200</v>
       </c>
       <c r="H89" s="3">
-        <v>3833000</v>
+        <v>3897200</v>
       </c>
       <c r="I89" s="3">
-        <v>3745600</v>
+        <v>3808300</v>
       </c>
       <c r="J89" s="3">
-        <v>1893300</v>
+        <v>1925100</v>
       </c>
       <c r="K89" s="3">
         <v>1651000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1115900</v>
+        <v>-1134600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1168600</v>
+        <v>-1188100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1640300</v>
+        <v>-1667800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1200400</v>
+        <v>-1220500</v>
       </c>
       <c r="H91" s="3">
-        <v>-3315700</v>
+        <v>-3371200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1325600</v>
+        <v>-1347800</v>
       </c>
       <c r="J91" s="3">
-        <v>-897400</v>
+        <v>-912400</v>
       </c>
       <c r="K91" s="3">
         <v>-278400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-967500</v>
+        <v>-983700</v>
       </c>
       <c r="E94" s="3">
-        <v>-754300</v>
+        <v>-767000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1967900</v>
+        <v>-2000800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3281600</v>
+        <v>-3336600</v>
       </c>
       <c r="H94" s="3">
-        <v>-5725000</v>
+        <v>-5820900</v>
       </c>
       <c r="I94" s="3">
-        <v>-4280600</v>
+        <v>-4352400</v>
       </c>
       <c r="J94" s="3">
-        <v>-3700600</v>
+        <v>-3762600</v>
       </c>
       <c r="K94" s="3">
         <v>-2601500</v>
@@ -3531,19 +3531,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-126100</v>
+        <v>-128200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-113600</v>
+        <v>-115500</v>
       </c>
       <c r="G96" s="3">
-        <v>-109200</v>
+        <v>-111000</v>
       </c>
       <c r="H96" s="3">
-        <v>-113600</v>
+        <v>-115500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1759400</v>
+        <v>1788900</v>
       </c>
       <c r="E100" s="3">
-        <v>-3599300</v>
+        <v>-3659600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2087700</v>
+        <v>-2122600</v>
       </c>
       <c r="G100" s="3">
-        <v>724900</v>
+        <v>737100</v>
       </c>
       <c r="H100" s="3">
-        <v>713500</v>
+        <v>725500</v>
       </c>
       <c r="I100" s="3">
-        <v>1706600</v>
+        <v>1735200</v>
       </c>
       <c r="J100" s="3">
-        <v>1711000</v>
+        <v>1739700</v>
       </c>
       <c r="K100" s="3">
         <v>875400</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8200</v>
+        <v>-8300</v>
       </c>
       <c r="E101" s="3">
         <v>900</v>
       </c>
       <c r="F101" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G101" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="H101" s="3">
-        <v>41300</v>
+        <v>42000</v>
       </c>
       <c r="I101" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="J101" s="3">
         <v>-2300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>970200</v>
+        <v>986500</v>
       </c>
       <c r="E102" s="3">
-        <v>108400</v>
+        <v>110200</v>
       </c>
       <c r="F102" s="3">
-        <v>-611300</v>
+        <v>-621500</v>
       </c>
       <c r="G102" s="3">
-        <v>449800</v>
+        <v>457300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1137100</v>
+        <v>-1156200</v>
       </c>
       <c r="I102" s="3">
-        <v>1189500</v>
+        <v>1209400</v>
       </c>
       <c r="J102" s="3">
-        <v>-98500</v>
+        <v>-100200</v>
       </c>
       <c r="K102" s="3">
         <v>-78900</v>

--- a/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9194300</v>
+        <v>9264800</v>
       </c>
       <c r="E8" s="3">
-        <v>18941600</v>
+        <v>19086800</v>
       </c>
       <c r="F8" s="3">
-        <v>18047900</v>
+        <v>18186300</v>
       </c>
       <c r="G8" s="3">
-        <v>16043500</v>
+        <v>16166500</v>
       </c>
       <c r="H8" s="3">
-        <v>15484400</v>
+        <v>15603100</v>
       </c>
       <c r="I8" s="3">
-        <v>14711800</v>
+        <v>14824500</v>
       </c>
       <c r="J8" s="3">
-        <v>14119400</v>
+        <v>14227600</v>
       </c>
       <c r="K8" s="3">
         <v>13482100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7813900</v>
+        <v>7873800</v>
       </c>
       <c r="E9" s="3">
-        <v>13201600</v>
+        <v>13302800</v>
       </c>
       <c r="F9" s="3">
-        <v>12633500</v>
+        <v>12730300</v>
       </c>
       <c r="G9" s="3">
-        <v>11020100</v>
+        <v>11104600</v>
       </c>
       <c r="H9" s="3">
-        <v>9852300</v>
+        <v>9927800</v>
       </c>
       <c r="I9" s="3">
-        <v>9373900</v>
+        <v>9445700</v>
       </c>
       <c r="J9" s="3">
-        <v>9826200</v>
+        <v>9901500</v>
       </c>
       <c r="K9" s="3">
         <v>9990000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1380400</v>
+        <v>1391000</v>
       </c>
       <c r="E10" s="3">
-        <v>5740000</v>
+        <v>5784000</v>
       </c>
       <c r="F10" s="3">
-        <v>5414500</v>
+        <v>5456000</v>
       </c>
       <c r="G10" s="3">
-        <v>5023400</v>
+        <v>5061900</v>
       </c>
       <c r="H10" s="3">
-        <v>5632100</v>
+        <v>5675300</v>
       </c>
       <c r="I10" s="3">
-        <v>5337900</v>
+        <v>5378800</v>
       </c>
       <c r="J10" s="3">
-        <v>4293200</v>
+        <v>4326100</v>
       </c>
       <c r="K10" s="3">
         <v>3492100</v>
@@ -922,16 +922,16 @@
         <v>-6900</v>
       </c>
       <c r="F14" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="G14" s="3">
-        <v>-216700</v>
+        <v>-218300</v>
       </c>
       <c r="H14" s="3">
         <v>2700</v>
       </c>
       <c r="I14" s="3">
-        <v>28300</v>
+        <v>28600</v>
       </c>
       <c r="J14" s="3">
         <v>1900</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3484200</v>
+        <v>3510900</v>
       </c>
       <c r="E15" s="3">
-        <v>3456800</v>
+        <v>3483300</v>
       </c>
       <c r="F15" s="3">
-        <v>2397400</v>
+        <v>2415800</v>
       </c>
       <c r="G15" s="3">
-        <v>2187000</v>
+        <v>2203700</v>
       </c>
       <c r="H15" s="3">
-        <v>1902800</v>
+        <v>1917400</v>
       </c>
       <c r="I15" s="3">
-        <v>1639300</v>
+        <v>1651900</v>
       </c>
       <c r="J15" s="3">
-        <v>1437700</v>
+        <v>1448700</v>
       </c>
       <c r="K15" s="3">
         <v>1256800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11361100</v>
+        <v>11448200</v>
       </c>
       <c r="E17" s="3">
-        <v>17363300</v>
+        <v>17496400</v>
       </c>
       <c r="F17" s="3">
-        <v>16590500</v>
+        <v>16717700</v>
       </c>
       <c r="G17" s="3">
-        <v>14567000</v>
+        <v>14678600</v>
       </c>
       <c r="H17" s="3">
-        <v>13529600</v>
+        <v>13633300</v>
       </c>
       <c r="I17" s="3">
-        <v>12735200</v>
+        <v>12832800</v>
       </c>
       <c r="J17" s="3">
-        <v>13170900</v>
+        <v>13271900</v>
       </c>
       <c r="K17" s="3">
         <v>13241200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2166800</v>
+        <v>-2183400</v>
       </c>
       <c r="E18" s="3">
-        <v>1578300</v>
+        <v>1590400</v>
       </c>
       <c r="F18" s="3">
-        <v>1457400</v>
+        <v>1468600</v>
       </c>
       <c r="G18" s="3">
-        <v>1476500</v>
+        <v>1487800</v>
       </c>
       <c r="H18" s="3">
-        <v>1954800</v>
+        <v>1969800</v>
       </c>
       <c r="I18" s="3">
-        <v>1976600</v>
+        <v>1991700</v>
       </c>
       <c r="J18" s="3">
-        <v>948400</v>
+        <v>955700</v>
       </c>
       <c r="K18" s="3">
         <v>240800</v>
@@ -1089,22 +1089,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>401600</v>
+        <v>404700</v>
       </c>
       <c r="E20" s="3">
-        <v>-95800</v>
+        <v>-96500</v>
       </c>
       <c r="F20" s="3">
-        <v>-293900</v>
+        <v>-296100</v>
       </c>
       <c r="G20" s="3">
-        <v>370000</v>
+        <v>372800</v>
       </c>
       <c r="H20" s="3">
-        <v>-515100</v>
+        <v>-519000</v>
       </c>
       <c r="I20" s="3">
-        <v>-746600</v>
+        <v>-752400</v>
       </c>
       <c r="J20" s="3">
         <v>1900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1627200</v>
+        <v>1653800</v>
       </c>
       <c r="E21" s="3">
-        <v>4852800</v>
+        <v>4904000</v>
       </c>
       <c r="F21" s="3">
-        <v>3552400</v>
+        <v>3589600</v>
       </c>
       <c r="G21" s="3">
-        <v>4024700</v>
+        <v>4064700</v>
       </c>
       <c r="H21" s="3">
-        <v>3392900</v>
+        <v>3427000</v>
       </c>
       <c r="I21" s="3">
-        <v>2919300</v>
+        <v>2948700</v>
       </c>
       <c r="J21" s="3">
-        <v>2377800</v>
+        <v>2402000</v>
       </c>
       <c r="K21" s="3">
         <v>1828400</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>816100</v>
+        <v>822400</v>
       </c>
       <c r="E22" s="3">
-        <v>809400</v>
+        <v>815600</v>
       </c>
       <c r="F22" s="3">
-        <v>559900</v>
+        <v>564100</v>
       </c>
       <c r="G22" s="3">
-        <v>498500</v>
+        <v>502300</v>
       </c>
       <c r="H22" s="3">
-        <v>422600</v>
+        <v>425800</v>
       </c>
       <c r="I22" s="3">
-        <v>342700</v>
+        <v>345300</v>
       </c>
       <c r="J22" s="3">
-        <v>306400</v>
+        <v>308700</v>
       </c>
       <c r="K22" s="3">
         <v>236600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2581400</v>
+        <v>-2601100</v>
       </c>
       <c r="E23" s="3">
-        <v>673100</v>
+        <v>678200</v>
       </c>
       <c r="F23" s="3">
-        <v>603700</v>
+        <v>608300</v>
       </c>
       <c r="G23" s="3">
-        <v>1348000</v>
+        <v>1358300</v>
       </c>
       <c r="H23" s="3">
-        <v>1017200</v>
+        <v>1025000</v>
       </c>
       <c r="I23" s="3">
-        <v>887200</v>
+        <v>894000</v>
       </c>
       <c r="J23" s="3">
-        <v>643900</v>
+        <v>648900</v>
       </c>
       <c r="K23" s="3">
         <v>338700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-614800</v>
+        <v>-619500</v>
       </c>
       <c r="E24" s="3">
-        <v>128200</v>
+        <v>129200</v>
       </c>
       <c r="F24" s="3">
-        <v>145000</v>
+        <v>146100</v>
       </c>
       <c r="G24" s="3">
-        <v>281800</v>
+        <v>284000</v>
       </c>
       <c r="H24" s="3">
-        <v>241400</v>
+        <v>243300</v>
       </c>
       <c r="I24" s="3">
-        <v>97700</v>
+        <v>98400</v>
       </c>
       <c r="J24" s="3">
-        <v>89700</v>
+        <v>90400</v>
       </c>
       <c r="K24" s="3">
         <v>19000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1966600</v>
+        <v>-1981600</v>
       </c>
       <c r="E26" s="3">
-        <v>544800</v>
+        <v>549000</v>
       </c>
       <c r="F26" s="3">
-        <v>458700</v>
+        <v>462200</v>
       </c>
       <c r="G26" s="3">
-        <v>1066200</v>
+        <v>1074300</v>
       </c>
       <c r="H26" s="3">
-        <v>775800</v>
+        <v>781700</v>
       </c>
       <c r="I26" s="3">
-        <v>789500</v>
+        <v>795600</v>
       </c>
       <c r="J26" s="3">
-        <v>554200</v>
+        <v>558500</v>
       </c>
       <c r="K26" s="3">
         <v>319700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1853000</v>
+        <v>-1867200</v>
       </c>
       <c r="E27" s="3">
-        <v>499700</v>
+        <v>503600</v>
       </c>
       <c r="F27" s="3">
-        <v>422400</v>
+        <v>425600</v>
       </c>
       <c r="G27" s="3">
-        <v>992900</v>
+        <v>1000500</v>
       </c>
       <c r="H27" s="3">
-        <v>704200</v>
+        <v>709600</v>
       </c>
       <c r="I27" s="3">
-        <v>710300</v>
+        <v>715800</v>
       </c>
       <c r="J27" s="3">
-        <v>533900</v>
+        <v>538000</v>
       </c>
       <c r="K27" s="3">
         <v>362500</v>
@@ -1521,22 +1521,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-401600</v>
+        <v>-404700</v>
       </c>
       <c r="E32" s="3">
-        <v>95800</v>
+        <v>96500</v>
       </c>
       <c r="F32" s="3">
-        <v>293900</v>
+        <v>296100</v>
       </c>
       <c r="G32" s="3">
-        <v>-370000</v>
+        <v>-372800</v>
       </c>
       <c r="H32" s="3">
-        <v>515100</v>
+        <v>519000</v>
       </c>
       <c r="I32" s="3">
-        <v>746600</v>
+        <v>752400</v>
       </c>
       <c r="J32" s="3">
         <v>-1900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1853000</v>
+        <v>-1867200</v>
       </c>
       <c r="E33" s="3">
-        <v>499700</v>
+        <v>503600</v>
       </c>
       <c r="F33" s="3">
-        <v>422400</v>
+        <v>425600</v>
       </c>
       <c r="G33" s="3">
-        <v>992900</v>
+        <v>1000500</v>
       </c>
       <c r="H33" s="3">
-        <v>704200</v>
+        <v>709600</v>
       </c>
       <c r="I33" s="3">
-        <v>710300</v>
+        <v>715800</v>
       </c>
       <c r="J33" s="3">
-        <v>533900</v>
+        <v>538000</v>
       </c>
       <c r="K33" s="3">
         <v>362500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1853000</v>
+        <v>-1867200</v>
       </c>
       <c r="E35" s="3">
-        <v>499700</v>
+        <v>503600</v>
       </c>
       <c r="F35" s="3">
-        <v>422400</v>
+        <v>425600</v>
       </c>
       <c r="G35" s="3">
-        <v>992900</v>
+        <v>1000500</v>
       </c>
       <c r="H35" s="3">
-        <v>704200</v>
+        <v>709600</v>
       </c>
       <c r="I35" s="3">
-        <v>710300</v>
+        <v>715800</v>
       </c>
       <c r="J35" s="3">
-        <v>533900</v>
+        <v>538000</v>
       </c>
       <c r="K35" s="3">
         <v>362500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1197800</v>
+        <v>1207000</v>
       </c>
       <c r="E41" s="3">
-        <v>211400</v>
+        <v>213000</v>
       </c>
       <c r="F41" s="3">
-        <v>101100</v>
+        <v>101900</v>
       </c>
       <c r="G41" s="3">
-        <v>721000</v>
+        <v>726500</v>
       </c>
       <c r="H41" s="3">
-        <v>265400</v>
+        <v>267400</v>
       </c>
       <c r="I41" s="3">
-        <v>1421600</v>
+        <v>1432500</v>
       </c>
       <c r="J41" s="3">
-        <v>212100</v>
+        <v>213800</v>
       </c>
       <c r="K41" s="3">
         <v>304800</v>
@@ -1774,13 +1774,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="E42" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="F42" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1883900</v>
+        <v>1898300</v>
       </c>
       <c r="E43" s="3">
-        <v>2339900</v>
+        <v>2357900</v>
       </c>
       <c r="F43" s="3">
-        <v>1926500</v>
+        <v>1941200</v>
       </c>
       <c r="G43" s="3">
-        <v>1634800</v>
+        <v>1647300</v>
       </c>
       <c r="H43" s="3">
-        <v>1379100</v>
+        <v>1389700</v>
       </c>
       <c r="I43" s="3">
-        <v>1588000</v>
+        <v>1600200</v>
       </c>
       <c r="J43" s="3">
-        <v>604600</v>
+        <v>609300</v>
       </c>
       <c r="K43" s="3">
         <v>538500</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>321600</v>
+        <v>324000</v>
       </c>
       <c r="E44" s="3">
-        <v>376800</v>
+        <v>379700</v>
       </c>
       <c r="F44" s="3">
-        <v>305300</v>
+        <v>307600</v>
       </c>
       <c r="G44" s="3">
-        <v>342100</v>
+        <v>344700</v>
       </c>
       <c r="H44" s="3">
-        <v>351900</v>
+        <v>354600</v>
       </c>
       <c r="I44" s="3">
-        <v>321900</v>
+        <v>324400</v>
       </c>
       <c r="J44" s="3">
-        <v>353700</v>
+        <v>356400</v>
       </c>
       <c r="K44" s="3">
         <v>352200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>104100</v>
+        <v>104900</v>
       </c>
       <c r="E45" s="3">
-        <v>143900</v>
+        <v>145000</v>
       </c>
       <c r="F45" s="3">
-        <v>146400</v>
+        <v>147500</v>
       </c>
       <c r="G45" s="3">
-        <v>166100</v>
+        <v>167400</v>
       </c>
       <c r="H45" s="3">
-        <v>491000</v>
+        <v>494700</v>
       </c>
       <c r="I45" s="3">
-        <v>281700</v>
+        <v>283800</v>
       </c>
       <c r="J45" s="3">
-        <v>1685700</v>
+        <v>1698600</v>
       </c>
       <c r="K45" s="3">
         <v>731000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3522300</v>
+        <v>3549300</v>
       </c>
       <c r="E46" s="3">
-        <v>3091000</v>
+        <v>3114700</v>
       </c>
       <c r="F46" s="3">
-        <v>2494300</v>
+        <v>2513400</v>
       </c>
       <c r="G46" s="3">
-        <v>2864000</v>
+        <v>2885900</v>
       </c>
       <c r="H46" s="3">
-        <v>2487400</v>
+        <v>2506500</v>
       </c>
       <c r="I46" s="3">
-        <v>3613100</v>
+        <v>3640800</v>
       </c>
       <c r="J46" s="3">
-        <v>2856100</v>
+        <v>2878000</v>
       </c>
       <c r="K46" s="3">
         <v>1926500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>727400</v>
+        <v>733000</v>
       </c>
       <c r="E47" s="3">
-        <v>613700</v>
+        <v>618400</v>
       </c>
       <c r="F47" s="3">
-        <v>559700</v>
+        <v>564000</v>
       </c>
       <c r="G47" s="3">
-        <v>481600</v>
+        <v>485300</v>
       </c>
       <c r="H47" s="3">
-        <v>436500</v>
+        <v>439800</v>
       </c>
       <c r="I47" s="3">
-        <v>545900</v>
+        <v>550100</v>
       </c>
       <c r="J47" s="3">
-        <v>316900</v>
+        <v>319300</v>
       </c>
       <c r="K47" s="3">
         <v>291500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37073700</v>
+        <v>37357900</v>
       </c>
       <c r="E48" s="3">
-        <v>38384100</v>
+        <v>38678300</v>
       </c>
       <c r="F48" s="3">
-        <v>31773400</v>
+        <v>32016900</v>
       </c>
       <c r="G48" s="3">
-        <v>30079400</v>
+        <v>30310000</v>
       </c>
       <c r="H48" s="3">
-        <v>27733500</v>
+        <v>27946100</v>
       </c>
       <c r="I48" s="3">
-        <v>24279500</v>
+        <v>24465600</v>
       </c>
       <c r="J48" s="3">
-        <v>20305700</v>
+        <v>20461300</v>
       </c>
       <c r="K48" s="3">
         <v>16665100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1834600</v>
+        <v>1848600</v>
       </c>
       <c r="E49" s="3">
+        <v>1845500</v>
+      </c>
+      <c r="F49" s="3">
         <v>1831400</v>
       </c>
-      <c r="F49" s="3">
-        <v>1817500</v>
-      </c>
       <c r="G49" s="3">
-        <v>1815500</v>
+        <v>1829400</v>
       </c>
       <c r="H49" s="3">
-        <v>1819900</v>
+        <v>1833800</v>
       </c>
       <c r="I49" s="3">
-        <v>1803900</v>
+        <v>1817700</v>
       </c>
       <c r="J49" s="3">
-        <v>1800400</v>
+        <v>1814200</v>
       </c>
       <c r="K49" s="3">
         <v>1755500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1406800</v>
+        <v>1417600</v>
       </c>
       <c r="E52" s="3">
-        <v>728300</v>
+        <v>733900</v>
       </c>
       <c r="F52" s="3">
-        <v>775600</v>
+        <v>781500</v>
       </c>
       <c r="G52" s="3">
-        <v>725700</v>
+        <v>731200</v>
       </c>
       <c r="H52" s="3">
-        <v>764200</v>
+        <v>770000</v>
       </c>
       <c r="I52" s="3">
-        <v>755200</v>
+        <v>761000</v>
       </c>
       <c r="J52" s="3">
-        <v>683100</v>
+        <v>688300</v>
       </c>
       <c r="K52" s="3">
         <v>761000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>44564800</v>
+        <v>44906400</v>
       </c>
       <c r="E54" s="3">
-        <v>44648600</v>
+        <v>44990800</v>
       </c>
       <c r="F54" s="3">
-        <v>37420500</v>
+        <v>37707300</v>
       </c>
       <c r="G54" s="3">
-        <v>35966100</v>
+        <v>36241700</v>
       </c>
       <c r="H54" s="3">
-        <v>33241400</v>
+        <v>33496200</v>
       </c>
       <c r="I54" s="3">
-        <v>30997600</v>
+        <v>31235200</v>
       </c>
       <c r="J54" s="3">
-        <v>25962200</v>
+        <v>26161200</v>
       </c>
       <c r="K54" s="3">
         <v>21399600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>504100</v>
+        <v>508000</v>
       </c>
       <c r="E57" s="3">
-        <v>607000</v>
+        <v>611600</v>
       </c>
       <c r="F57" s="3">
-        <v>632500</v>
+        <v>637400</v>
       </c>
       <c r="G57" s="3">
-        <v>498500</v>
+        <v>502300</v>
       </c>
       <c r="H57" s="3">
-        <v>528500</v>
+        <v>532600</v>
       </c>
       <c r="I57" s="3">
-        <v>581200</v>
+        <v>585600</v>
       </c>
       <c r="J57" s="3">
-        <v>326100</v>
+        <v>328600</v>
       </c>
       <c r="K57" s="3">
         <v>529100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11150700</v>
+        <v>11236100</v>
       </c>
       <c r="E58" s="3">
-        <v>6391200</v>
+        <v>6440200</v>
       </c>
       <c r="F58" s="3">
-        <v>6046800</v>
+        <v>6093200</v>
       </c>
       <c r="G58" s="3">
-        <v>7566700</v>
+        <v>7624700</v>
       </c>
       <c r="H58" s="3">
-        <v>5524800</v>
+        <v>5567200</v>
       </c>
       <c r="I58" s="3">
-        <v>6939200</v>
+        <v>6992400</v>
       </c>
       <c r="J58" s="3">
-        <v>5209100</v>
+        <v>5249000</v>
       </c>
       <c r="K58" s="3">
         <v>4012900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3971100</v>
+        <v>4001600</v>
       </c>
       <c r="E59" s="3">
-        <v>5270300</v>
+        <v>5310700</v>
       </c>
       <c r="F59" s="3">
-        <v>4759600</v>
+        <v>4796100</v>
       </c>
       <c r="G59" s="3">
-        <v>4511000</v>
+        <v>4545500</v>
       </c>
       <c r="H59" s="3">
-        <v>4605500</v>
+        <v>4640800</v>
       </c>
       <c r="I59" s="3">
-        <v>4125700</v>
+        <v>4157300</v>
       </c>
       <c r="J59" s="3">
-        <v>4035300</v>
+        <v>4066300</v>
       </c>
       <c r="K59" s="3">
         <v>3567900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15625900</v>
+        <v>15745700</v>
       </c>
       <c r="E60" s="3">
-        <v>12268500</v>
+        <v>12362500</v>
       </c>
       <c r="F60" s="3">
-        <v>11438900</v>
+        <v>11526600</v>
       </c>
       <c r="G60" s="3">
-        <v>12576200</v>
+        <v>12672500</v>
       </c>
       <c r="H60" s="3">
-        <v>10658900</v>
+        <v>10740600</v>
       </c>
       <c r="I60" s="3">
-        <v>11646000</v>
+        <v>11735300</v>
       </c>
       <c r="J60" s="3">
-        <v>9570500</v>
+        <v>9643900</v>
       </c>
       <c r="K60" s="3">
         <v>8109800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17679200</v>
+        <v>17814700</v>
       </c>
       <c r="E61" s="3">
-        <v>18989000</v>
+        <v>19134600</v>
       </c>
       <c r="F61" s="3">
-        <v>14705700</v>
+        <v>14818400</v>
       </c>
       <c r="G61" s="3">
-        <v>12890800</v>
+        <v>12989600</v>
       </c>
       <c r="H61" s="3">
-        <v>12913700</v>
+        <v>13012700</v>
       </c>
       <c r="I61" s="3">
-        <v>11708800</v>
+        <v>11798600</v>
       </c>
       <c r="J61" s="3">
-        <v>10115700</v>
+        <v>10193200</v>
       </c>
       <c r="K61" s="3">
         <v>7252500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1998500</v>
+        <v>2013800</v>
       </c>
       <c r="E62" s="3">
-        <v>2017600</v>
+        <v>2033100</v>
       </c>
       <c r="F62" s="3">
-        <v>1631700</v>
+        <v>1644200</v>
       </c>
       <c r="G62" s="3">
-        <v>1296800</v>
+        <v>1306700</v>
       </c>
       <c r="H62" s="3">
-        <v>1470400</v>
+        <v>1481700</v>
       </c>
       <c r="I62" s="3">
-        <v>1391200</v>
+        <v>1401900</v>
       </c>
       <c r="J62" s="3">
-        <v>1302000</v>
+        <v>1311900</v>
       </c>
       <c r="K62" s="3">
         <v>1670500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35758500</v>
+        <v>36032500</v>
       </c>
       <c r="E66" s="3">
-        <v>33844700</v>
+        <v>34104100</v>
       </c>
       <c r="F66" s="3">
-        <v>28338800</v>
+        <v>28556000</v>
       </c>
       <c r="G66" s="3">
-        <v>27298900</v>
+        <v>27508100</v>
       </c>
       <c r="H66" s="3">
-        <v>25499600</v>
+        <v>25695000</v>
       </c>
       <c r="I66" s="3">
-        <v>25140600</v>
+        <v>25333300</v>
       </c>
       <c r="J66" s="3">
-        <v>21269500</v>
+        <v>21432500</v>
       </c>
       <c r="K66" s="3">
         <v>17289500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6242000</v>
+        <v>6289900</v>
       </c>
       <c r="E72" s="3">
-        <v>8239600</v>
+        <v>8302800</v>
       </c>
       <c r="F72" s="3">
-        <v>6816800</v>
+        <v>6869000</v>
       </c>
       <c r="G72" s="3">
-        <v>6402200</v>
+        <v>6451300</v>
       </c>
       <c r="H72" s="3">
-        <v>5476900</v>
+        <v>5518900</v>
       </c>
       <c r="I72" s="3">
-        <v>3799900</v>
+        <v>3829000</v>
       </c>
       <c r="J72" s="3">
-        <v>-442900</v>
+        <v>-446300</v>
       </c>
       <c r="K72" s="3">
         <v>-903100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8806300</v>
+        <v>8873800</v>
       </c>
       <c r="E76" s="3">
-        <v>10803900</v>
+        <v>10886700</v>
       </c>
       <c r="F76" s="3">
-        <v>9081700</v>
+        <v>9151300</v>
       </c>
       <c r="G76" s="3">
-        <v>8667200</v>
+        <v>8733600</v>
       </c>
       <c r="H76" s="3">
-        <v>7741900</v>
+        <v>7801200</v>
       </c>
       <c r="I76" s="3">
-        <v>5857100</v>
+        <v>5902000</v>
       </c>
       <c r="J76" s="3">
-        <v>4692700</v>
+        <v>4728700</v>
       </c>
       <c r="K76" s="3">
         <v>4110100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1853000</v>
+        <v>-1867200</v>
       </c>
       <c r="E81" s="3">
-        <v>499700</v>
+        <v>503600</v>
       </c>
       <c r="F81" s="3">
-        <v>422400</v>
+        <v>425600</v>
       </c>
       <c r="G81" s="3">
-        <v>992900</v>
+        <v>1000500</v>
       </c>
       <c r="H81" s="3">
-        <v>704200</v>
+        <v>709600</v>
       </c>
       <c r="I81" s="3">
-        <v>710300</v>
+        <v>715800</v>
       </c>
       <c r="J81" s="3">
-        <v>533900</v>
+        <v>538000</v>
       </c>
       <c r="K81" s="3">
         <v>362500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3395000</v>
+        <v>3421000</v>
       </c>
       <c r="E83" s="3">
-        <v>3372900</v>
+        <v>3398800</v>
       </c>
       <c r="F83" s="3">
-        <v>2390700</v>
+        <v>2409000</v>
       </c>
       <c r="G83" s="3">
-        <v>2179900</v>
+        <v>2196700</v>
       </c>
       <c r="H83" s="3">
-        <v>1954700</v>
+        <v>1969600</v>
       </c>
       <c r="I83" s="3">
-        <v>1690700</v>
+        <v>1703700</v>
       </c>
       <c r="J83" s="3">
-        <v>1428600</v>
+        <v>1439600</v>
       </c>
       <c r="K83" s="3">
         <v>1248900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>189600</v>
+        <v>191000</v>
       </c>
       <c r="E89" s="3">
-        <v>4535900</v>
+        <v>4570600</v>
       </c>
       <c r="F89" s="3">
-        <v>3497200</v>
+        <v>3524000</v>
       </c>
       <c r="G89" s="3">
-        <v>3064200</v>
+        <v>3087700</v>
       </c>
       <c r="H89" s="3">
-        <v>3897200</v>
+        <v>3927100</v>
       </c>
       <c r="I89" s="3">
-        <v>3808300</v>
+        <v>3837500</v>
       </c>
       <c r="J89" s="3">
-        <v>1925100</v>
+        <v>1939800</v>
       </c>
       <c r="K89" s="3">
         <v>1651000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1134600</v>
+        <v>-1143300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1188100</v>
+        <v>-1197200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1667800</v>
+        <v>-1680600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1220500</v>
+        <v>-1229900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3371200</v>
+        <v>-3397000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1347800</v>
+        <v>-1358200</v>
       </c>
       <c r="J91" s="3">
-        <v>-912400</v>
+        <v>-919400</v>
       </c>
       <c r="K91" s="3">
         <v>-278400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-983700</v>
+        <v>-991200</v>
       </c>
       <c r="E94" s="3">
-        <v>-767000</v>
+        <v>-772900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2000800</v>
+        <v>-2016200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3336600</v>
+        <v>-3362200</v>
       </c>
       <c r="H94" s="3">
-        <v>-5820900</v>
+        <v>-5865500</v>
       </c>
       <c r="I94" s="3">
-        <v>-4352400</v>
+        <v>-4385700</v>
       </c>
       <c r="J94" s="3">
-        <v>-3762600</v>
+        <v>-3791400</v>
       </c>
       <c r="K94" s="3">
         <v>-2601500</v>
@@ -3531,19 +3531,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-128200</v>
+        <v>-129200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-115500</v>
+        <v>-116400</v>
       </c>
       <c r="G96" s="3">
-        <v>-111000</v>
+        <v>-111900</v>
       </c>
       <c r="H96" s="3">
-        <v>-115500</v>
+        <v>-116400</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1788900</v>
+        <v>1802600</v>
       </c>
       <c r="E100" s="3">
-        <v>-3659600</v>
+        <v>-3687600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2122600</v>
+        <v>-2138900</v>
       </c>
       <c r="G100" s="3">
-        <v>737100</v>
+        <v>742700</v>
       </c>
       <c r="H100" s="3">
-        <v>725500</v>
+        <v>731100</v>
       </c>
       <c r="I100" s="3">
-        <v>1735200</v>
+        <v>1748500</v>
       </c>
       <c r="J100" s="3">
-        <v>1739700</v>
+        <v>1753000</v>
       </c>
       <c r="K100" s="3">
         <v>875400</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="E101" s="3">
         <v>900</v>
@@ -3723,13 +3723,13 @@
         <v>-7400</v>
       </c>
       <c r="H101" s="3">
-        <v>42000</v>
+        <v>42300</v>
       </c>
       <c r="I101" s="3">
-        <v>18300</v>
+        <v>18500</v>
       </c>
       <c r="J101" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K101" s="3">
         <v>-3900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>986500</v>
+        <v>994000</v>
       </c>
       <c r="E102" s="3">
-        <v>110200</v>
+        <v>111100</v>
       </c>
       <c r="F102" s="3">
-        <v>-621500</v>
+        <v>-626300</v>
       </c>
       <c r="G102" s="3">
-        <v>457300</v>
+        <v>460800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1156200</v>
+        <v>-1165100</v>
       </c>
       <c r="I102" s="3">
-        <v>1209400</v>
+        <v>1218700</v>
       </c>
       <c r="J102" s="3">
-        <v>-100200</v>
+        <v>-101000</v>
       </c>
       <c r="K102" s="3">
         <v>-78900</v>

--- a/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>CEA</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9264800</v>
+        <v>8654000</v>
       </c>
       <c r="E8" s="3">
-        <v>19086800</v>
+        <v>17828500</v>
       </c>
       <c r="F8" s="3">
-        <v>18186300</v>
+        <v>16987400</v>
       </c>
       <c r="G8" s="3">
-        <v>16166500</v>
+        <v>15100700</v>
       </c>
       <c r="H8" s="3">
-        <v>15603100</v>
+        <v>14574500</v>
       </c>
       <c r="I8" s="3">
-        <v>14824500</v>
+        <v>13847300</v>
       </c>
       <c r="J8" s="3">
-        <v>14227600</v>
+        <v>13289700</v>
       </c>
       <c r="K8" s="3">
         <v>13482100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7873800</v>
+        <v>7354700</v>
       </c>
       <c r="E9" s="3">
-        <v>13302800</v>
+        <v>12425800</v>
       </c>
       <c r="F9" s="3">
-        <v>12730300</v>
+        <v>11891100</v>
       </c>
       <c r="G9" s="3">
-        <v>11104600</v>
+        <v>10372500</v>
       </c>
       <c r="H9" s="3">
-        <v>9927800</v>
+        <v>9273400</v>
       </c>
       <c r="I9" s="3">
-        <v>9445700</v>
+        <v>8823000</v>
       </c>
       <c r="J9" s="3">
-        <v>9901500</v>
+        <v>9248800</v>
       </c>
       <c r="K9" s="3">
         <v>9990000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1391000</v>
+        <v>1299300</v>
       </c>
       <c r="E10" s="3">
-        <v>5784000</v>
+        <v>5402700</v>
       </c>
       <c r="F10" s="3">
-        <v>5456000</v>
+        <v>5096300</v>
       </c>
       <c r="G10" s="3">
-        <v>5061900</v>
+        <v>4728200</v>
       </c>
       <c r="H10" s="3">
-        <v>5675300</v>
+        <v>5301100</v>
       </c>
       <c r="I10" s="3">
-        <v>5378800</v>
+        <v>5024200</v>
       </c>
       <c r="J10" s="3">
-        <v>4326100</v>
+        <v>4040900</v>
       </c>
       <c r="K10" s="3">
         <v>3492100</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9900</v>
+        <v>9300</v>
       </c>
       <c r="E14" s="3">
-        <v>-6900</v>
+        <v>-6500</v>
       </c>
       <c r="F14" s="3">
-        <v>6200</v>
+        <v>5700</v>
       </c>
       <c r="G14" s="3">
-        <v>-218300</v>
+        <v>-203900</v>
       </c>
       <c r="H14" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="I14" s="3">
-        <v>28600</v>
+        <v>26700</v>
       </c>
       <c r="J14" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K14" s="3">
         <v>28400</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3510900</v>
+        <v>3279500</v>
       </c>
       <c r="E15" s="3">
-        <v>3483300</v>
+        <v>3253700</v>
       </c>
       <c r="F15" s="3">
-        <v>2415800</v>
+        <v>2256500</v>
       </c>
       <c r="G15" s="3">
-        <v>2203700</v>
+        <v>2058500</v>
       </c>
       <c r="H15" s="3">
-        <v>1917400</v>
+        <v>1791000</v>
       </c>
       <c r="I15" s="3">
-        <v>1651900</v>
+        <v>1543000</v>
       </c>
       <c r="J15" s="3">
-        <v>1448700</v>
+        <v>1353200</v>
       </c>
       <c r="K15" s="3">
         <v>1256800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11448200</v>
+        <v>10693500</v>
       </c>
       <c r="E17" s="3">
-        <v>17496400</v>
+        <v>16343000</v>
       </c>
       <c r="F17" s="3">
-        <v>16717700</v>
+        <v>15615600</v>
       </c>
       <c r="G17" s="3">
-        <v>14678600</v>
+        <v>13711000</v>
       </c>
       <c r="H17" s="3">
-        <v>13633300</v>
+        <v>12734600</v>
       </c>
       <c r="I17" s="3">
-        <v>12832800</v>
+        <v>11986900</v>
       </c>
       <c r="J17" s="3">
-        <v>13271900</v>
+        <v>12397000</v>
       </c>
       <c r="K17" s="3">
         <v>13241200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2183400</v>
+        <v>-2039500</v>
       </c>
       <c r="E18" s="3">
-        <v>1590400</v>
+        <v>1485500</v>
       </c>
       <c r="F18" s="3">
-        <v>1468600</v>
+        <v>1371800</v>
       </c>
       <c r="G18" s="3">
-        <v>1487800</v>
+        <v>1389800</v>
       </c>
       <c r="H18" s="3">
-        <v>1969800</v>
+        <v>1839900</v>
       </c>
       <c r="I18" s="3">
-        <v>1991700</v>
+        <v>1860400</v>
       </c>
       <c r="J18" s="3">
-        <v>955700</v>
+        <v>892700</v>
       </c>
       <c r="K18" s="3">
         <v>240800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>404700</v>
+        <v>378000</v>
       </c>
       <c r="E20" s="3">
-        <v>-96500</v>
+        <v>-90200</v>
       </c>
       <c r="F20" s="3">
-        <v>-296100</v>
+        <v>-276600</v>
       </c>
       <c r="G20" s="3">
-        <v>372800</v>
+        <v>348200</v>
       </c>
       <c r="H20" s="3">
-        <v>-519000</v>
+        <v>-484800</v>
       </c>
       <c r="I20" s="3">
-        <v>-752400</v>
+        <v>-702800</v>
       </c>
       <c r="J20" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K20" s="3">
         <v>334500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1653800</v>
+        <v>1545100</v>
       </c>
       <c r="E21" s="3">
-        <v>4904000</v>
+        <v>3668100</v>
       </c>
       <c r="F21" s="3">
-        <v>3589600</v>
+        <v>3167600</v>
       </c>
       <c r="G21" s="3">
-        <v>4064700</v>
+        <v>3596200</v>
       </c>
       <c r="H21" s="3">
-        <v>3427000</v>
+        <v>2962400</v>
       </c>
       <c r="I21" s="3">
-        <v>2948700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2402000</v>
+        <v>2515800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>1828400</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>822400</v>
+        <v>768200</v>
       </c>
       <c r="E22" s="3">
-        <v>815600</v>
+        <v>761900</v>
       </c>
       <c r="F22" s="3">
-        <v>564100</v>
+        <v>527000</v>
       </c>
       <c r="G22" s="3">
-        <v>502300</v>
+        <v>469200</v>
       </c>
       <c r="H22" s="3">
-        <v>425800</v>
+        <v>397700</v>
       </c>
       <c r="I22" s="3">
-        <v>345300</v>
+        <v>322600</v>
       </c>
       <c r="J22" s="3">
-        <v>308700</v>
+        <v>288400</v>
       </c>
       <c r="K22" s="3">
         <v>236600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2601100</v>
+        <v>-2429700</v>
       </c>
       <c r="E23" s="3">
-        <v>678200</v>
+        <v>633500</v>
       </c>
       <c r="F23" s="3">
-        <v>608300</v>
+        <v>568200</v>
       </c>
       <c r="G23" s="3">
-        <v>1358300</v>
+        <v>1268800</v>
       </c>
       <c r="H23" s="3">
-        <v>1025000</v>
+        <v>957400</v>
       </c>
       <c r="I23" s="3">
-        <v>894000</v>
+        <v>835100</v>
       </c>
       <c r="J23" s="3">
-        <v>648900</v>
+        <v>606100</v>
       </c>
       <c r="K23" s="3">
         <v>338700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-619500</v>
+        <v>-578700</v>
       </c>
       <c r="E24" s="3">
-        <v>129200</v>
+        <v>120700</v>
       </c>
       <c r="F24" s="3">
-        <v>146100</v>
+        <v>136500</v>
       </c>
       <c r="G24" s="3">
-        <v>284000</v>
+        <v>265200</v>
       </c>
       <c r="H24" s="3">
-        <v>243300</v>
+        <v>227200</v>
       </c>
       <c r="I24" s="3">
-        <v>98400</v>
+        <v>92000</v>
       </c>
       <c r="J24" s="3">
-        <v>90400</v>
+        <v>84400</v>
       </c>
       <c r="K24" s="3">
         <v>19000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1981600</v>
+        <v>-1851000</v>
       </c>
       <c r="E26" s="3">
-        <v>549000</v>
+        <v>512800</v>
       </c>
       <c r="F26" s="3">
-        <v>462200</v>
+        <v>431800</v>
       </c>
       <c r="G26" s="3">
-        <v>1074300</v>
+        <v>1003500</v>
       </c>
       <c r="H26" s="3">
-        <v>781700</v>
+        <v>730200</v>
       </c>
       <c r="I26" s="3">
-        <v>795600</v>
+        <v>743100</v>
       </c>
       <c r="J26" s="3">
-        <v>558500</v>
+        <v>521700</v>
       </c>
       <c r="K26" s="3">
         <v>319700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1867200</v>
+        <v>-1744200</v>
       </c>
       <c r="E27" s="3">
-        <v>503600</v>
+        <v>470400</v>
       </c>
       <c r="F27" s="3">
-        <v>425600</v>
+        <v>397600</v>
       </c>
       <c r="G27" s="3">
-        <v>1000500</v>
+        <v>934600</v>
       </c>
       <c r="H27" s="3">
-        <v>709600</v>
+        <v>662800</v>
       </c>
       <c r="I27" s="3">
-        <v>715800</v>
+        <v>668600</v>
       </c>
       <c r="J27" s="3">
-        <v>538000</v>
+        <v>502500</v>
       </c>
       <c r="K27" s="3">
         <v>362500</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-404700</v>
+        <v>-378000</v>
       </c>
       <c r="E32" s="3">
-        <v>96500</v>
+        <v>90200</v>
       </c>
       <c r="F32" s="3">
-        <v>296100</v>
+        <v>276600</v>
       </c>
       <c r="G32" s="3">
-        <v>-372800</v>
+        <v>-348200</v>
       </c>
       <c r="H32" s="3">
-        <v>519000</v>
+        <v>484800</v>
       </c>
       <c r="I32" s="3">
-        <v>752400</v>
+        <v>702800</v>
       </c>
       <c r="J32" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="K32" s="3">
         <v>-334500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1867200</v>
+        <v>-1744200</v>
       </c>
       <c r="E33" s="3">
-        <v>503600</v>
+        <v>470400</v>
       </c>
       <c r="F33" s="3">
-        <v>425600</v>
+        <v>397600</v>
       </c>
       <c r="G33" s="3">
-        <v>1000500</v>
+        <v>934600</v>
       </c>
       <c r="H33" s="3">
-        <v>709600</v>
+        <v>662800</v>
       </c>
       <c r="I33" s="3">
-        <v>715800</v>
+        <v>668600</v>
       </c>
       <c r="J33" s="3">
-        <v>538000</v>
+        <v>502500</v>
       </c>
       <c r="K33" s="3">
         <v>362500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1867200</v>
+        <v>-1744200</v>
       </c>
       <c r="E35" s="3">
-        <v>503600</v>
+        <v>470400</v>
       </c>
       <c r="F35" s="3">
-        <v>425600</v>
+        <v>397600</v>
       </c>
       <c r="G35" s="3">
-        <v>1000500</v>
+        <v>934600</v>
       </c>
       <c r="H35" s="3">
-        <v>709600</v>
+        <v>662800</v>
       </c>
       <c r="I35" s="3">
-        <v>715800</v>
+        <v>668600</v>
       </c>
       <c r="J35" s="3">
-        <v>538000</v>
+        <v>502500</v>
       </c>
       <c r="K35" s="3">
         <v>362500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1207000</v>
+        <v>1127500</v>
       </c>
       <c r="E41" s="3">
-        <v>213000</v>
+        <v>198900</v>
       </c>
       <c r="F41" s="3">
-        <v>101900</v>
+        <v>95200</v>
       </c>
       <c r="G41" s="3">
-        <v>726500</v>
+        <v>678600</v>
       </c>
       <c r="H41" s="3">
-        <v>267400</v>
+        <v>249800</v>
       </c>
       <c r="I41" s="3">
-        <v>1432500</v>
+        <v>1338000</v>
       </c>
       <c r="J41" s="3">
-        <v>213800</v>
+        <v>199700</v>
       </c>
       <c r="K41" s="3">
         <v>304800</v>
@@ -1774,13 +1774,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="E42" s="3">
-        <v>19100</v>
+        <v>17800</v>
       </c>
       <c r="F42" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1898300</v>
+        <v>1773200</v>
       </c>
       <c r="E43" s="3">
-        <v>2357900</v>
+        <v>2202400</v>
       </c>
       <c r="F43" s="3">
-        <v>1941200</v>
+        <v>1813300</v>
       </c>
       <c r="G43" s="3">
-        <v>1647300</v>
+        <v>1538700</v>
       </c>
       <c r="H43" s="3">
-        <v>1389700</v>
+        <v>1298100</v>
       </c>
       <c r="I43" s="3">
-        <v>1600200</v>
+        <v>1494700</v>
       </c>
       <c r="J43" s="3">
-        <v>609300</v>
+        <v>569100</v>
       </c>
       <c r="K43" s="3">
         <v>538500</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>324000</v>
+        <v>302700</v>
       </c>
       <c r="E44" s="3">
-        <v>379700</v>
+        <v>354700</v>
       </c>
       <c r="F44" s="3">
-        <v>307600</v>
+        <v>287400</v>
       </c>
       <c r="G44" s="3">
-        <v>344700</v>
+        <v>322000</v>
       </c>
       <c r="H44" s="3">
-        <v>354600</v>
+        <v>331300</v>
       </c>
       <c r="I44" s="3">
-        <v>324400</v>
+        <v>303000</v>
       </c>
       <c r="J44" s="3">
-        <v>356400</v>
+        <v>332900</v>
       </c>
       <c r="K44" s="3">
         <v>352200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>104900</v>
+        <v>98000</v>
       </c>
       <c r="E45" s="3">
-        <v>145000</v>
+        <v>135400</v>
       </c>
       <c r="F45" s="3">
-        <v>147500</v>
+        <v>137800</v>
       </c>
       <c r="G45" s="3">
-        <v>167400</v>
+        <v>156300</v>
       </c>
       <c r="H45" s="3">
-        <v>494700</v>
+        <v>462100</v>
       </c>
       <c r="I45" s="3">
-        <v>283800</v>
+        <v>265100</v>
       </c>
       <c r="J45" s="3">
-        <v>1698600</v>
+        <v>1586600</v>
       </c>
       <c r="K45" s="3">
         <v>731000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3549300</v>
+        <v>3315300</v>
       </c>
       <c r="E46" s="3">
-        <v>3114700</v>
+        <v>2909300</v>
       </c>
       <c r="F46" s="3">
-        <v>2513400</v>
+        <v>2347700</v>
       </c>
       <c r="G46" s="3">
-        <v>2885900</v>
+        <v>2695700</v>
       </c>
       <c r="H46" s="3">
-        <v>2506500</v>
+        <v>2341300</v>
       </c>
       <c r="I46" s="3">
-        <v>3640800</v>
+        <v>3400800</v>
       </c>
       <c r="J46" s="3">
-        <v>2878000</v>
+        <v>2688300</v>
       </c>
       <c r="K46" s="3">
         <v>1926500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>733000</v>
+        <v>684600</v>
       </c>
       <c r="E47" s="3">
-        <v>618400</v>
+        <v>577700</v>
       </c>
       <c r="F47" s="3">
-        <v>564000</v>
+        <v>526800</v>
       </c>
       <c r="G47" s="3">
-        <v>485300</v>
+        <v>453300</v>
       </c>
       <c r="H47" s="3">
-        <v>439800</v>
+        <v>410800</v>
       </c>
       <c r="I47" s="3">
-        <v>550100</v>
+        <v>513800</v>
       </c>
       <c r="J47" s="3">
-        <v>319300</v>
+        <v>298300</v>
       </c>
       <c r="K47" s="3">
         <v>291500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37357900</v>
+        <v>34895100</v>
       </c>
       <c r="E48" s="3">
-        <v>38678300</v>
+        <v>36128500</v>
       </c>
       <c r="F48" s="3">
-        <v>32016900</v>
+        <v>29906300</v>
       </c>
       <c r="G48" s="3">
-        <v>30310000</v>
+        <v>28311800</v>
       </c>
       <c r="H48" s="3">
-        <v>27946100</v>
+        <v>26103800</v>
       </c>
       <c r="I48" s="3">
-        <v>24465600</v>
+        <v>22852700</v>
       </c>
       <c r="J48" s="3">
-        <v>20461300</v>
+        <v>19112400</v>
       </c>
       <c r="K48" s="3">
         <v>16665100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1848600</v>
+        <v>1726800</v>
       </c>
       <c r="E49" s="3">
-        <v>1845500</v>
+        <v>1723800</v>
       </c>
       <c r="F49" s="3">
-        <v>1831400</v>
+        <v>1710700</v>
       </c>
       <c r="G49" s="3">
-        <v>1829400</v>
+        <v>1708800</v>
       </c>
       <c r="H49" s="3">
-        <v>1833800</v>
+        <v>1712900</v>
       </c>
       <c r="I49" s="3">
-        <v>1817700</v>
+        <v>1697900</v>
       </c>
       <c r="J49" s="3">
-        <v>1814200</v>
+        <v>1694600</v>
       </c>
       <c r="K49" s="3">
         <v>1755500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1417600</v>
+        <v>1324200</v>
       </c>
       <c r="E52" s="3">
-        <v>733900</v>
+        <v>685500</v>
       </c>
       <c r="F52" s="3">
-        <v>781500</v>
+        <v>730000</v>
       </c>
       <c r="G52" s="3">
-        <v>731200</v>
+        <v>683000</v>
       </c>
       <c r="H52" s="3">
-        <v>770000</v>
+        <v>719300</v>
       </c>
       <c r="I52" s="3">
-        <v>761000</v>
+        <v>710900</v>
       </c>
       <c r="J52" s="3">
-        <v>688300</v>
+        <v>642900</v>
       </c>
       <c r="K52" s="3">
         <v>761000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>44906400</v>
+        <v>41946000</v>
       </c>
       <c r="E54" s="3">
-        <v>44990800</v>
+        <v>42024900</v>
       </c>
       <c r="F54" s="3">
-        <v>37707300</v>
+        <v>35221500</v>
       </c>
       <c r="G54" s="3">
-        <v>36241700</v>
+        <v>33852600</v>
       </c>
       <c r="H54" s="3">
-        <v>33496200</v>
+        <v>31288100</v>
       </c>
       <c r="I54" s="3">
-        <v>31235200</v>
+        <v>29176100</v>
       </c>
       <c r="J54" s="3">
-        <v>26161200</v>
+        <v>24436600</v>
       </c>
       <c r="K54" s="3">
         <v>21399600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>508000</v>
+        <v>474500</v>
       </c>
       <c r="E57" s="3">
-        <v>611600</v>
+        <v>571300</v>
       </c>
       <c r="F57" s="3">
-        <v>637400</v>
+        <v>595300</v>
       </c>
       <c r="G57" s="3">
-        <v>502300</v>
+        <v>469200</v>
       </c>
       <c r="H57" s="3">
-        <v>532600</v>
+        <v>497500</v>
       </c>
       <c r="I57" s="3">
-        <v>585600</v>
+        <v>547000</v>
       </c>
       <c r="J57" s="3">
-        <v>328600</v>
+        <v>307000</v>
       </c>
       <c r="K57" s="3">
         <v>529100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11236100</v>
+        <v>10495400</v>
       </c>
       <c r="E58" s="3">
-        <v>6440200</v>
+        <v>6015700</v>
       </c>
       <c r="F58" s="3">
-        <v>6093200</v>
+        <v>5691500</v>
       </c>
       <c r="G58" s="3">
-        <v>7624700</v>
+        <v>7122100</v>
       </c>
       <c r="H58" s="3">
-        <v>5567200</v>
+        <v>5200200</v>
       </c>
       <c r="I58" s="3">
-        <v>6992400</v>
+        <v>6531400</v>
       </c>
       <c r="J58" s="3">
-        <v>5249000</v>
+        <v>4903000</v>
       </c>
       <c r="K58" s="3">
         <v>4012900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4001600</v>
+        <v>3737800</v>
       </c>
       <c r="E59" s="3">
-        <v>5310700</v>
+        <v>4960600</v>
       </c>
       <c r="F59" s="3">
-        <v>4796100</v>
+        <v>4479900</v>
       </c>
       <c r="G59" s="3">
-        <v>4545500</v>
+        <v>4245900</v>
       </c>
       <c r="H59" s="3">
-        <v>4640800</v>
+        <v>4334900</v>
       </c>
       <c r="I59" s="3">
-        <v>4157300</v>
+        <v>3883200</v>
       </c>
       <c r="J59" s="3">
-        <v>4066300</v>
+        <v>3798200</v>
       </c>
       <c r="K59" s="3">
         <v>3567900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15745700</v>
+        <v>14707700</v>
       </c>
       <c r="E60" s="3">
-        <v>12362500</v>
+        <v>11547600</v>
       </c>
       <c r="F60" s="3">
-        <v>11526600</v>
+        <v>10766700</v>
       </c>
       <c r="G60" s="3">
-        <v>12672500</v>
+        <v>11837100</v>
       </c>
       <c r="H60" s="3">
-        <v>10740600</v>
+        <v>10032600</v>
       </c>
       <c r="I60" s="3">
-        <v>11735300</v>
+        <v>10961700</v>
       </c>
       <c r="J60" s="3">
-        <v>9643900</v>
+        <v>9008100</v>
       </c>
       <c r="K60" s="3">
         <v>8109800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17814700</v>
+        <v>16640300</v>
       </c>
       <c r="E61" s="3">
-        <v>19134600</v>
+        <v>17873100</v>
       </c>
       <c r="F61" s="3">
-        <v>14818400</v>
+        <v>13841500</v>
       </c>
       <c r="G61" s="3">
-        <v>12989600</v>
+        <v>12133300</v>
       </c>
       <c r="H61" s="3">
-        <v>13012700</v>
+        <v>12154800</v>
       </c>
       <c r="I61" s="3">
-        <v>11798600</v>
+        <v>11020800</v>
       </c>
       <c r="J61" s="3">
-        <v>10193200</v>
+        <v>9521200</v>
       </c>
       <c r="K61" s="3">
         <v>7252500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2013800</v>
+        <v>1881100</v>
       </c>
       <c r="E62" s="3">
-        <v>2033100</v>
+        <v>1899000</v>
       </c>
       <c r="F62" s="3">
-        <v>1644200</v>
+        <v>1535800</v>
       </c>
       <c r="G62" s="3">
-        <v>1306700</v>
+        <v>1220600</v>
       </c>
       <c r="H62" s="3">
-        <v>1481700</v>
+        <v>1384000</v>
       </c>
       <c r="I62" s="3">
-        <v>1401900</v>
+        <v>1309400</v>
       </c>
       <c r="J62" s="3">
-        <v>1311900</v>
+        <v>1225400</v>
       </c>
       <c r="K62" s="3">
         <v>1670500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36032500</v>
+        <v>33657200</v>
       </c>
       <c r="E66" s="3">
-        <v>34104100</v>
+        <v>31855800</v>
       </c>
       <c r="F66" s="3">
-        <v>28556000</v>
+        <v>26673500</v>
       </c>
       <c r="G66" s="3">
-        <v>27508100</v>
+        <v>25694700</v>
       </c>
       <c r="H66" s="3">
-        <v>25695000</v>
+        <v>24001100</v>
       </c>
       <c r="I66" s="3">
-        <v>25333300</v>
+        <v>23663200</v>
       </c>
       <c r="J66" s="3">
-        <v>21432500</v>
+        <v>20019600</v>
       </c>
       <c r="K66" s="3">
         <v>17289500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6289900</v>
+        <v>5875200</v>
       </c>
       <c r="E72" s="3">
-        <v>8302800</v>
+        <v>7755400</v>
       </c>
       <c r="F72" s="3">
-        <v>6869000</v>
+        <v>6416200</v>
       </c>
       <c r="G72" s="3">
-        <v>6451300</v>
+        <v>6026000</v>
       </c>
       <c r="H72" s="3">
-        <v>5518900</v>
+        <v>5155100</v>
       </c>
       <c r="I72" s="3">
-        <v>3829000</v>
+        <v>3576600</v>
       </c>
       <c r="J72" s="3">
-        <v>-446300</v>
+        <v>-416900</v>
       </c>
       <c r="K72" s="3">
         <v>-903100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8873800</v>
+        <v>8288900</v>
       </c>
       <c r="E76" s="3">
-        <v>10886700</v>
+        <v>10169000</v>
       </c>
       <c r="F76" s="3">
-        <v>9151300</v>
+        <v>8548100</v>
       </c>
       <c r="G76" s="3">
-        <v>8733600</v>
+        <v>8157800</v>
       </c>
       <c r="H76" s="3">
-        <v>7801200</v>
+        <v>7287000</v>
       </c>
       <c r="I76" s="3">
-        <v>5902000</v>
+        <v>5512900</v>
       </c>
       <c r="J76" s="3">
-        <v>4728700</v>
+        <v>4417000</v>
       </c>
       <c r="K76" s="3">
         <v>4110100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1867200</v>
+        <v>-1744200</v>
       </c>
       <c r="E81" s="3">
-        <v>503600</v>
+        <v>470400</v>
       </c>
       <c r="F81" s="3">
-        <v>425600</v>
+        <v>397600</v>
       </c>
       <c r="G81" s="3">
-        <v>1000500</v>
+        <v>934600</v>
       </c>
       <c r="H81" s="3">
-        <v>709600</v>
+        <v>662800</v>
       </c>
       <c r="I81" s="3">
-        <v>715800</v>
+        <v>668600</v>
       </c>
       <c r="J81" s="3">
-        <v>538000</v>
+        <v>502500</v>
       </c>
       <c r="K81" s="3">
         <v>362500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3421000</v>
+        <v>3174700</v>
       </c>
       <c r="E83" s="3">
-        <v>3398800</v>
+        <v>2250200</v>
       </c>
       <c r="F83" s="3">
-        <v>2409000</v>
+        <v>2051800</v>
       </c>
       <c r="G83" s="3">
-        <v>2196700</v>
+        <v>1839800</v>
       </c>
       <c r="H83" s="3">
-        <v>1969600</v>
+        <v>1591300</v>
       </c>
       <c r="I83" s="3">
-        <v>1703700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1439600</v>
+        <v>1344700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>1248900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>191000</v>
+        <v>4269300</v>
       </c>
       <c r="E89" s="3">
-        <v>4570600</v>
+        <v>3291700</v>
       </c>
       <c r="F89" s="3">
-        <v>3524000</v>
+        <v>2884100</v>
       </c>
       <c r="G89" s="3">
-        <v>3087700</v>
+        <v>3668200</v>
       </c>
       <c r="H89" s="3">
-        <v>3927100</v>
+        <v>3584500</v>
       </c>
       <c r="I89" s="3">
-        <v>3837500</v>
+        <v>1811900</v>
       </c>
       <c r="J89" s="3">
-        <v>1939800</v>
+        <v>1592400</v>
       </c>
       <c r="K89" s="3">
         <v>1651000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1143300</v>
+        <v>-1118300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1197200</v>
+        <v>-1569800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1680600</v>
+        <v>-1148800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1229900</v>
+        <v>-3173100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3397000</v>
+        <v>-1268600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1358200</v>
+        <v>-858800</v>
       </c>
       <c r="J91" s="3">
-        <v>-919400</v>
+        <v>-268500</v>
       </c>
       <c r="K91" s="3">
         <v>-278400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-991200</v>
+        <v>-721900</v>
       </c>
       <c r="E94" s="3">
-        <v>-772900</v>
+        <v>-1883300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2016200</v>
+        <v>-3140500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3362200</v>
+        <v>-5478800</v>
       </c>
       <c r="H94" s="3">
-        <v>-5865500</v>
+        <v>-4096600</v>
       </c>
       <c r="I94" s="3">
-        <v>-4385700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-3791400</v>
+        <v>-3541500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-2601500</v>
@@ -3531,19 +3531,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-129200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-108800</v>
       </c>
       <c r="F96" s="3">
-        <v>-116400</v>
+        <v>-104500</v>
       </c>
       <c r="G96" s="3">
-        <v>-111900</v>
+        <v>-108800</v>
       </c>
       <c r="H96" s="3">
-        <v>-116400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1802600</v>
+        <v>-3444500</v>
       </c>
       <c r="E100" s="3">
-        <v>-3687600</v>
+        <v>-1997900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2138900</v>
+        <v>693800</v>
       </c>
       <c r="G100" s="3">
-        <v>742700</v>
+        <v>682900</v>
       </c>
       <c r="H100" s="3">
-        <v>731100</v>
+        <v>1633200</v>
       </c>
       <c r="I100" s="3">
-        <v>1748500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1753000</v>
+        <v>1637500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>875400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8400</v>
+        <v>900</v>
       </c>
       <c r="E101" s="3">
-        <v>900</v>
+        <v>4400</v>
       </c>
       <c r="F101" s="3">
-        <v>4700</v>
+        <v>-6900</v>
       </c>
       <c r="G101" s="3">
-        <v>-7400</v>
+        <v>39500</v>
       </c>
       <c r="H101" s="3">
-        <v>42300</v>
+        <v>17200</v>
       </c>
       <c r="I101" s="3">
-        <v>18500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-3900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>994000</v>
+        <v>103700</v>
       </c>
       <c r="E102" s="3">
-        <v>111100</v>
+        <v>-585000</v>
       </c>
       <c r="F102" s="3">
-        <v>-626300</v>
+        <v>430400</v>
       </c>
       <c r="G102" s="3">
-        <v>460800</v>
+        <v>-1088300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1165100</v>
+        <v>1138400</v>
       </c>
       <c r="I102" s="3">
-        <v>1218700</v>
+        <v>-94300</v>
       </c>
       <c r="J102" s="3">
-        <v>-101000</v>
+        <v>-76100</v>
       </c>
       <c r="K102" s="3">
         <v>-78900</v>

--- a/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>CEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8654000</v>
+        <v>9802600</v>
       </c>
       <c r="E8" s="3">
-        <v>17828500</v>
+        <v>8575900</v>
       </c>
       <c r="F8" s="3">
-        <v>16987400</v>
+        <v>17667600</v>
       </c>
       <c r="G8" s="3">
-        <v>15100700</v>
+        <v>16834000</v>
       </c>
       <c r="H8" s="3">
-        <v>14574500</v>
+        <v>14964400</v>
       </c>
       <c r="I8" s="3">
-        <v>13847300</v>
+        <v>14443000</v>
       </c>
       <c r="J8" s="3">
+        <v>13722300</v>
+      </c>
+      <c r="K8" s="3">
         <v>13289700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13482100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12232100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12229400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7354700</v>
+        <v>8451500</v>
       </c>
       <c r="E9" s="3">
-        <v>12425800</v>
+        <v>7288400</v>
       </c>
       <c r="F9" s="3">
-        <v>11891100</v>
+        <v>12313700</v>
       </c>
       <c r="G9" s="3">
-        <v>10372500</v>
+        <v>11783700</v>
       </c>
       <c r="H9" s="3">
-        <v>9273400</v>
+        <v>10278900</v>
       </c>
       <c r="I9" s="3">
-        <v>8823000</v>
+        <v>9189700</v>
       </c>
       <c r="J9" s="3">
+        <v>8743400</v>
+      </c>
+      <c r="K9" s="3">
         <v>9248800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9990000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8042700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7901300</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1299300</v>
+        <v>1351100</v>
       </c>
       <c r="E10" s="3">
-        <v>5402700</v>
+        <v>1287500</v>
       </c>
       <c r="F10" s="3">
-        <v>5096300</v>
+        <v>5353900</v>
       </c>
       <c r="G10" s="3">
-        <v>4728200</v>
+        <v>5050300</v>
       </c>
       <c r="H10" s="3">
-        <v>5301100</v>
+        <v>4685500</v>
       </c>
       <c r="I10" s="3">
-        <v>5024200</v>
+        <v>5253300</v>
       </c>
       <c r="J10" s="3">
+        <v>4978900</v>
+      </c>
+      <c r="K10" s="3">
         <v>4040900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3492100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4189500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4328100</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9300</v>
+        <v>-20600</v>
       </c>
       <c r="E14" s="3">
-        <v>-6500</v>
+        <v>9200</v>
       </c>
       <c r="F14" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="G14" s="3">
         <v>5700</v>
       </c>
-      <c r="G14" s="3">
-        <v>-203900</v>
-      </c>
       <c r="H14" s="3">
+        <v>-202100</v>
+      </c>
+      <c r="I14" s="3">
         <v>2500</v>
       </c>
-      <c r="I14" s="3">
-        <v>26700</v>
-      </c>
       <c r="J14" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>28400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>94700</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3279500</v>
+        <v>3317500</v>
       </c>
       <c r="E15" s="3">
-        <v>3253700</v>
+        <v>3249900</v>
       </c>
       <c r="F15" s="3">
-        <v>2256500</v>
+        <v>3224300</v>
       </c>
       <c r="G15" s="3">
-        <v>2058500</v>
+        <v>2236200</v>
       </c>
       <c r="H15" s="3">
-        <v>1791000</v>
+        <v>2039900</v>
       </c>
       <c r="I15" s="3">
-        <v>1543000</v>
+        <v>1774800</v>
       </c>
       <c r="J15" s="3">
+        <v>1529100</v>
+      </c>
+      <c r="K15" s="3">
         <v>1353200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1256800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1084300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1033800</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10693500</v>
+        <v>11776600</v>
       </c>
       <c r="E17" s="3">
-        <v>16343000</v>
+        <v>10597000</v>
       </c>
       <c r="F17" s="3">
-        <v>15615600</v>
+        <v>16195500</v>
       </c>
       <c r="G17" s="3">
-        <v>13711000</v>
+        <v>15474700</v>
       </c>
       <c r="H17" s="3">
-        <v>12734600</v>
+        <v>13587200</v>
       </c>
       <c r="I17" s="3">
-        <v>11986900</v>
+        <v>12619600</v>
       </c>
       <c r="J17" s="3">
+        <v>11878700</v>
+      </c>
+      <c r="K17" s="3">
         <v>12397000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13241200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11625500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11610200</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2039500</v>
+        <v>-1974000</v>
       </c>
       <c r="E18" s="3">
-        <v>1485500</v>
+        <v>-2021100</v>
       </c>
       <c r="F18" s="3">
-        <v>1371800</v>
+        <v>1472100</v>
       </c>
       <c r="G18" s="3">
-        <v>1389800</v>
+        <v>1359400</v>
       </c>
       <c r="H18" s="3">
-        <v>1839900</v>
+        <v>1377200</v>
       </c>
       <c r="I18" s="3">
-        <v>1860400</v>
+        <v>1823300</v>
       </c>
       <c r="J18" s="3">
+        <v>1843600</v>
+      </c>
+      <c r="K18" s="3">
         <v>892700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>240800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>606600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>619200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>378000</v>
+        <v>265300</v>
       </c>
       <c r="E20" s="3">
-        <v>-90200</v>
+        <v>374600</v>
       </c>
       <c r="F20" s="3">
-        <v>-276600</v>
+        <v>-89400</v>
       </c>
       <c r="G20" s="3">
-        <v>348200</v>
+        <v>-274100</v>
       </c>
       <c r="H20" s="3">
-        <v>-484800</v>
+        <v>345100</v>
       </c>
       <c r="I20" s="3">
-        <v>-702800</v>
+        <v>-480400</v>
       </c>
       <c r="J20" s="3">
+        <v>-696400</v>
+      </c>
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>334500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>69100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>316200</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1545100</v>
+        <v>1513600</v>
       </c>
       <c r="E21" s="3">
-        <v>3668100</v>
+        <v>1515400</v>
       </c>
       <c r="F21" s="3">
-        <v>3167600</v>
+        <v>4524100</v>
       </c>
       <c r="G21" s="3">
-        <v>3596200</v>
+        <v>3311800</v>
       </c>
       <c r="H21" s="3">
-        <v>2962400</v>
+        <v>3752500</v>
       </c>
       <c r="I21" s="3">
-        <v>2515800</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>3163300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2721800</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1828400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1752800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1963100</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>768200</v>
+        <v>848700</v>
       </c>
       <c r="E22" s="3">
-        <v>761900</v>
+        <v>761300</v>
       </c>
       <c r="F22" s="3">
-        <v>527000</v>
+        <v>755000</v>
       </c>
       <c r="G22" s="3">
-        <v>469200</v>
+        <v>522200</v>
       </c>
       <c r="H22" s="3">
-        <v>397700</v>
+        <v>465000</v>
       </c>
       <c r="I22" s="3">
-        <v>322600</v>
+        <v>394100</v>
       </c>
       <c r="J22" s="3">
+        <v>319700</v>
+      </c>
+      <c r="K22" s="3">
         <v>288400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>236600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>243600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>217100</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2429700</v>
+        <v>-2557400</v>
       </c>
       <c r="E23" s="3">
-        <v>633500</v>
+        <v>-2407700</v>
       </c>
       <c r="F23" s="3">
-        <v>568200</v>
+        <v>627800</v>
       </c>
       <c r="G23" s="3">
-        <v>1268800</v>
+        <v>563100</v>
       </c>
       <c r="H23" s="3">
-        <v>957400</v>
+        <v>1257300</v>
       </c>
       <c r="I23" s="3">
-        <v>835100</v>
+        <v>948800</v>
       </c>
       <c r="J23" s="3">
+        <v>827600</v>
+      </c>
+      <c r="K23" s="3">
         <v>606100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>338700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>432200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>718400</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-578700</v>
+        <v>-617600</v>
       </c>
       <c r="E24" s="3">
-        <v>120700</v>
+        <v>-573500</v>
       </c>
       <c r="F24" s="3">
-        <v>136500</v>
+        <v>119600</v>
       </c>
       <c r="G24" s="3">
-        <v>265200</v>
+        <v>135200</v>
       </c>
       <c r="H24" s="3">
-        <v>227200</v>
+        <v>262900</v>
       </c>
       <c r="I24" s="3">
-        <v>92000</v>
+        <v>225200</v>
       </c>
       <c r="J24" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K24" s="3">
         <v>84400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39200</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1851000</v>
+        <v>-1939900</v>
       </c>
       <c r="E26" s="3">
-        <v>512800</v>
+        <v>-1834300</v>
       </c>
       <c r="F26" s="3">
-        <v>431800</v>
+        <v>508200</v>
       </c>
       <c r="G26" s="3">
-        <v>1003500</v>
+        <v>427900</v>
       </c>
       <c r="H26" s="3">
-        <v>730200</v>
+        <v>994500</v>
       </c>
       <c r="I26" s="3">
-        <v>743100</v>
+        <v>723600</v>
       </c>
       <c r="J26" s="3">
+        <v>736400</v>
+      </c>
+      <c r="K26" s="3">
         <v>521700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>319700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>402800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>679200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1744200</v>
+        <v>-1783600</v>
       </c>
       <c r="E27" s="3">
-        <v>470400</v>
+        <v>-1728400</v>
       </c>
       <c r="F27" s="3">
-        <v>397600</v>
+        <v>466100</v>
       </c>
       <c r="G27" s="3">
-        <v>934600</v>
+        <v>394000</v>
       </c>
       <c r="H27" s="3">
-        <v>662800</v>
+        <v>926100</v>
       </c>
       <c r="I27" s="3">
-        <v>668600</v>
+        <v>656800</v>
       </c>
       <c r="J27" s="3">
+        <v>662500</v>
+      </c>
+      <c r="K27" s="3">
         <v>502500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>362500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>423800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>679100</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-378000</v>
+        <v>-265300</v>
       </c>
       <c r="E32" s="3">
-        <v>90200</v>
+        <v>-374600</v>
       </c>
       <c r="F32" s="3">
-        <v>276600</v>
+        <v>89400</v>
       </c>
       <c r="G32" s="3">
-        <v>-348200</v>
+        <v>274100</v>
       </c>
       <c r="H32" s="3">
-        <v>484800</v>
+        <v>-345100</v>
       </c>
       <c r="I32" s="3">
-        <v>702800</v>
+        <v>480400</v>
       </c>
       <c r="J32" s="3">
+        <v>696400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-334500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-69100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-316200</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1744200</v>
+        <v>-1783600</v>
       </c>
       <c r="E33" s="3">
-        <v>470400</v>
+        <v>-1728400</v>
       </c>
       <c r="F33" s="3">
-        <v>397600</v>
+        <v>466100</v>
       </c>
       <c r="G33" s="3">
-        <v>934600</v>
+        <v>394000</v>
       </c>
       <c r="H33" s="3">
-        <v>662800</v>
+        <v>926100</v>
       </c>
       <c r="I33" s="3">
-        <v>668600</v>
+        <v>656800</v>
       </c>
       <c r="J33" s="3">
+        <v>662500</v>
+      </c>
+      <c r="K33" s="3">
         <v>502500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>362500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>423800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>679100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1744200</v>
+        <v>-1783600</v>
       </c>
       <c r="E35" s="3">
-        <v>470400</v>
+        <v>-1728400</v>
       </c>
       <c r="F35" s="3">
-        <v>397600</v>
+        <v>466100</v>
       </c>
       <c r="G35" s="3">
-        <v>934600</v>
+        <v>394000</v>
       </c>
       <c r="H35" s="3">
-        <v>662800</v>
+        <v>926100</v>
       </c>
       <c r="I35" s="3">
-        <v>668600</v>
+        <v>656800</v>
       </c>
       <c r="J35" s="3">
+        <v>662500</v>
+      </c>
+      <c r="K35" s="3">
         <v>502500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>362500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>423800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>679100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,58 +1817,62 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1127500</v>
+        <v>1891100</v>
       </c>
       <c r="E41" s="3">
-        <v>198900</v>
+        <v>1117300</v>
       </c>
       <c r="F41" s="3">
-        <v>95200</v>
+        <v>197100</v>
       </c>
       <c r="G41" s="3">
-        <v>678600</v>
+        <v>94300</v>
       </c>
       <c r="H41" s="3">
-        <v>249800</v>
+        <v>672500</v>
       </c>
       <c r="I41" s="3">
-        <v>1338000</v>
+        <v>247500</v>
       </c>
       <c r="J41" s="3">
+        <v>1326000</v>
+      </c>
+      <c r="K41" s="3">
         <v>199700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>304800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>360400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>573000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F42" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G42" s="3">
         <v>14000</v>
-      </c>
-      <c r="E42" s="3">
-        <v>17800</v>
-      </c>
-      <c r="F42" s="3">
-        <v>14100</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1800,264 +1889,288 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1773200</v>
+        <v>1849900</v>
       </c>
       <c r="E43" s="3">
-        <v>2202400</v>
+        <v>1757200</v>
       </c>
       <c r="F43" s="3">
-        <v>1813300</v>
+        <v>2182600</v>
       </c>
       <c r="G43" s="3">
-        <v>1538700</v>
+        <v>1796900</v>
       </c>
       <c r="H43" s="3">
-        <v>1298100</v>
+        <v>1524800</v>
       </c>
       <c r="I43" s="3">
-        <v>1494700</v>
+        <v>1286400</v>
       </c>
       <c r="J43" s="3">
+        <v>1481200</v>
+      </c>
+      <c r="K43" s="3">
         <v>569100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>538500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>425000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>371600</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>302700</v>
+        <v>262700</v>
       </c>
       <c r="E44" s="3">
-        <v>354700</v>
+        <v>299900</v>
       </c>
       <c r="F44" s="3">
-        <v>287400</v>
+        <v>351500</v>
       </c>
       <c r="G44" s="3">
-        <v>322000</v>
+        <v>284800</v>
       </c>
       <c r="H44" s="3">
-        <v>331300</v>
+        <v>319100</v>
       </c>
       <c r="I44" s="3">
-        <v>303000</v>
+        <v>328300</v>
       </c>
       <c r="J44" s="3">
+        <v>300200</v>
+      </c>
+      <c r="K44" s="3">
         <v>332900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>352200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>299600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>230900</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>98000</v>
+        <v>59700</v>
       </c>
       <c r="E45" s="3">
-        <v>135400</v>
+        <v>97100</v>
       </c>
       <c r="F45" s="3">
-        <v>137800</v>
+        <v>134200</v>
       </c>
       <c r="G45" s="3">
-        <v>156300</v>
+        <v>136500</v>
       </c>
       <c r="H45" s="3">
-        <v>462100</v>
+        <v>154900</v>
       </c>
       <c r="I45" s="3">
-        <v>265100</v>
+        <v>458000</v>
       </c>
       <c r="J45" s="3">
+        <v>262700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1586600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>731000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>733600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>858900</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3315300</v>
+        <v>4075700</v>
       </c>
       <c r="E46" s="3">
-        <v>2909300</v>
+        <v>3285400</v>
       </c>
       <c r="F46" s="3">
-        <v>2347700</v>
+        <v>2883100</v>
       </c>
       <c r="G46" s="3">
-        <v>2695700</v>
+        <v>2326500</v>
       </c>
       <c r="H46" s="3">
-        <v>2341300</v>
+        <v>2671300</v>
       </c>
       <c r="I46" s="3">
-        <v>3400800</v>
+        <v>2320100</v>
       </c>
       <c r="J46" s="3">
+        <v>3370100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2688300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1926500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1818600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2034400</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>684600</v>
+        <v>562500</v>
       </c>
       <c r="E47" s="3">
-        <v>577700</v>
+        <v>678500</v>
       </c>
       <c r="F47" s="3">
-        <v>526800</v>
+        <v>572400</v>
       </c>
       <c r="G47" s="3">
-        <v>453300</v>
+        <v>522100</v>
       </c>
       <c r="H47" s="3">
-        <v>410800</v>
+        <v>449200</v>
       </c>
       <c r="I47" s="3">
-        <v>513800</v>
+        <v>407100</v>
       </c>
       <c r="J47" s="3">
+        <v>509200</v>
+      </c>
+      <c r="K47" s="3">
         <v>298300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>291500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>213300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>222800</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34895100</v>
+        <v>33957800</v>
       </c>
       <c r="E48" s="3">
-        <v>36128500</v>
+        <v>34580200</v>
       </c>
       <c r="F48" s="3">
-        <v>29906300</v>
+        <v>35802500</v>
       </c>
       <c r="G48" s="3">
-        <v>28311800</v>
+        <v>29636400</v>
       </c>
       <c r="H48" s="3">
-        <v>26103800</v>
+        <v>28056300</v>
       </c>
       <c r="I48" s="3">
-        <v>22852700</v>
+        <v>25868200</v>
       </c>
       <c r="J48" s="3">
+        <v>22646500</v>
+      </c>
+      <c r="K48" s="3">
         <v>19112400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16665100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13546500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12574200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1726800</v>
+        <v>1710400</v>
       </c>
       <c r="E49" s="3">
-        <v>1723800</v>
+        <v>1711200</v>
       </c>
       <c r="F49" s="3">
-        <v>1710700</v>
+        <v>1708300</v>
       </c>
       <c r="G49" s="3">
-        <v>1708800</v>
+        <v>1695300</v>
       </c>
       <c r="H49" s="3">
-        <v>1712900</v>
+        <v>1693400</v>
       </c>
       <c r="I49" s="3">
-        <v>1697900</v>
+        <v>1697500</v>
       </c>
       <c r="J49" s="3">
+        <v>1682600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1694600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1755500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1642700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1685000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1324200</v>
+        <v>1865500</v>
       </c>
       <c r="E52" s="3">
-        <v>685500</v>
+        <v>1312200</v>
       </c>
       <c r="F52" s="3">
-        <v>730000</v>
+        <v>679300</v>
       </c>
       <c r="G52" s="3">
-        <v>683000</v>
+        <v>723400</v>
       </c>
       <c r="H52" s="3">
-        <v>719300</v>
+        <v>676800</v>
       </c>
       <c r="I52" s="3">
-        <v>710900</v>
+        <v>712800</v>
       </c>
       <c r="J52" s="3">
+        <v>704400</v>
+      </c>
+      <c r="K52" s="3">
         <v>642900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>761000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>544500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>512000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41946000</v>
+        <v>42172000</v>
       </c>
       <c r="E54" s="3">
-        <v>42024900</v>
+        <v>41567400</v>
       </c>
       <c r="F54" s="3">
-        <v>35221500</v>
+        <v>41645600</v>
       </c>
       <c r="G54" s="3">
-        <v>33852600</v>
+        <v>34903700</v>
       </c>
       <c r="H54" s="3">
-        <v>31288100</v>
+        <v>33547000</v>
       </c>
       <c r="I54" s="3">
-        <v>29176100</v>
+        <v>31005700</v>
       </c>
       <c r="J54" s="3">
+        <v>28912800</v>
+      </c>
+      <c r="K54" s="3">
         <v>24436600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21399600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17765500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17028400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>474500</v>
+        <v>358400</v>
       </c>
       <c r="E57" s="3">
-        <v>571300</v>
+        <v>470200</v>
       </c>
       <c r="F57" s="3">
-        <v>595300</v>
+        <v>566200</v>
       </c>
       <c r="G57" s="3">
+        <v>590000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>465000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>493000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>542100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>307000</v>
+      </c>
+      <c r="L57" s="3">
+        <v>529100</v>
+      </c>
+      <c r="M57" s="3">
         <v>469200</v>
       </c>
-      <c r="H57" s="3">
-        <v>497500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>547000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>307000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>529100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>469200</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>413900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10495400</v>
+        <v>8958800</v>
       </c>
       <c r="E58" s="3">
-        <v>6015700</v>
+        <v>10400700</v>
       </c>
       <c r="F58" s="3">
-        <v>5691500</v>
+        <v>5961400</v>
       </c>
       <c r="G58" s="3">
-        <v>7122100</v>
+        <v>5640100</v>
       </c>
       <c r="H58" s="3">
-        <v>5200200</v>
+        <v>7057800</v>
       </c>
       <c r="I58" s="3">
-        <v>6531400</v>
+        <v>5153300</v>
       </c>
       <c r="J58" s="3">
+        <v>6472500</v>
+      </c>
+      <c r="K58" s="3">
         <v>4903000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4012900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3727500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3117500</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3737800</v>
+        <v>3225500</v>
       </c>
       <c r="E59" s="3">
-        <v>4960600</v>
+        <v>3704100</v>
       </c>
       <c r="F59" s="3">
-        <v>4479900</v>
+        <v>4915800</v>
       </c>
       <c r="G59" s="3">
-        <v>4245900</v>
+        <v>4439500</v>
       </c>
       <c r="H59" s="3">
-        <v>4334900</v>
+        <v>4207600</v>
       </c>
       <c r="I59" s="3">
-        <v>3883200</v>
+        <v>4295800</v>
       </c>
       <c r="J59" s="3">
+        <v>3848200</v>
+      </c>
+      <c r="K59" s="3">
         <v>3798200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3567900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2779700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2907600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14707700</v>
+        <v>12542700</v>
       </c>
       <c r="E60" s="3">
-        <v>11547600</v>
+        <v>14575000</v>
       </c>
       <c r="F60" s="3">
-        <v>10766700</v>
+        <v>11443300</v>
       </c>
       <c r="G60" s="3">
-        <v>11837100</v>
+        <v>10669500</v>
       </c>
       <c r="H60" s="3">
-        <v>10032600</v>
+        <v>11730300</v>
       </c>
       <c r="I60" s="3">
-        <v>10961700</v>
+        <v>9942000</v>
       </c>
       <c r="J60" s="3">
+        <v>10862700</v>
+      </c>
+      <c r="K60" s="3">
         <v>9008100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8109800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6976400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6439000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16640300</v>
+        <v>19410000</v>
       </c>
       <c r="E61" s="3">
-        <v>17873100</v>
+        <v>16490100</v>
       </c>
       <c r="F61" s="3">
-        <v>13841500</v>
+        <v>17711800</v>
       </c>
       <c r="G61" s="3">
-        <v>12133300</v>
+        <v>13716600</v>
       </c>
       <c r="H61" s="3">
-        <v>12154800</v>
+        <v>12023800</v>
       </c>
       <c r="I61" s="3">
-        <v>11020800</v>
+        <v>12045100</v>
       </c>
       <c r="J61" s="3">
+        <v>10921300</v>
+      </c>
+      <c r="K61" s="3">
         <v>9521200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7252500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6076200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6144900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1881100</v>
+        <v>1873400</v>
       </c>
       <c r="E62" s="3">
-        <v>1899000</v>
+        <v>1864100</v>
       </c>
       <c r="F62" s="3">
-        <v>1535800</v>
+        <v>1881900</v>
       </c>
       <c r="G62" s="3">
-        <v>1220600</v>
+        <v>1521900</v>
       </c>
       <c r="H62" s="3">
-        <v>1384000</v>
+        <v>1209600</v>
       </c>
       <c r="I62" s="3">
-        <v>1309400</v>
+        <v>1371500</v>
       </c>
       <c r="J62" s="3">
+        <v>1297600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1225400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1670500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1189900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1208400</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33657200</v>
+        <v>34342600</v>
       </c>
       <c r="E66" s="3">
-        <v>31855800</v>
+        <v>33353400</v>
       </c>
       <c r="F66" s="3">
-        <v>26673500</v>
+        <v>31568300</v>
       </c>
       <c r="G66" s="3">
-        <v>25694700</v>
+        <v>26432700</v>
       </c>
       <c r="H66" s="3">
-        <v>24001100</v>
+        <v>25462800</v>
       </c>
       <c r="I66" s="3">
-        <v>23663200</v>
+        <v>23784500</v>
       </c>
       <c r="J66" s="3">
+        <v>23449600</v>
+      </c>
+      <c r="K66" s="3">
         <v>20019600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17289500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14476100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14041500</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5875200</v>
+        <v>5073200</v>
       </c>
       <c r="E72" s="3">
-        <v>7755400</v>
+        <v>5822200</v>
       </c>
       <c r="F72" s="3">
-        <v>6416200</v>
+        <v>7685400</v>
       </c>
       <c r="G72" s="3">
-        <v>6026000</v>
+        <v>6358300</v>
       </c>
       <c r="H72" s="3">
-        <v>5155100</v>
+        <v>5971600</v>
       </c>
       <c r="I72" s="3">
-        <v>3576600</v>
+        <v>5108600</v>
       </c>
       <c r="J72" s="3">
+        <v>3544300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-416900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-903100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-913300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1382000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8288900</v>
+        <v>7829400</v>
       </c>
       <c r="E76" s="3">
-        <v>10169000</v>
+        <v>8214000</v>
       </c>
       <c r="F76" s="3">
-        <v>8548100</v>
+        <v>10077200</v>
       </c>
       <c r="G76" s="3">
-        <v>8157800</v>
+        <v>8470900</v>
       </c>
       <c r="H76" s="3">
-        <v>7287000</v>
+        <v>8084200</v>
       </c>
       <c r="I76" s="3">
-        <v>5512900</v>
+        <v>7221200</v>
       </c>
       <c r="J76" s="3">
+        <v>5463100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4417000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4110100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3289400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2986900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1744200</v>
+        <v>-1783600</v>
       </c>
       <c r="E81" s="3">
-        <v>470400</v>
+        <v>-1728400</v>
       </c>
       <c r="F81" s="3">
-        <v>397600</v>
+        <v>466100</v>
       </c>
       <c r="G81" s="3">
-        <v>934600</v>
+        <v>394000</v>
       </c>
       <c r="H81" s="3">
-        <v>662800</v>
+        <v>926100</v>
       </c>
       <c r="I81" s="3">
-        <v>668600</v>
+        <v>656800</v>
       </c>
       <c r="J81" s="3">
+        <v>662500</v>
+      </c>
+      <c r="K81" s="3">
         <v>502500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>362500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>423800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>679100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3174700</v>
+        <v>3227100</v>
       </c>
       <c r="E83" s="3">
-        <v>2250200</v>
+        <v>3166700</v>
       </c>
       <c r="F83" s="3">
-        <v>2051800</v>
+        <v>3146100</v>
       </c>
       <c r="G83" s="3">
-        <v>1839800</v>
+        <v>2229900</v>
       </c>
       <c r="H83" s="3">
-        <v>1591300</v>
+        <v>2033300</v>
       </c>
       <c r="I83" s="3">
-        <v>1344700</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>1823200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1577000</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1248900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1077400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1025800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4269300</v>
+        <v>831200</v>
       </c>
       <c r="E89" s="3">
-        <v>3291700</v>
+        <v>176800</v>
       </c>
       <c r="F89" s="3">
-        <v>2884100</v>
+        <v>4230800</v>
       </c>
       <c r="G89" s="3">
-        <v>3668200</v>
+        <v>3262000</v>
       </c>
       <c r="H89" s="3">
-        <v>3584500</v>
+        <v>2858100</v>
       </c>
       <c r="I89" s="3">
-        <v>1811900</v>
+        <v>3635100</v>
       </c>
       <c r="J89" s="3">
+        <v>3552200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1592400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1651000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1810300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2021800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1118300</v>
+        <v>-1578100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1569800</v>
+        <v>-1058300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1148800</v>
+        <v>-1108200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3173100</v>
+        <v>-1555700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1268600</v>
+        <v>-1138400</v>
       </c>
       <c r="I91" s="3">
-        <v>-858800</v>
+        <v>-3144500</v>
       </c>
       <c r="J91" s="3">
+        <v>-1257200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-268500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-278400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-882100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-796700</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-721900</v>
+        <v>314700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1883300</v>
+        <v>-917500</v>
       </c>
       <c r="F94" s="3">
-        <v>-3140500</v>
+        <v>-715400</v>
       </c>
       <c r="G94" s="3">
-        <v>-5478800</v>
+        <v>-1866300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4096600</v>
+        <v>-3112200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3541500</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-5429400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-4059600</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2601500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1691500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2217100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3534,19 +3767,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-108800</v>
+        <v>-119600</v>
       </c>
       <c r="F96" s="3">
-        <v>-104500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-108800</v>
+        <v>-107800</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-103500</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-107800</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3444500</v>
+        <v>-368900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1997900</v>
+        <v>1668500</v>
       </c>
       <c r="F100" s="3">
-        <v>693800</v>
+        <v>-3413500</v>
       </c>
       <c r="G100" s="3">
-        <v>682900</v>
+        <v>-1979900</v>
       </c>
       <c r="H100" s="3">
-        <v>1633200</v>
+        <v>687500</v>
       </c>
       <c r="I100" s="3">
-        <v>1637500</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>676700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1618500</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>875400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-312000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>316900</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>4400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-6900</v>
       </c>
-      <c r="G101" s="3">
-        <v>39500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>17200</v>
-      </c>
       <c r="I101" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>39100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5500</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>103700</v>
+        <v>773800</v>
       </c>
       <c r="E102" s="3">
-        <v>-585000</v>
+        <v>920100</v>
       </c>
       <c r="F102" s="3">
-        <v>430400</v>
+        <v>102800</v>
       </c>
       <c r="G102" s="3">
-        <v>-1088300</v>
+        <v>-579700</v>
       </c>
       <c r="H102" s="3">
-        <v>1138400</v>
+        <v>426600</v>
       </c>
       <c r="I102" s="3">
-        <v>-94300</v>
+        <v>-1078400</v>
       </c>
       <c r="J102" s="3">
+        <v>1128100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-76100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-78900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-193600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>116200</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEA_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9802600</v>
+        <v>9344100</v>
       </c>
       <c r="E8" s="3">
-        <v>8575900</v>
+        <v>8174800</v>
       </c>
       <c r="F8" s="3">
-        <v>17667600</v>
+        <v>16841300</v>
       </c>
       <c r="G8" s="3">
-        <v>16834000</v>
+        <v>16046700</v>
       </c>
       <c r="H8" s="3">
-        <v>14964400</v>
+        <v>14264500</v>
       </c>
       <c r="I8" s="3">
-        <v>14443000</v>
+        <v>13767400</v>
       </c>
       <c r="J8" s="3">
-        <v>13722300</v>
+        <v>13080500</v>
       </c>
       <c r="K8" s="3">
         <v>13289700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8451500</v>
+        <v>8056200</v>
       </c>
       <c r="E9" s="3">
-        <v>7288400</v>
+        <v>6947500</v>
       </c>
       <c r="F9" s="3">
-        <v>12313700</v>
+        <v>11737800</v>
       </c>
       <c r="G9" s="3">
-        <v>11783700</v>
+        <v>11232600</v>
       </c>
       <c r="H9" s="3">
-        <v>10278900</v>
+        <v>9798100</v>
       </c>
       <c r="I9" s="3">
-        <v>9189700</v>
+        <v>8759900</v>
       </c>
       <c r="J9" s="3">
-        <v>8743400</v>
+        <v>8334500</v>
       </c>
       <c r="K9" s="3">
         <v>9248800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1351100</v>
+        <v>1287900</v>
       </c>
       <c r="E10" s="3">
-        <v>1287500</v>
+        <v>1227300</v>
       </c>
       <c r="F10" s="3">
-        <v>5353900</v>
+        <v>5103500</v>
       </c>
       <c r="G10" s="3">
-        <v>5050300</v>
+        <v>4814100</v>
       </c>
       <c r="H10" s="3">
-        <v>4685500</v>
+        <v>4466400</v>
       </c>
       <c r="I10" s="3">
-        <v>5253300</v>
+        <v>5007600</v>
       </c>
       <c r="J10" s="3">
-        <v>4978900</v>
+        <v>4746000</v>
       </c>
       <c r="K10" s="3">
         <v>4040900</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-20600</v>
+        <v>-19600</v>
       </c>
       <c r="E14" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="F14" s="3">
-        <v>-6400</v>
+        <v>-6100</v>
       </c>
       <c r="G14" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="H14" s="3">
-        <v>-202100</v>
+        <v>-192700</v>
       </c>
       <c r="I14" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J14" s="3">
-        <v>26400</v>
+        <v>25200</v>
       </c>
       <c r="K14" s="3">
         <v>1800</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3317500</v>
+        <v>3162300</v>
       </c>
       <c r="E15" s="3">
-        <v>3249900</v>
+        <v>3097900</v>
       </c>
       <c r="F15" s="3">
-        <v>3224300</v>
+        <v>3073500</v>
       </c>
       <c r="G15" s="3">
-        <v>2236200</v>
+        <v>2131600</v>
       </c>
       <c r="H15" s="3">
-        <v>2039900</v>
+        <v>1944500</v>
       </c>
       <c r="I15" s="3">
-        <v>1774800</v>
+        <v>1691800</v>
       </c>
       <c r="J15" s="3">
-        <v>1529100</v>
+        <v>1457600</v>
       </c>
       <c r="K15" s="3">
         <v>1353200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11776600</v>
+        <v>11225800</v>
       </c>
       <c r="E17" s="3">
-        <v>10597000</v>
+        <v>10101300</v>
       </c>
       <c r="F17" s="3">
-        <v>16195500</v>
+        <v>15438000</v>
       </c>
       <c r="G17" s="3">
-        <v>15474700</v>
+        <v>14750900</v>
       </c>
       <c r="H17" s="3">
-        <v>13587200</v>
+        <v>12951700</v>
       </c>
       <c r="I17" s="3">
-        <v>12619600</v>
+        <v>12029400</v>
       </c>
       <c r="J17" s="3">
-        <v>11878700</v>
+        <v>11323100</v>
       </c>
       <c r="K17" s="3">
         <v>12397000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1974000</v>
+        <v>-1881700</v>
       </c>
       <c r="E18" s="3">
-        <v>-2021100</v>
+        <v>-1926500</v>
       </c>
       <c r="F18" s="3">
-        <v>1472100</v>
+        <v>1403300</v>
       </c>
       <c r="G18" s="3">
-        <v>1359400</v>
+        <v>1295800</v>
       </c>
       <c r="H18" s="3">
-        <v>1377200</v>
+        <v>1312800</v>
       </c>
       <c r="I18" s="3">
-        <v>1823300</v>
+        <v>1738100</v>
       </c>
       <c r="J18" s="3">
-        <v>1843600</v>
+        <v>1757400</v>
       </c>
       <c r="K18" s="3">
         <v>892700</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>265300</v>
+        <v>252900</v>
       </c>
       <c r="E20" s="3">
-        <v>374600</v>
+        <v>357000</v>
       </c>
       <c r="F20" s="3">
-        <v>-89400</v>
+        <v>-85200</v>
       </c>
       <c r="G20" s="3">
-        <v>-274100</v>
+        <v>-261300</v>
       </c>
       <c r="H20" s="3">
-        <v>345100</v>
+        <v>328900</v>
       </c>
       <c r="I20" s="3">
-        <v>-480400</v>
+        <v>-458000</v>
       </c>
       <c r="J20" s="3">
-        <v>-696400</v>
+        <v>-663800</v>
       </c>
       <c r="K20" s="3">
         <v>1800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1513600</v>
+        <v>1423500</v>
       </c>
       <c r="E21" s="3">
-        <v>1515400</v>
+        <v>1425700</v>
       </c>
       <c r="F21" s="3">
-        <v>4524100</v>
+        <v>4293700</v>
       </c>
       <c r="G21" s="3">
-        <v>3311800</v>
+        <v>3143600</v>
       </c>
       <c r="H21" s="3">
-        <v>3752500</v>
+        <v>3564900</v>
       </c>
       <c r="I21" s="3">
-        <v>3163300</v>
+        <v>3004500</v>
       </c>
       <c r="J21" s="3">
-        <v>2721800</v>
+        <v>2585100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>848700</v>
+        <v>809000</v>
       </c>
       <c r="E22" s="3">
-        <v>761300</v>
+        <v>725600</v>
       </c>
       <c r="F22" s="3">
-        <v>755000</v>
+        <v>719700</v>
       </c>
       <c r="G22" s="3">
-        <v>522200</v>
+        <v>497800</v>
       </c>
       <c r="H22" s="3">
-        <v>465000</v>
+        <v>443200</v>
       </c>
       <c r="I22" s="3">
-        <v>394100</v>
+        <v>375700</v>
       </c>
       <c r="J22" s="3">
-        <v>319700</v>
+        <v>304700</v>
       </c>
       <c r="K22" s="3">
         <v>288400</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2557400</v>
+        <v>-2437800</v>
       </c>
       <c r="E23" s="3">
-        <v>-2407700</v>
+        <v>-2295100</v>
       </c>
       <c r="F23" s="3">
-        <v>627800</v>
+        <v>598400</v>
       </c>
       <c r="G23" s="3">
-        <v>563100</v>
+        <v>536800</v>
       </c>
       <c r="H23" s="3">
-        <v>1257300</v>
+        <v>1198500</v>
       </c>
       <c r="I23" s="3">
-        <v>948800</v>
+        <v>904400</v>
       </c>
       <c r="J23" s="3">
-        <v>827600</v>
+        <v>788800</v>
       </c>
       <c r="K23" s="3">
         <v>606100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-617600</v>
+        <v>-588700</v>
       </c>
       <c r="E24" s="3">
-        <v>-573500</v>
+        <v>-546600</v>
       </c>
       <c r="F24" s="3">
-        <v>119600</v>
+        <v>114000</v>
       </c>
       <c r="G24" s="3">
-        <v>135200</v>
+        <v>128900</v>
       </c>
       <c r="H24" s="3">
-        <v>262900</v>
+        <v>250600</v>
       </c>
       <c r="I24" s="3">
-        <v>225200</v>
+        <v>214600</v>
       </c>
       <c r="J24" s="3">
-        <v>91100</v>
+        <v>86900</v>
       </c>
       <c r="K24" s="3">
         <v>84400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1939900</v>
+        <v>-1849100</v>
       </c>
       <c r="E26" s="3">
-        <v>-1834300</v>
+        <v>-1748500</v>
       </c>
       <c r="F26" s="3">
-        <v>508200</v>
+        <v>484400</v>
       </c>
       <c r="G26" s="3">
-        <v>427900</v>
+        <v>407900</v>
       </c>
       <c r="H26" s="3">
-        <v>994500</v>
+        <v>948000</v>
       </c>
       <c r="I26" s="3">
-        <v>723600</v>
+        <v>689700</v>
       </c>
       <c r="J26" s="3">
-        <v>736400</v>
+        <v>702000</v>
       </c>
       <c r="K26" s="3">
         <v>521700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1783600</v>
+        <v>-1700200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1728400</v>
+        <v>-1647600</v>
       </c>
       <c r="F27" s="3">
-        <v>466100</v>
+        <v>444300</v>
       </c>
       <c r="G27" s="3">
-        <v>394000</v>
+        <v>375600</v>
       </c>
       <c r="H27" s="3">
-        <v>926100</v>
+        <v>882800</v>
       </c>
       <c r="I27" s="3">
-        <v>656800</v>
+        <v>626100</v>
       </c>
       <c r="J27" s="3">
-        <v>662500</v>
+        <v>631600</v>
       </c>
       <c r="K27" s="3">
         <v>502500</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-265300</v>
+        <v>-252900</v>
       </c>
       <c r="E32" s="3">
-        <v>-374600</v>
+        <v>-357000</v>
       </c>
       <c r="F32" s="3">
-        <v>89400</v>
+        <v>85200</v>
       </c>
       <c r="G32" s="3">
-        <v>274100</v>
+        <v>261300</v>
       </c>
       <c r="H32" s="3">
-        <v>-345100</v>
+        <v>-328900</v>
       </c>
       <c r="I32" s="3">
-        <v>480400</v>
+        <v>458000</v>
       </c>
       <c r="J32" s="3">
-        <v>696400</v>
+        <v>663800</v>
       </c>
       <c r="K32" s="3">
         <v>-1800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1783600</v>
+        <v>-1700200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1728400</v>
+        <v>-1647600</v>
       </c>
       <c r="F33" s="3">
-        <v>466100</v>
+        <v>444300</v>
       </c>
       <c r="G33" s="3">
-        <v>394000</v>
+        <v>375600</v>
       </c>
       <c r="H33" s="3">
-        <v>926100</v>
+        <v>882800</v>
       </c>
       <c r="I33" s="3">
-        <v>656800</v>
+        <v>626100</v>
       </c>
       <c r="J33" s="3">
-        <v>662500</v>
+        <v>631600</v>
       </c>
       <c r="K33" s="3">
         <v>502500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1783600</v>
+        <v>-1700200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1728400</v>
+        <v>-1647600</v>
       </c>
       <c r="F35" s="3">
-        <v>466100</v>
+        <v>444300</v>
       </c>
       <c r="G35" s="3">
-        <v>394000</v>
+        <v>375600</v>
       </c>
       <c r="H35" s="3">
-        <v>926100</v>
+        <v>882800</v>
       </c>
       <c r="I35" s="3">
-        <v>656800</v>
+        <v>626100</v>
       </c>
       <c r="J35" s="3">
-        <v>662500</v>
+        <v>631600</v>
       </c>
       <c r="K35" s="3">
         <v>502500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1891100</v>
+        <v>1802600</v>
       </c>
       <c r="E41" s="3">
-        <v>1117300</v>
+        <v>1065000</v>
       </c>
       <c r="F41" s="3">
-        <v>197100</v>
+        <v>187900</v>
       </c>
       <c r="G41" s="3">
-        <v>94300</v>
+        <v>89900</v>
       </c>
       <c r="H41" s="3">
-        <v>672500</v>
+        <v>641000</v>
       </c>
       <c r="I41" s="3">
-        <v>247500</v>
+        <v>235900</v>
       </c>
       <c r="J41" s="3">
-        <v>1326000</v>
+        <v>1263900</v>
       </c>
       <c r="K41" s="3">
         <v>199700</v>
@@ -1863,16 +1863,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12300</v>
+        <v>11700</v>
       </c>
       <c r="E42" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="F42" s="3">
-        <v>17700</v>
+        <v>16800</v>
       </c>
       <c r="G42" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1849900</v>
+        <v>1763400</v>
       </c>
       <c r="E43" s="3">
-        <v>1757200</v>
+        <v>1675000</v>
       </c>
       <c r="F43" s="3">
-        <v>2182600</v>
+        <v>2080500</v>
       </c>
       <c r="G43" s="3">
-        <v>1796900</v>
+        <v>1712900</v>
       </c>
       <c r="H43" s="3">
-        <v>1524800</v>
+        <v>1453500</v>
       </c>
       <c r="I43" s="3">
-        <v>1286400</v>
+        <v>1226200</v>
       </c>
       <c r="J43" s="3">
-        <v>1481200</v>
+        <v>1411900</v>
       </c>
       <c r="K43" s="3">
         <v>569100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>262700</v>
+        <v>250400</v>
       </c>
       <c r="E44" s="3">
-        <v>299900</v>
+        <v>285900</v>
       </c>
       <c r="F44" s="3">
-        <v>351500</v>
+        <v>335100</v>
       </c>
       <c r="G44" s="3">
-        <v>284800</v>
+        <v>271400</v>
       </c>
       <c r="H44" s="3">
-        <v>319100</v>
+        <v>304200</v>
       </c>
       <c r="I44" s="3">
-        <v>328300</v>
+        <v>312900</v>
       </c>
       <c r="J44" s="3">
-        <v>300200</v>
+        <v>286200</v>
       </c>
       <c r="K44" s="3">
         <v>332900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59700</v>
+        <v>56900</v>
       </c>
       <c r="E45" s="3">
-        <v>97100</v>
+        <v>92600</v>
       </c>
       <c r="F45" s="3">
-        <v>134200</v>
+        <v>127900</v>
       </c>
       <c r="G45" s="3">
-        <v>136500</v>
+        <v>130200</v>
       </c>
       <c r="H45" s="3">
-        <v>154900</v>
+        <v>147700</v>
       </c>
       <c r="I45" s="3">
-        <v>458000</v>
+        <v>436500</v>
       </c>
       <c r="J45" s="3">
-        <v>262700</v>
+        <v>250400</v>
       </c>
       <c r="K45" s="3">
         <v>1586600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4075700</v>
+        <v>3885100</v>
       </c>
       <c r="E46" s="3">
-        <v>3285400</v>
+        <v>3131700</v>
       </c>
       <c r="F46" s="3">
-        <v>2883100</v>
+        <v>2748200</v>
       </c>
       <c r="G46" s="3">
-        <v>2326500</v>
+        <v>2217700</v>
       </c>
       <c r="H46" s="3">
-        <v>2671300</v>
+        <v>2546400</v>
       </c>
       <c r="I46" s="3">
-        <v>2320100</v>
+        <v>2211600</v>
       </c>
       <c r="J46" s="3">
-        <v>3370100</v>
+        <v>3212500</v>
       </c>
       <c r="K46" s="3">
         <v>2688300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>562500</v>
+        <v>536200</v>
       </c>
       <c r="E47" s="3">
-        <v>678500</v>
+        <v>646700</v>
       </c>
       <c r="F47" s="3">
-        <v>572400</v>
+        <v>545700</v>
       </c>
       <c r="G47" s="3">
-        <v>522100</v>
+        <v>497600</v>
       </c>
       <c r="H47" s="3">
-        <v>449200</v>
+        <v>428200</v>
       </c>
       <c r="I47" s="3">
-        <v>407100</v>
+        <v>388100</v>
       </c>
       <c r="J47" s="3">
-        <v>509200</v>
+        <v>485400</v>
       </c>
       <c r="K47" s="3">
         <v>298300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33957800</v>
+        <v>32369600</v>
       </c>
       <c r="E48" s="3">
-        <v>34580200</v>
+        <v>32962800</v>
       </c>
       <c r="F48" s="3">
-        <v>35802500</v>
+        <v>34127900</v>
       </c>
       <c r="G48" s="3">
-        <v>29636400</v>
+        <v>28250200</v>
       </c>
       <c r="H48" s="3">
-        <v>28056300</v>
+        <v>26744100</v>
       </c>
       <c r="I48" s="3">
-        <v>25868200</v>
+        <v>24658300</v>
       </c>
       <c r="J48" s="3">
-        <v>22646500</v>
+        <v>21587300</v>
       </c>
       <c r="K48" s="3">
         <v>19112400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1710400</v>
+        <v>1630400</v>
       </c>
       <c r="E49" s="3">
-        <v>1711200</v>
+        <v>1631100</v>
       </c>
       <c r="F49" s="3">
-        <v>1708300</v>
+        <v>1628400</v>
       </c>
       <c r="G49" s="3">
-        <v>1695300</v>
+        <v>1616000</v>
       </c>
       <c r="H49" s="3">
-        <v>1693400</v>
+        <v>1614200</v>
       </c>
       <c r="I49" s="3">
-        <v>1697500</v>
+        <v>1618100</v>
       </c>
       <c r="J49" s="3">
-        <v>1682600</v>
+        <v>1603900</v>
       </c>
       <c r="K49" s="3">
         <v>1694600</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1865500</v>
+        <v>1778300</v>
       </c>
       <c r="E52" s="3">
-        <v>1312200</v>
+        <v>1250900</v>
       </c>
       <c r="F52" s="3">
-        <v>679300</v>
+        <v>647600</v>
       </c>
       <c r="G52" s="3">
-        <v>723400</v>
+        <v>689600</v>
       </c>
       <c r="H52" s="3">
-        <v>676800</v>
+        <v>645200</v>
       </c>
       <c r="I52" s="3">
-        <v>712800</v>
+        <v>679400</v>
       </c>
       <c r="J52" s="3">
-        <v>704400</v>
+        <v>671500</v>
       </c>
       <c r="K52" s="3">
         <v>642900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42172000</v>
+        <v>40199600</v>
       </c>
       <c r="E54" s="3">
-        <v>41567400</v>
+        <v>39623300</v>
       </c>
       <c r="F54" s="3">
-        <v>41645600</v>
+        <v>39697800</v>
       </c>
       <c r="G54" s="3">
-        <v>34903700</v>
+        <v>33271200</v>
       </c>
       <c r="H54" s="3">
-        <v>33547000</v>
+        <v>31978000</v>
       </c>
       <c r="I54" s="3">
-        <v>31005700</v>
+        <v>29555500</v>
       </c>
       <c r="J54" s="3">
-        <v>28912800</v>
+        <v>27560500</v>
       </c>
       <c r="K54" s="3">
         <v>24436600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>358400</v>
+        <v>341600</v>
       </c>
       <c r="E57" s="3">
-        <v>470200</v>
+        <v>448200</v>
       </c>
       <c r="F57" s="3">
-        <v>566200</v>
+        <v>539700</v>
       </c>
       <c r="G57" s="3">
-        <v>590000</v>
+        <v>562400</v>
       </c>
       <c r="H57" s="3">
-        <v>465000</v>
+        <v>443200</v>
       </c>
       <c r="I57" s="3">
-        <v>493000</v>
+        <v>469900</v>
       </c>
       <c r="J57" s="3">
-        <v>542100</v>
+        <v>516700</v>
       </c>
       <c r="K57" s="3">
         <v>307000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8958800</v>
+        <v>8539800</v>
       </c>
       <c r="E58" s="3">
-        <v>10400700</v>
+        <v>9914200</v>
       </c>
       <c r="F58" s="3">
-        <v>5961400</v>
+        <v>5682600</v>
       </c>
       <c r="G58" s="3">
-        <v>5640100</v>
+        <v>5376300</v>
       </c>
       <c r="H58" s="3">
-        <v>7057800</v>
+        <v>6727700</v>
       </c>
       <c r="I58" s="3">
-        <v>5153300</v>
+        <v>4912200</v>
       </c>
       <c r="J58" s="3">
-        <v>6472500</v>
+        <v>6169800</v>
       </c>
       <c r="K58" s="3">
         <v>4903000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3225500</v>
+        <v>3074600</v>
       </c>
       <c r="E59" s="3">
-        <v>3704100</v>
+        <v>3530800</v>
       </c>
       <c r="F59" s="3">
-        <v>4915800</v>
+        <v>4685900</v>
       </c>
       <c r="G59" s="3">
-        <v>4439500</v>
+        <v>4231800</v>
       </c>
       <c r="H59" s="3">
-        <v>4207600</v>
+        <v>4010800</v>
       </c>
       <c r="I59" s="3">
-        <v>4295800</v>
+        <v>4094800</v>
       </c>
       <c r="J59" s="3">
-        <v>3848200</v>
+        <v>3668200</v>
       </c>
       <c r="K59" s="3">
         <v>3798200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12542700</v>
+        <v>11956000</v>
       </c>
       <c r="E60" s="3">
-        <v>14575000</v>
+        <v>13893300</v>
       </c>
       <c r="F60" s="3">
-        <v>11443300</v>
+        <v>10908100</v>
       </c>
       <c r="G60" s="3">
-        <v>10669500</v>
+        <v>10170500</v>
       </c>
       <c r="H60" s="3">
-        <v>11730300</v>
+        <v>11181700</v>
       </c>
       <c r="I60" s="3">
-        <v>9942000</v>
+        <v>9477000</v>
       </c>
       <c r="J60" s="3">
-        <v>10862700</v>
+        <v>10354700</v>
       </c>
       <c r="K60" s="3">
         <v>9008100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19410000</v>
+        <v>18502200</v>
       </c>
       <c r="E61" s="3">
-        <v>16490100</v>
+        <v>15718900</v>
       </c>
       <c r="F61" s="3">
-        <v>17711800</v>
+        <v>16883400</v>
       </c>
       <c r="G61" s="3">
-        <v>13716600</v>
+        <v>13075100</v>
       </c>
       <c r="H61" s="3">
-        <v>12023800</v>
+        <v>11461400</v>
       </c>
       <c r="I61" s="3">
-        <v>12045100</v>
+        <v>11481800</v>
       </c>
       <c r="J61" s="3">
-        <v>10921300</v>
+        <v>10410500</v>
       </c>
       <c r="K61" s="3">
         <v>9521200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1873400</v>
+        <v>1785800</v>
       </c>
       <c r="E62" s="3">
-        <v>1864100</v>
+        <v>1776900</v>
       </c>
       <c r="F62" s="3">
-        <v>1881900</v>
+        <v>1793900</v>
       </c>
       <c r="G62" s="3">
-        <v>1521900</v>
+        <v>1450700</v>
       </c>
       <c r="H62" s="3">
-        <v>1209600</v>
+        <v>1153000</v>
       </c>
       <c r="I62" s="3">
-        <v>1371500</v>
+        <v>1307400</v>
       </c>
       <c r="J62" s="3">
-        <v>1297600</v>
+        <v>1236900</v>
       </c>
       <c r="K62" s="3">
         <v>1225400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34342600</v>
+        <v>32736400</v>
       </c>
       <c r="E66" s="3">
-        <v>33353400</v>
+        <v>31793400</v>
       </c>
       <c r="F66" s="3">
-        <v>31568300</v>
+        <v>30091800</v>
       </c>
       <c r="G66" s="3">
-        <v>26432700</v>
+        <v>25196500</v>
       </c>
       <c r="H66" s="3">
-        <v>25462800</v>
+        <v>24271900</v>
       </c>
       <c r="I66" s="3">
-        <v>23784500</v>
+        <v>22672100</v>
       </c>
       <c r="J66" s="3">
-        <v>23449600</v>
+        <v>22352900</v>
       </c>
       <c r="K66" s="3">
         <v>20019600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5073200</v>
+        <v>4835900</v>
       </c>
       <c r="E72" s="3">
-        <v>5822200</v>
+        <v>5549900</v>
       </c>
       <c r="F72" s="3">
-        <v>7685400</v>
+        <v>7326000</v>
       </c>
       <c r="G72" s="3">
-        <v>6358300</v>
+        <v>6060900</v>
       </c>
       <c r="H72" s="3">
-        <v>5971600</v>
+        <v>5692300</v>
       </c>
       <c r="I72" s="3">
-        <v>5108600</v>
+        <v>4869600</v>
       </c>
       <c r="J72" s="3">
-        <v>3544300</v>
+        <v>3378500</v>
       </c>
       <c r="K72" s="3">
         <v>-416900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7829400</v>
+        <v>7463200</v>
       </c>
       <c r="E76" s="3">
-        <v>8214000</v>
+        <v>7829900</v>
       </c>
       <c r="F76" s="3">
-        <v>10077200</v>
+        <v>9605900</v>
       </c>
       <c r="G76" s="3">
-        <v>8470900</v>
+        <v>8074700</v>
       </c>
       <c r="H76" s="3">
-        <v>8084200</v>
+        <v>7706100</v>
       </c>
       <c r="I76" s="3">
-        <v>7221200</v>
+        <v>6883400</v>
       </c>
       <c r="J76" s="3">
-        <v>5463100</v>
+        <v>5207600</v>
       </c>
       <c r="K76" s="3">
         <v>4417000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1783600</v>
+        <v>-1700200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1728400</v>
+        <v>-1647600</v>
       </c>
       <c r="F81" s="3">
-        <v>466100</v>
+        <v>444300</v>
       </c>
       <c r="G81" s="3">
-        <v>394000</v>
+        <v>375600</v>
       </c>
       <c r="H81" s="3">
-        <v>926100</v>
+        <v>882800</v>
       </c>
       <c r="I81" s="3">
-        <v>656800</v>
+        <v>626100</v>
       </c>
       <c r="J81" s="3">
-        <v>662500</v>
+        <v>631600</v>
       </c>
       <c r="K81" s="3">
         <v>502500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3227100</v>
+        <v>3076200</v>
       </c>
       <c r="E83" s="3">
-        <v>3166700</v>
+        <v>3018600</v>
       </c>
       <c r="F83" s="3">
-        <v>3146100</v>
+        <v>2998900</v>
       </c>
       <c r="G83" s="3">
-        <v>2229900</v>
+        <v>2125600</v>
       </c>
       <c r="H83" s="3">
-        <v>2033300</v>
+        <v>1938200</v>
       </c>
       <c r="I83" s="3">
-        <v>1823200</v>
+        <v>1737900</v>
       </c>
       <c r="J83" s="3">
-        <v>1577000</v>
+        <v>1503200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>831200</v>
+        <v>792300</v>
       </c>
       <c r="E89" s="3">
-        <v>176800</v>
+        <v>168600</v>
       </c>
       <c r="F89" s="3">
-        <v>4230800</v>
+        <v>4032900</v>
       </c>
       <c r="G89" s="3">
-        <v>3262000</v>
+        <v>3109400</v>
       </c>
       <c r="H89" s="3">
-        <v>2858100</v>
+        <v>2724400</v>
       </c>
       <c r="I89" s="3">
-        <v>3635100</v>
+        <v>3465100</v>
       </c>
       <c r="J89" s="3">
-        <v>3552200</v>
+        <v>3386000</v>
       </c>
       <c r="K89" s="3">
         <v>1592400</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1578100</v>
+        <v>-1504300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1058300</v>
+        <v>-1008800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1108200</v>
+        <v>-1056400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1555700</v>
+        <v>-1482900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1138400</v>
+        <v>-1085200</v>
       </c>
       <c r="I91" s="3">
-        <v>-3144500</v>
+        <v>-2997400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1257200</v>
+        <v>-1198400</v>
       </c>
       <c r="K91" s="3">
         <v>-268500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>314700</v>
+        <v>300000</v>
       </c>
       <c r="E94" s="3">
-        <v>-917500</v>
+        <v>-874600</v>
       </c>
       <c r="F94" s="3">
-        <v>-715400</v>
+        <v>-681900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1866300</v>
+        <v>-1779000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3112200</v>
+        <v>-2966600</v>
       </c>
       <c r="I94" s="3">
-        <v>-5429400</v>
+        <v>-5175500</v>
       </c>
       <c r="J94" s="3">
-        <v>-4059600</v>
+        <v>-3869800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3767,19 +3767,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-119600</v>
+        <v>-114000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-107800</v>
+        <v>-102700</v>
       </c>
       <c r="H96" s="3">
-        <v>-103500</v>
+        <v>-98700</v>
       </c>
       <c r="I96" s="3">
-        <v>-107800</v>
+        <v>-102700</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-368900</v>
+        <v>-351600</v>
       </c>
       <c r="E100" s="3">
-        <v>1668500</v>
+        <v>1590500</v>
       </c>
       <c r="F100" s="3">
-        <v>-3413500</v>
+        <v>-3253800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1979900</v>
+        <v>-1887300</v>
       </c>
       <c r="H100" s="3">
-        <v>687500</v>
+        <v>655400</v>
       </c>
       <c r="I100" s="3">
-        <v>676700</v>
+        <v>645100</v>
       </c>
       <c r="J100" s="3">
-        <v>1618500</v>
+        <v>1542800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="E101" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="F101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="H101" s="3">
-        <v>-6900</v>
+        <v>-6500</v>
       </c>
       <c r="I101" s="3">
-        <v>39100</v>
+        <v>37300</v>
       </c>
       <c r="J101" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>773800</v>
+        <v>737600</v>
       </c>
       <c r="E102" s="3">
-        <v>920100</v>
+        <v>877100</v>
       </c>
       <c r="F102" s="3">
-        <v>102800</v>
+        <v>98000</v>
       </c>
       <c r="G102" s="3">
-        <v>-579700</v>
+        <v>-552600</v>
       </c>
       <c r="H102" s="3">
-        <v>426600</v>
+        <v>406600</v>
       </c>
       <c r="I102" s="3">
-        <v>-1078400</v>
+        <v>-1028000</v>
       </c>
       <c r="J102" s="3">
-        <v>1128100</v>
+        <v>1075300</v>
       </c>
       <c r="K102" s="3">
         <v>-76100</v>
